--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97A4C95-4A61-4897-8FF8-C38094220ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150D583-A2AC-4BC1-8478-B84F68C4F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
     <sheet name="ExtTest10mm_2" sheetId="10" r:id="rId2"/>
-    <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId3"/>
-    <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId4"/>
+    <sheet name="ExtTest10mm_3" sheetId="11" r:id="rId3"/>
+    <sheet name="ExtTest10mm_4" sheetId="12" r:id="rId4"/>
+    <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId5"/>
+    <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Test #</t>
   </si>
@@ -99,6 +101,30 @@
   </si>
   <si>
     <t>corrected?</t>
+  </si>
+  <si>
+    <t>*Check at end</t>
+  </si>
+  <si>
+    <t>^ Collected by Ben</t>
+  </si>
+  <si>
+    <t>^ Collected by Jason 1-13 &amp; 19-29 , Ben 14-18</t>
+  </si>
+  <si>
+    <t>*BPA barely starts touching screw head again</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>**Passive tension, uninflated</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>***bracket broke, failure via material pull out</t>
   </si>
 </sst>
 </file>
@@ -1233,63 +1259,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-121.5</c:v>
+                  <c:v>-125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-108.5</c:v>
+                  <c:v>-120.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-111.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>-101.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>-94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-75</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>-61.5</c:v>
+                  <c:v>-88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-65</c:v>
+                  <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>-32</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>-18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-32.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-47.5</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>-57.5</c:v>
+                  <c:v>-17.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-69.5</c:v>
+                  <c:v>-10.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-33.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-58.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>-80</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>-90.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-96.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-104</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-113.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="23">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-88.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-99.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-111.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-114.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>-123</c:v>
                 </c:pt>
               </c:numCache>
@@ -1302,91 +1355,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>4.6268503604248918</c:v>
+                  <c:v>6.1686922582960024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.503204045949718</c:v>
+                  <c:v>6.0729840040036489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.292029850012379</c:v>
+                  <c:v>5.9167349398453775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0020278331196497</c:v>
+                  <c:v>5.983690137549968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4170146735878646</c:v>
+                  <c:v>6.2202911938343854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8262014737182244</c:v>
+                  <c:v>5.5805949463773015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5382325084724908</c:v>
+                  <c:v>4.9816385043082114</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2140844965662649</c:v>
+                  <c:v>4.5599832267718101</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.43920369384826125</c:v>
+                  <c:v>4.0594766934228144</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-8.0856655753314327E-2</c:v>
+                  <c:v>3.1566420596586546</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53921769785329232</c:v>
+                  <c:v>2.5653160602863676</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2603498716892021</c:v>
+                  <c:v>2.1271080031609513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.254964352094134</c:v>
+                  <c:v>1.7857816656369578</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2076881107815294</c:v>
+                  <c:v>0.77471598902880734</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8515488055553049</c:v>
+                  <c:v>0.30969688549123514</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2435142825961298</c:v>
+                  <c:v>-5.7265164305165206E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6723060174235034</c:v>
+                  <c:v>0.53607422919584036</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8735648831574281</c:v>
+                  <c:v>2.3186689634125557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1460262979956539</c:v>
+                  <c:v>2.9903371078669587</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0871610983336719</c:v>
+                  <c:v>3.6135610298166738</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.9995802012739166</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.7377824490657234</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5.2913626950039561</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5.5565256355866133</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>6.0286043979188237</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.3184288033657463</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>6.4167214595502848</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>6.6684721067822155</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>6.5120375248934952</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -1872,6 +1925,1249 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
+              <c:f>ExtTest10mm_3!$C$7:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_3!$C$15:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>7.0134415686400926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7293509604699846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3461345705947148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4546236345151771</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E6CC-4674-8BEF-4A4F92954E81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.54457231908511439"/>
+                  <c:y val="-0.10016856803790615"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32007827146606677"/>
+                  <c:y val="-6.6366258673111411E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_4!$C$7:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>-103.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-51.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-39.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-55.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-25.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-53.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_4!$C$15:$AI$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>8.5047736202914699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5394492849781658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6194684828502801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8355816188247456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1203702894136685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0059001857849141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1782911841842409</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.391414397009699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9680455904544294</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0991051231568809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.937408550285844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.880958611179155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3756598948371668</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.388083398389504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7958621930655867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7582375762877434</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30675317190114915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7259028691611564</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2040950443238865</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.1452227356887708</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.3042423522142954</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.8178701420600625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5119191588333143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.9116485605610567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1105270447475082</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8620667966654647</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7FD1-4B3B-8B30-38083F1B926E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1394438799"/>
+        <c:axId val="1190584639"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1394438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1190584639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1190584639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flexor 10mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Knee Torque</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.4158344861650378E-2"/>
+          <c:y val="0.17072497123130037"/>
+          <c:w val="0.91627572927286405"/>
+          <c:h val="0.77864211737629463"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.60346456692913386"/>
+                  <c:y val="-0.28313193524076818"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40464027934008251"/>
+                  <c:y val="-1.2615056781268678E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
               <c:f>FlxTest10mm_1!$C$7:$AI$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2265,7 +3561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3069,6 +4365,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4618,6 +5994,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5239,6 +7647,92 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32F7062-A777-4820-B1A6-9295961702C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426508</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>426508</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22861B16-F4D1-4AD0-BE0B-B6E03136E2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740833</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131233</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739FA640-F8ED-4CD7-A88D-06604D5CF975}"/>
             </a:ext>
           </a:extLst>
@@ -5262,7 +7756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5604,8 +8098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83896A-0586-4C90-B5FD-474633C66A37}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,7 +8124,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5642,7 +8136,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>402.55</v>
+        <v>403.38</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -5650,7 +8144,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6296,135 +8790,135 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <f t="shared" ref="C15:K15" si="1">C6*SIN(RADIANS(C8))*C12/1000</f>
         <v>4.6268503604248918</v>
       </c>
       <c r="D15">
-        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
+        <f t="shared" si="1"/>
         <v>4.503204045949718</v>
       </c>
       <c r="E15">
-        <f>E6*SIN(RADIANS(E8))*E12/1000</f>
+        <f t="shared" si="1"/>
         <v>4.292029850012379</v>
       </c>
       <c r="F15">
-        <f>F6*SIN(RADIANS(F8))*F12/1000</f>
+        <f t="shared" si="1"/>
         <v>4.0020278331196497</v>
       </c>
       <c r="G15">
-        <f>G6*SIN(RADIANS(G8))*G12/1000</f>
+        <f t="shared" si="1"/>
         <v>3.4170146735878646</v>
       </c>
       <c r="H15">
-        <f>H6*SIN(RADIANS(H8))*H12/1000</f>
+        <f t="shared" si="1"/>
         <v>2.8262014737182244</v>
       </c>
       <c r="I15">
-        <f>I6*SIN(RADIANS(I8))*I12/1000</f>
+        <f t="shared" si="1"/>
         <v>1.5382325084724908</v>
       </c>
       <c r="J15">
-        <f>J6*SIN(RADIANS(J8))*J12/1000</f>
+        <f t="shared" si="1"/>
         <v>1.2140844965662649</v>
       </c>
       <c r="K15">
-        <f>K6*SIN(RADIANS(K8))*K12/1000</f>
+        <f t="shared" si="1"/>
         <v>0.43920369384826125</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:V15" si="1">L6*SIN(RADIANS(L8))*L12/1000</f>
+        <f t="shared" ref="L15:V15" si="2">L6*SIN(RADIANS(L8))*L12/1000</f>
         <v>-8.0856655753314327E-2</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.53921769785329232</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2603498716892021</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.254964352094134</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2076881107815294</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8515488055553049</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.2435142825961298</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6723060174235034</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8735648831574281</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1460262979956539</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0871610983336719</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:AI15" si="2">W6*-SIN(RADIANS(W8))*W12/1000</f>
+        <f t="shared" ref="W15:AI15" si="3">W6*-SIN(RADIANS(W8))*W12/1000</f>
         <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6435,39 +8929,39 @@
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f>C6+4.6262</f>
+        <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
       </c>
       <c r="D18">
-        <f>D6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>21.7072</v>
       </c>
       <c r="E18">
-        <f>E6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>20.906200000000002</v>
       </c>
       <c r="F18">
-        <f>F6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>19.8062</v>
       </c>
       <c r="G18">
-        <f>G6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>17.587199999999999</v>
       </c>
       <c r="H18">
-        <f>H6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>15.3462</v>
       </c>
       <c r="I18">
-        <f>I6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>10.5101</v>
       </c>
       <c r="J18">
-        <f>J6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>9.2701999999999991</v>
       </c>
       <c r="K18">
-        <f>K6+4.6262</f>
+        <f t="shared" si="4"/>
         <v>6.3061999999999996</v>
       </c>
     </row>
@@ -6482,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1208C-7CDD-421F-9FF0-096EE144B4F3}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6508,10 +9002,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -6520,7 +9014,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>402.55</v>
+        <v>379.31</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -6528,7 +9022,10 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6659,64 +9156,91 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>17.55</v>
+        <v>23.123999999999999</v>
       </c>
       <c r="D6">
-        <v>17.081</v>
+        <v>22.821999999999999</v>
       </c>
       <c r="E6">
-        <v>16.28</v>
+        <v>22.417999999999999</v>
       </c>
       <c r="F6">
-        <v>15.18</v>
+        <v>22.584</v>
       </c>
       <c r="G6">
-        <v>12.961</v>
+        <v>23.396999999999998</v>
       </c>
       <c r="H6">
-        <v>10.72</v>
+        <v>21.117000000000001</v>
       </c>
       <c r="I6">
-        <v>5.8838999999999997</v>
+        <v>18.875</v>
       </c>
       <c r="J6">
-        <v>4.6440000000000001</v>
+        <v>17.254999999999999</v>
       </c>
       <c r="K6">
-        <v>1.68</v>
+        <v>15.285</v>
       </c>
       <c r="L6">
-        <v>-0.311</v>
+        <v>11.97</v>
       </c>
       <c r="M6">
-        <v>2.0739999999999998</v>
+        <v>9.6539999999999999</v>
       </c>
       <c r="N6">
-        <v>4.8476999999999997</v>
+        <v>7.9669999999999996</v>
       </c>
       <c r="O6">
-        <v>8.5419999999999998</v>
+        <v>6.6920000000000002</v>
       </c>
       <c r="P6">
-        <v>12.151</v>
+        <v>2.9020000000000001</v>
       </c>
       <c r="Q6">
-        <v>14.59</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="R6">
-        <v>16.151</v>
+        <v>-0.215</v>
       </c>
       <c r="S6">
-        <v>17.783000000000001</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="T6">
-        <v>18.548999999999999</v>
+        <v>8.6850000000000005</v>
       </c>
       <c r="U6">
-        <v>19.585999999999999</v>
+        <v>11.27</v>
       </c>
       <c r="V6">
-        <v>23.167999999999999</v>
+        <v>13.627000000000001</v>
+      </c>
+      <c r="W6">
+        <v>15.065</v>
+      </c>
+      <c r="X6">
+        <v>17.838999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>19.927</v>
+      </c>
+      <c r="Z6">
+        <v>21.132000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>22.739000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>23.741</v>
+      </c>
+      <c r="AC6">
+        <v>24.338999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>25.221</v>
+      </c>
+      <c r="AE6">
+        <v>24.667000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -6724,63 +9248,90 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-121.5</v>
+        <v>-125</v>
       </c>
       <c r="D7">
-        <v>-108.5</v>
+        <v>-120.5</v>
       </c>
       <c r="E7">
+        <v>-115</v>
+      </c>
+      <c r="F7">
+        <v>-111.5</v>
+      </c>
+      <c r="G7">
+        <v>-108</v>
+      </c>
+      <c r="H7">
         <v>-101.5</v>
       </c>
-      <c r="F7">
-        <v>-94</v>
-      </c>
-      <c r="G7">
-        <v>-83</v>
-      </c>
-      <c r="H7">
-        <v>-75</v>
-      </c>
       <c r="I7">
-        <v>-61.5</v>
+        <v>-88</v>
       </c>
       <c r="J7">
-        <v>-65</v>
+        <v>-80</v>
       </c>
       <c r="K7">
+        <v>-71</v>
+      </c>
+      <c r="L7">
+        <v>-58</v>
+      </c>
+      <c r="M7">
+        <v>-40</v>
+      </c>
+      <c r="N7">
         <v>-32</v>
       </c>
-      <c r="L7">
-        <v>-18</v>
-      </c>
-      <c r="M7">
-        <v>-32.5</v>
-      </c>
-      <c r="N7">
-        <v>-47.5</v>
-      </c>
       <c r="O7">
-        <v>-57.5</v>
+        <v>-17.5</v>
       </c>
       <c r="P7">
-        <v>-69.5</v>
+        <v>-10.5</v>
       </c>
       <c r="Q7">
+        <v>-4</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>-3.5</v>
+      </c>
+      <c r="T7">
+        <v>-16</v>
+      </c>
+      <c r="U7">
+        <v>-33.5</v>
+      </c>
+      <c r="V7">
+        <v>-48</v>
+      </c>
+      <c r="W7">
+        <v>-58.5</v>
+      </c>
+      <c r="X7">
+        <v>-72</v>
+      </c>
+      <c r="Y7">
         <v>-80</v>
       </c>
-      <c r="R7">
-        <v>-90.5</v>
-      </c>
-      <c r="S7">
-        <v>-96.5</v>
-      </c>
-      <c r="T7">
-        <v>-104</v>
-      </c>
-      <c r="U7">
-        <v>-113.5</v>
-      </c>
-      <c r="V7">
+      <c r="Z7">
+        <v>-85</v>
+      </c>
+      <c r="AA7">
+        <v>-88.5</v>
+      </c>
+      <c r="AB7">
+        <v>-99.5</v>
+      </c>
+      <c r="AC7">
+        <v>-111.5</v>
+      </c>
+      <c r="AD7">
+        <v>-114.5</v>
+      </c>
+      <c r="AE7">
         <v>-123</v>
       </c>
     </row>
@@ -6792,68 +9343,92 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>93</v>
+        <v>87.6</v>
       </c>
       <c r="D8" s="3">
-        <v>93</v>
+        <v>85.3</v>
       </c>
       <c r="E8" s="3">
-        <v>93</v>
+        <v>81.3</v>
       </c>
       <c r="F8" s="3">
-        <v>93</v>
+        <v>82.9</v>
       </c>
       <c r="G8" s="3">
-        <v>93</v>
+        <v>84.7</v>
       </c>
       <c r="H8" s="3">
-        <v>93</v>
+        <v>81.8</v>
       </c>
       <c r="I8" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>81</v>
+      </c>
+      <c r="M8" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>89.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>88.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>90.7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>94</v>
+      </c>
+      <c r="S8" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="V8" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="W8" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="X8" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AD8" s="1">
         <v>82</v>
       </c>
-      <c r="J8" s="3">
-        <v>82</v>
-      </c>
-      <c r="K8" s="3">
-        <v>82</v>
-      </c>
-      <c r="L8" s="3">
-        <v>80</v>
-      </c>
-      <c r="M8" s="3">
-        <v>80</v>
-      </c>
-      <c r="N8" s="3">
-        <v>80</v>
-      </c>
-      <c r="O8" s="3">
-        <v>90.6</v>
-      </c>
-      <c r="P8" s="3">
-        <v>90.6</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>90.6</v>
-      </c>
-      <c r="R8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="AE8" s="1">
+        <v>81.400000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -6901,74 +9476,92 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>455.5</v>
+        <v>453.5</v>
       </c>
       <c r="D10" s="15">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="E10" s="15">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="F10" s="15">
-        <v>451</v>
+        <v>450.5</v>
       </c>
       <c r="G10" s="15">
-        <v>440</v>
+        <v>449.5</v>
       </c>
       <c r="H10" s="15">
-        <v>438.5</v>
+        <v>442.5</v>
       </c>
       <c r="I10" s="15">
+        <v>439</v>
+      </c>
+      <c r="J10" s="15">
         <v>435</v>
       </c>
-      <c r="J10" s="15">
-        <v>415.5</v>
-      </c>
       <c r="K10" s="15">
-        <v>413</v>
+        <v>422.5</v>
       </c>
       <c r="L10" s="15">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="M10" s="15">
-        <v>409.5</v>
+        <v>410.5</v>
       </c>
       <c r="N10" s="15">
-        <v>418</v>
+        <v>398.5</v>
       </c>
       <c r="O10" s="15">
-        <v>426.5</v>
+        <v>400.5</v>
       </c>
       <c r="P10" s="15">
+        <v>395</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>384</v>
+      </c>
+      <c r="R10" s="15">
+        <v>381</v>
+      </c>
+      <c r="S10" s="15">
+        <v>382</v>
+      </c>
+      <c r="T10" s="15">
+        <v>394</v>
+      </c>
+      <c r="U10" s="2">
+        <v>408.5</v>
+      </c>
+      <c r="V10" s="2">
+        <v>414.5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>420.5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA10" s="2">
         <v>438</v>
       </c>
-      <c r="Q10" s="15">
-        <v>442.5</v>
-      </c>
-      <c r="R10" s="15">
-        <v>441.5</v>
-      </c>
-      <c r="S10" s="15">
-        <v>450</v>
-      </c>
-      <c r="T10" s="15">
-        <v>458.5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>455.5</v>
-      </c>
-      <c r="V10" s="2">
-        <v>463</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="AB10" s="2">
+        <v>438</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>441</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>445</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>447</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -7007,84 +9600,104 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="N12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="R12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="S12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="T12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="U12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="V12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="W12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X12" s="15">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Y12" s="15">
-        <v>264</v>
-      </c>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>267</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -7092,74 +9705,92 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15">
+        <v>30</v>
+      </c>
+      <c r="F13" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="G13" s="15">
         <v>30.5</v>
       </c>
-      <c r="D13" s="15">
-        <v>41.5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>39</v>
-      </c>
-      <c r="F13" s="15">
-        <v>35.5</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="H13" s="15">
+        <v>30</v>
+      </c>
+      <c r="I13" s="15">
+        <v>30</v>
+      </c>
+      <c r="J13" s="15">
+        <v>32.5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>34</v>
+      </c>
+      <c r="L13" s="15">
+        <v>35</v>
+      </c>
+      <c r="M13" s="15">
         <v>37</v>
-      </c>
-      <c r="H13" s="15">
-        <v>40.5</v>
-      </c>
-      <c r="I13" s="15">
-        <v>37</v>
-      </c>
-      <c r="J13" s="15">
-        <v>46.5</v>
-      </c>
-      <c r="K13" s="15">
-        <v>38.5</v>
-      </c>
-      <c r="L13" s="15">
-        <v>45.5</v>
-      </c>
-      <c r="M13" s="15">
-        <v>36.5</v>
       </c>
       <c r="N13" s="15">
         <v>38.5</v>
       </c>
       <c r="O13" s="15">
-        <v>35</v>
+        <v>44.5</v>
       </c>
       <c r="P13" s="15">
-        <v>38.5</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="15">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="R13" s="15">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="S13" s="15">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T13" s="15">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="U13" s="15">
-        <v>38</v>
+        <v>34.5</v>
       </c>
       <c r="V13" s="15">
-        <v>37</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
+        <v>33</v>
+      </c>
+      <c r="W13" s="15">
+        <v>32.5</v>
+      </c>
+      <c r="X13" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>30</v>
+      </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
@@ -7175,134 +9806,134 @@
       </c>
       <c r="C15">
         <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>4.6268503604248918</v>
+        <v>6.1686922582960024</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:V15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
-        <v>4.503204045949718</v>
+        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>6.0729840040036489</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>4.292029850012379</v>
+        <v>5.9167349398453775</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>4.0020278331196497</v>
+        <v>5.983690137549968</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>3.4170146735878646</v>
+        <v>6.2202911938343854</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>2.8262014737182244</v>
+        <v>5.5805949463773015</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>1.5382325084724908</v>
+        <v>4.9816385043082114</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>1.2140844965662649</v>
+        <v>4.5599832267718101</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0.43920369384826125</v>
+        <v>4.0594766934228144</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>-8.0856655753314327E-2</v>
+        <v>3.1566420596586546</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0.53921769785329232</v>
+        <v>2.5653160602863676</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>1.2603498716892021</v>
+        <v>2.1271080031609513</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>2.254964352094134</v>
+        <v>1.7857816656369578</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>3.2076881107815294</v>
+        <v>0.77471598902880734</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>3.8515488055553049</v>
+        <v>0.30969688549123514</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>4.2435142825961298</v>
+        <v>-5.7265164305165206E-2</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>4.6723060174235034</v>
+        <v>0.53607422919584036</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>4.8735648831574281</v>
+        <v>2.3186689634125557</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>5.1460262979956539</v>
+        <v>2.9903371078669587</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>6.0871610983336719</v>
+        <v>3.6135610298166738</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:BC15" si="2">W6*-SIN(RADIANS(W8))*W12/1000</f>
+        <f t="shared" si="1"/>
+        <v>3.9995802012739166</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>4.7377824490657234</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>5.2913626950039561</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>5.5565256355866133</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>6.0286043979188237</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>6.3184288033657463</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>6.4167214595502848</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>6.6684721067822155</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>6.5120375248934952</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="2"/>
+      <c r="AG15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="2"/>
+      <c r="AH15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7314,11 +9945,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,10 +9974,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -7355,7 +9986,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>402.55</v>
+        <v>403.38</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -7363,7 +9994,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -7421,7 +10052,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
+        <f t="shared" ref="S5:AI5" si="0">R5+1</f>
         <v>17</v>
       </c>
       <c r="T5" s="11">
@@ -7461,31 +10092,31 @@
         <v>26</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" ref="AC5" si="1">AB5+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AD5" s="11">
-        <f t="shared" ref="AD5" si="2">AC5+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" ref="AE5" si="3">AD5+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AF5" s="11">
-        <f t="shared" ref="AF5" si="4">AE5+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AG5" s="11">
-        <f t="shared" ref="AG5" si="5">AF5+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AH5" s="11">
-        <f t="shared" ref="AH5" si="6">AG5+1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AI5" s="11">
-        <f t="shared" ref="AI5" si="7">AH5+1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -7494,88 +10125,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>51.203000000000003</v>
+        <v>26.594999999999999</v>
       </c>
       <c r="D6">
-        <v>48.398000000000003</v>
+        <v>17.887</v>
       </c>
       <c r="E6">
-        <v>46.283999999999999</v>
+        <v>16.504000000000001</v>
       </c>
       <c r="F6">
-        <v>49.966000000000001</v>
-      </c>
-      <c r="G6">
-        <v>46.258000000000003</v>
-      </c>
-      <c r="H6">
-        <v>42.865000000000002</v>
-      </c>
-      <c r="I6">
-        <v>28.888999999999999</v>
-      </c>
-      <c r="J6">
-        <v>24.26</v>
-      </c>
-      <c r="K6">
-        <v>18.155999999999999</v>
-      </c>
-      <c r="L6">
-        <v>10.234</v>
-      </c>
-      <c r="M6">
-        <v>4.266</v>
-      </c>
-      <c r="N6">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="O6">
-        <v>5.4537000000000004</v>
-      </c>
-      <c r="P6">
-        <v>11.362</v>
-      </c>
-      <c r="Q6">
-        <v>17.478000000000002</v>
-      </c>
-      <c r="R6">
-        <v>24.577000000000002</v>
-      </c>
-      <c r="S6">
-        <v>31.812999999999999</v>
-      </c>
-      <c r="T6">
-        <v>37.369</v>
-      </c>
-      <c r="U6">
-        <v>42.365000000000002</v>
-      </c>
-      <c r="V6">
-        <v>47.408000000000001</v>
-      </c>
-      <c r="W6">
-        <v>50.768000000000001</v>
-      </c>
-      <c r="X6">
-        <v>53.197000000000003</v>
-      </c>
-      <c r="Y6">
-        <v>52.39</v>
-      </c>
-      <c r="Z6">
-        <v>52.238999999999997</v>
-      </c>
-      <c r="AA6">
-        <v>50.945</v>
-      </c>
-      <c r="AB6">
-        <v>46.247</v>
-      </c>
-      <c r="AC6">
-        <v>39.781999999999996</v>
-      </c>
-      <c r="AD6">
-        <v>30.405999999999999</v>
+        <v>13.111000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -7583,88 +10142,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-5.5</v>
+        <v>-123</v>
       </c>
       <c r="D7">
-        <v>-10.5</v>
+        <v>-119</v>
       </c>
       <c r="E7">
-        <v>-25.5</v>
+        <v>-106</v>
       </c>
       <c r="F7">
-        <v>-4.5</v>
-      </c>
-      <c r="G7">
-        <v>-14.5</v>
-      </c>
-      <c r="H7">
-        <v>-20</v>
-      </c>
-      <c r="I7">
-        <v>-33</v>
-      </c>
-      <c r="J7">
-        <v>-39.5</v>
-      </c>
-      <c r="K7">
-        <v>-43</v>
-      </c>
-      <c r="L7">
-        <v>-50</v>
-      </c>
-      <c r="M7">
-        <v>-62.5</v>
-      </c>
-      <c r="N7">
-        <v>-60</v>
-      </c>
-      <c r="O7">
-        <v>-55</v>
-      </c>
-      <c r="P7">
-        <v>-53.5</v>
-      </c>
-      <c r="Q7">
-        <v>-46</v>
-      </c>
-      <c r="R7">
-        <v>-40</v>
-      </c>
-      <c r="S7">
-        <v>-36.5</v>
-      </c>
-      <c r="T7">
-        <v>-33.5</v>
-      </c>
-      <c r="U7">
-        <v>-29.5</v>
-      </c>
-      <c r="V7">
-        <v>-24.5</v>
-      </c>
-      <c r="W7">
-        <v>-17.5</v>
-      </c>
-      <c r="X7">
-        <v>-14.5</v>
-      </c>
-      <c r="Y7">
-        <v>-5.5</v>
-      </c>
-      <c r="Z7">
-        <v>-3</v>
-      </c>
-      <c r="AA7">
-        <v>-0.5</v>
-      </c>
-      <c r="AB7">
-        <v>3.5</v>
-      </c>
-      <c r="AC7">
-        <v>11.5</v>
-      </c>
-      <c r="AD7">
-        <v>19.5</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7675,89 +10162,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3">
-        <v>94.5</v>
+        <v>80.5</v>
       </c>
       <c r="F8" s="3">
-        <v>115.1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>114.6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>117.3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>115.4</v>
-      </c>
-      <c r="J8" s="3">
-        <v>116.8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>114.9</v>
-      </c>
-      <c r="L8" s="3">
-        <v>113</v>
-      </c>
-      <c r="M8" s="3">
-        <v>108.9</v>
-      </c>
-      <c r="N8" s="3">
-        <v>110.8</v>
-      </c>
-      <c r="O8" s="3">
-        <v>112.3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>110.5</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>112</v>
-      </c>
-      <c r="R8" s="3">
-        <v>111.3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>115.7</v>
-      </c>
-      <c r="T8" s="3">
-        <v>116.6</v>
-      </c>
-      <c r="U8" s="3">
-        <v>115.4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>113.5</v>
-      </c>
-      <c r="W8" s="3">
-        <v>118.9</v>
-      </c>
-      <c r="X8" s="3">
-        <v>115.5</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>116.5</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>117.7</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>117.4</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>119</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>115.1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>118.5</v>
-      </c>
+        <v>80.7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -7805,89 +10239,41 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>461.5</v>
+        <v>459</v>
       </c>
       <c r="D10" s="15">
         <v>456</v>
       </c>
       <c r="E10" s="15">
-        <v>450.5</v>
+        <v>447</v>
       </c>
       <c r="F10" s="15">
-        <v>460.5</v>
-      </c>
-      <c r="G10" s="15">
-        <v>452</v>
-      </c>
-      <c r="H10" s="15">
-        <v>449</v>
-      </c>
-      <c r="I10" s="15">
-        <v>432</v>
-      </c>
-      <c r="J10" s="15">
-        <v>428</v>
-      </c>
-      <c r="K10" s="15">
-        <v>423</v>
-      </c>
-      <c r="L10" s="15">
-        <v>415</v>
-      </c>
-      <c r="M10" s="15">
-        <v>409.5</v>
-      </c>
-      <c r="N10" s="15">
-        <v>406</v>
-      </c>
-      <c r="O10" s="15">
-        <v>410</v>
-      </c>
-      <c r="P10" s="15">
-        <v>414.5</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>420.5</v>
-      </c>
-      <c r="R10" s="15">
-        <v>426</v>
-      </c>
-      <c r="S10" s="15">
-        <v>430</v>
-      </c>
-      <c r="T10" s="15">
-        <v>433.5</v>
-      </c>
-      <c r="U10" s="2">
-        <v>441</v>
-      </c>
-      <c r="V10" s="2">
-        <v>445</v>
-      </c>
-      <c r="W10" s="2">
-        <v>451</v>
-      </c>
-      <c r="X10" s="2">
-        <v>454</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>455.5</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>458.5</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>462</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>461.5</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>465</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>467</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -7927,94 +10313,104 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="G12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="H12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="J12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="K12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="L12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="N12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="O12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="P12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="R12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="S12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="T12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="U12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="V12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="W12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="X12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="Y12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="Z12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AA12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AB12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AC12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="15">
-        <v>310</v>
-      </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>267</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -8022,89 +10418,41 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D13" s="15">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E13" s="15">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="F13" s="15">
-        <v>64</v>
-      </c>
-      <c r="G13" s="15">
-        <v>72</v>
-      </c>
-      <c r="H13" s="15">
-        <v>76</v>
-      </c>
-      <c r="I13" s="15">
-        <v>79.5</v>
-      </c>
-      <c r="J13" s="15">
-        <v>81.5</v>
-      </c>
-      <c r="K13" s="15">
-        <v>77</v>
-      </c>
-      <c r="L13" s="15">
-        <v>81</v>
-      </c>
-      <c r="M13" s="15">
-        <v>74</v>
-      </c>
-      <c r="N13" s="15">
-        <v>68</v>
-      </c>
-      <c r="O13" s="15">
-        <v>74</v>
-      </c>
-      <c r="P13" s="15">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>75</v>
-      </c>
-      <c r="R13" s="15">
-        <v>79</v>
-      </c>
-      <c r="S13" s="15">
-        <v>80</v>
-      </c>
-      <c r="T13" s="15">
-        <v>78</v>
-      </c>
-      <c r="U13" s="15">
-        <v>79</v>
-      </c>
-      <c r="V13" s="15">
-        <v>77</v>
-      </c>
-      <c r="W13" s="15">
-        <v>75.5</v>
-      </c>
-      <c r="X13" s="15">
-        <v>72</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>61.5</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>62.5</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>54.5</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>48</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>38.5</v>
-      </c>
-      <c r="AD13" s="15">
         <v>30</v>
       </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
@@ -8120,135 +10468,135 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AI15" si="8">C6*-SIN(RADIANS(C8))*C12/1000</f>
-        <v>-13.550199438030189</v>
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>7.0134415686400926</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
-        <v>-12.715746326203965</v>
+        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>4.7293509604699846</v>
       </c>
       <c r="E15">
-        <f t="shared" si="8"/>
-        <v>-12.227450296743585</v>
+        <f t="shared" si="1"/>
+        <v>4.3461345705947148</v>
       </c>
       <c r="F15">
-        <f t="shared" si="8"/>
-        <v>-13.574295183417183</v>
+        <f t="shared" si="1"/>
+        <v>3.4546236345151771</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
-        <v>-12.617833179689791</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="8"/>
-        <v>-11.427173303326315</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
-        <v>-7.8289359826583684</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="8"/>
-        <v>-6.4962395866945686</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="8"/>
-        <v>-4.9404873370427511</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
-        <v>-2.8261340010696823</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="8"/>
-        <v>-1.2108000422274927</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
-        <v>-0.11021594724709009</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="8"/>
-        <v>-1.5137448723481624</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
-        <v>-3.1927408242720881</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="8"/>
-        <v>-4.8615958230354943</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
-        <v>-6.8694525901110115</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
-        <v>-8.5997889837959107</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T15">
-        <f t="shared" si="8"/>
-        <v>-10.35823139969961</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="U15">
-        <f t="shared" si="8"/>
-        <v>-11.863637901467659</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="8"/>
-        <v>-13.477555041999489</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="W15">
-        <f t="shared" si="8"/>
-        <v>-13.77813076308844</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="X15">
-        <f t="shared" si="8"/>
-        <v>-14.884597105183458</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="8"/>
-        <v>-14.534539473342328</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="8"/>
-        <v>-14.338144060893327</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="8"/>
-        <v>-14.021223986689929</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="8"/>
-        <v>-12.539046654783448</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="8"/>
-        <v>-11.167854768300959</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="8"/>
-        <v>-8.2836070695559112</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8260,11 +10608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
-  <dimension ref="A1:AJ16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8289,7 +10637,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -8301,7 +10649,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>402.55</v>
+        <v>344.45</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -8309,10 +10657,16 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>398</v>
-      </c>
-      <c r="L4" t="s">
+        <v>405</v>
+      </c>
+      <c r="U4" t="s">
         <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8443,64 +10797,85 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>43.774000000000001</v>
+        <v>31.943000000000001</v>
       </c>
       <c r="D6">
-        <v>43.682000000000002</v>
+        <v>28.574000000000002</v>
       </c>
       <c r="E6">
-        <v>45.475000000000001</v>
+        <v>24.861999999999998</v>
       </c>
       <c r="F6">
-        <v>41.618000000000002</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="G6">
-        <v>34.204000000000001</v>
+        <v>23.048999999999999</v>
       </c>
       <c r="H6">
-        <v>27.984999999999999</v>
+        <v>26.611999999999998</v>
       </c>
       <c r="I6">
-        <v>18.039000000000001</v>
+        <v>23.187999999999999</v>
       </c>
       <c r="J6">
-        <v>6.0835999999999997</v>
+        <v>24.088000000000001</v>
       </c>
       <c r="K6">
-        <v>2.9384000000000001</v>
+        <v>22.393999999999998</v>
       </c>
       <c r="L6">
-        <v>1.2999999999999999E-2</v>
+        <v>22.852</v>
       </c>
       <c r="M6">
-        <v>7.3449999999999998</v>
+        <v>22.265999999999998</v>
       </c>
       <c r="N6">
-        <v>15.176</v>
+        <v>19.311</v>
       </c>
       <c r="O6">
-        <v>23.530999999999999</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="P6">
-        <v>29.727</v>
+        <v>13.32</v>
       </c>
       <c r="Q6">
-        <v>38.637999999999998</v>
+        <v>10.851000000000001</v>
       </c>
       <c r="R6">
-        <v>46.064999999999998</v>
+        <v>6.944</v>
       </c>
       <c r="S6">
-        <v>50.881999999999998</v>
+        <v>1.194</v>
       </c>
       <c r="T6">
-        <v>53.805999999999997</v>
+        <v>6.7211999999999996</v>
       </c>
       <c r="U6">
-        <v>53.527999999999999</v>
+        <v>12.542</v>
       </c>
       <c r="V6">
-        <v>48.012999999999998</v>
+        <v>20.151</v>
+      </c>
+      <c r="W6">
+        <v>25.43</v>
+      </c>
+      <c r="X6">
+        <v>25.536999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>28.138000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>29.704000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>30.516999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>33.405999999999999</v>
+      </c>
+      <c r="AC6">
+        <v>33.061999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -8508,64 +10883,82 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>-103.5</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>-69</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-51.5</v>
       </c>
       <c r="F7">
-        <v>-15</v>
+        <v>-40.5</v>
       </c>
       <c r="G7">
-        <v>-26.6</v>
+        <v>-39.5</v>
       </c>
       <c r="H7">
+        <v>-55.5</v>
+      </c>
+      <c r="I7">
         <v>-35</v>
       </c>
-      <c r="I7">
-        <v>-42.5</v>
-      </c>
       <c r="J7">
-        <v>-56</v>
+        <v>-25.5</v>
       </c>
       <c r="K7">
-        <v>-56</v>
+        <v>-20</v>
       </c>
       <c r="L7">
-        <v>-63</v>
+        <v>-12.5</v>
       </c>
       <c r="M7">
-        <v>-64</v>
+        <v>-5</v>
       </c>
       <c r="N7">
-        <v>-55</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>-48</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>-42</v>
+        <v>12.5</v>
       </c>
       <c r="Q7">
-        <v>-35</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>-26</v>
+        <v>28</v>
       </c>
       <c r="S7">
-        <v>-19</v>
+        <v>35</v>
       </c>
       <c r="T7">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>11.5</v>
+        <v>11</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>-16</v>
+      </c>
+      <c r="Y7">
+        <v>-24</v>
+      </c>
+      <c r="Z7">
+        <v>-44</v>
+      </c>
+      <c r="AA7">
+        <v>-53.4</v>
+      </c>
+      <c r="AB7">
+        <v>-66</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8576,68 +10969,83 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>92.7</v>
+        <v>85.7</v>
       </c>
       <c r="D8" s="3">
-        <v>91</v>
+        <v>81.2</v>
       </c>
       <c r="E8" s="3">
-        <v>94.5</v>
+        <v>85.7</v>
       </c>
       <c r="F8" s="3">
-        <v>93</v>
+        <v>82.9</v>
       </c>
       <c r="G8" s="3">
-        <v>95.6</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3">
-        <v>94.1</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I8" s="3">
-        <v>91.9</v>
+        <v>86.3</v>
       </c>
       <c r="J8" s="3">
-        <v>91.7</v>
+        <v>83.6</v>
       </c>
       <c r="K8" s="3">
-        <v>92.2</v>
+        <v>86.5</v>
       </c>
       <c r="L8" s="3">
-        <v>91.1</v>
+        <v>88.4</v>
       </c>
       <c r="M8" s="3">
-        <v>90</v>
+        <v>87.1</v>
       </c>
       <c r="N8" s="3">
-        <v>92.1</v>
+        <v>71.2</v>
       </c>
       <c r="O8" s="3">
-        <v>92.1</v>
+        <v>70</v>
       </c>
       <c r="P8" s="3">
-        <v>92.6</v>
+        <v>72.3</v>
       </c>
       <c r="Q8" s="3">
-        <v>93.7</v>
+        <v>74.8</v>
       </c>
       <c r="R8" s="3">
-        <v>93.8</v>
+        <v>71.5</v>
       </c>
       <c r="S8" s="3">
-        <v>95.4</v>
+        <v>74.2</v>
       </c>
       <c r="T8" s="3">
-        <v>96.9</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="U8" s="3">
-        <v>94.5</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="V8" s="3">
-        <v>95.1</v>
-      </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="W8" s="3">
+        <v>68.2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>90.7</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>89.1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>83.5</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -8685,71 +11093,83 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>467</v>
+        <v>413.5</v>
       </c>
       <c r="D10" s="15">
-        <v>466</v>
+        <v>405.5</v>
       </c>
       <c r="E10" s="15">
-        <v>463</v>
+        <v>402</v>
       </c>
       <c r="F10" s="15">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G10" s="15">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="H10" s="15">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="I10" s="15">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="J10" s="15">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K10" s="15">
-        <v>408</v>
+        <v>392.5</v>
       </c>
       <c r="L10" s="15">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="M10" s="15">
+        <v>385.5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>371.5</v>
+      </c>
+      <c r="O10" s="15">
+        <v>365</v>
+      </c>
+      <c r="P10" s="15">
+        <v>361</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>356</v>
+      </c>
+      <c r="R10" s="15">
+        <v>355</v>
+      </c>
+      <c r="S10" s="15">
+        <v>346</v>
+      </c>
+      <c r="T10" s="15">
+        <v>348</v>
+      </c>
+      <c r="U10" s="2">
+        <v>354</v>
+      </c>
+      <c r="V10" s="2">
+        <v>365</v>
+      </c>
+      <c r="W10" s="2">
+        <v>376</v>
+      </c>
+      <c r="X10" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA10" s="2">
         <v>407</v>
       </c>
-      <c r="N10" s="15">
+      <c r="AB10" s="2">
         <v>413</v>
       </c>
-      <c r="O10" s="15">
-        <v>420</v>
-      </c>
-      <c r="P10" s="15">
-        <v>422</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>433</v>
-      </c>
-      <c r="R10" s="15">
-        <v>442</v>
-      </c>
-      <c r="S10" s="15">
-        <v>448</v>
-      </c>
-      <c r="T10" s="15">
-        <v>455</v>
-      </c>
-      <c r="U10" s="2">
-        <v>460</v>
-      </c>
-      <c r="V10" s="2">
-        <v>466</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -8791,6 +11211,1840 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
+        <v>267</v>
+      </c>
+      <c r="D12" s="15">
+        <v>267</v>
+      </c>
+      <c r="E12" s="15">
+        <v>267</v>
+      </c>
+      <c r="F12" s="15">
+        <v>267</v>
+      </c>
+      <c r="G12" s="15">
+        <v>267</v>
+      </c>
+      <c r="H12" s="15">
+        <v>267</v>
+      </c>
+      <c r="I12" s="15">
+        <v>267</v>
+      </c>
+      <c r="J12" s="15">
+        <v>267</v>
+      </c>
+      <c r="K12" s="15">
+        <v>267</v>
+      </c>
+      <c r="L12" s="15">
+        <v>267</v>
+      </c>
+      <c r="M12" s="15">
+        <v>267</v>
+      </c>
+      <c r="N12" s="15">
+        <v>267</v>
+      </c>
+      <c r="O12" s="15">
+        <v>267</v>
+      </c>
+      <c r="P12" s="15">
+        <v>267</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>267</v>
+      </c>
+      <c r="R12" s="15">
+        <v>267</v>
+      </c>
+      <c r="S12" s="15">
+        <v>267</v>
+      </c>
+      <c r="T12" s="15">
+        <v>267</v>
+      </c>
+      <c r="U12" s="15">
+        <v>267</v>
+      </c>
+      <c r="V12" s="15">
+        <v>267</v>
+      </c>
+      <c r="W12" s="15">
+        <v>267</v>
+      </c>
+      <c r="X12" s="15">
+        <v>267</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>267</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15">
+        <v>30.5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>31</v>
+      </c>
+      <c r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15">
+        <v>35</v>
+      </c>
+      <c r="J13" s="15">
+        <v>32</v>
+      </c>
+      <c r="K13" s="15">
+        <v>41</v>
+      </c>
+      <c r="L13" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="N13" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="O13" s="15">
+        <v>66.5</v>
+      </c>
+      <c r="P13" s="15">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>65</v>
+      </c>
+      <c r="R13" s="15">
+        <v>68.5</v>
+      </c>
+      <c r="S13" s="15">
+        <v>71</v>
+      </c>
+      <c r="T13" s="15">
+        <v>67</v>
+      </c>
+      <c r="U13" s="15">
+        <v>60</v>
+      </c>
+      <c r="V13" s="15">
+        <v>55</v>
+      </c>
+      <c r="W13" s="15">
+        <v>55</v>
+      </c>
+      <c r="X13" s="15">
+        <v>42</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>38</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>31</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>29</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>8.5047736202914699</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>7.5394492849781658</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>6.6194684828502801</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.8355816188247456</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.1203702894136685</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>7.0059001857849141</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>6.1782911841842409</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>6.391414397009699</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>5.9680455904544294</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>6.0991051231568809</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>5.937408550285844</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>4.880958611179155</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>4.3756598948371668</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3.388083398389504</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>2.7958621930655867</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>1.7582375762877434</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0.30675317190114915</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>1.7259028691611564</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>3.2040950443238865</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>5.1452227356887708</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>6.3042423522142954</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>6.8178701420600625</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>7.5119191588333143</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>7.9116485605610567</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>8.1105270447475082</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>8.8620667966654647</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>2.2241</v>
+      </c>
+    </row>
+    <row r="18" spans="28:29" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
+  <dimension ref="A1:AJ15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>402.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="11">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" ref="AC5" si="1">AB5+1</f>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" ref="AD5" si="2">AC5+1</f>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" ref="AE5" si="3">AD5+1</f>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" ref="AF5" si="4">AE5+1</f>
+        <v>30</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" ref="AG5" si="5">AF5+1</f>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" ref="AH5" si="6">AG5+1</f>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" ref="AI5" si="7">AH5+1</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>51.203000000000003</v>
+      </c>
+      <c r="D6">
+        <v>48.398000000000003</v>
+      </c>
+      <c r="E6">
+        <v>46.283999999999999</v>
+      </c>
+      <c r="F6">
+        <v>49.966000000000001</v>
+      </c>
+      <c r="G6">
+        <v>46.258000000000003</v>
+      </c>
+      <c r="H6">
+        <v>42.865000000000002</v>
+      </c>
+      <c r="I6">
+        <v>28.888999999999999</v>
+      </c>
+      <c r="J6">
+        <v>24.26</v>
+      </c>
+      <c r="K6">
+        <v>18.155999999999999</v>
+      </c>
+      <c r="L6">
+        <v>10.234</v>
+      </c>
+      <c r="M6">
+        <v>4.266</v>
+      </c>
+      <c r="N6">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="O6">
+        <v>5.4537000000000004</v>
+      </c>
+      <c r="P6">
+        <v>11.362</v>
+      </c>
+      <c r="Q6">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="R6">
+        <v>24.577000000000002</v>
+      </c>
+      <c r="S6">
+        <v>31.812999999999999</v>
+      </c>
+      <c r="T6">
+        <v>37.369</v>
+      </c>
+      <c r="U6">
+        <v>42.365000000000002</v>
+      </c>
+      <c r="V6">
+        <v>47.408000000000001</v>
+      </c>
+      <c r="W6">
+        <v>50.768000000000001</v>
+      </c>
+      <c r="X6">
+        <v>53.197000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>52.39</v>
+      </c>
+      <c r="Z6">
+        <v>52.238999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>50.945</v>
+      </c>
+      <c r="AB6">
+        <v>46.247</v>
+      </c>
+      <c r="AC6">
+        <v>39.781999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>30.405999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-5.5</v>
+      </c>
+      <c r="D7">
+        <v>-10.5</v>
+      </c>
+      <c r="E7">
+        <v>-25.5</v>
+      </c>
+      <c r="F7">
+        <v>-4.5</v>
+      </c>
+      <c r="G7">
+        <v>-14.5</v>
+      </c>
+      <c r="H7">
+        <v>-20</v>
+      </c>
+      <c r="I7">
+        <v>-33</v>
+      </c>
+      <c r="J7">
+        <v>-39.5</v>
+      </c>
+      <c r="K7">
+        <v>-43</v>
+      </c>
+      <c r="L7">
+        <v>-50</v>
+      </c>
+      <c r="M7">
+        <v>-62.5</v>
+      </c>
+      <c r="N7">
+        <v>-60</v>
+      </c>
+      <c r="O7">
+        <v>-55</v>
+      </c>
+      <c r="P7">
+        <v>-53.5</v>
+      </c>
+      <c r="Q7">
+        <v>-46</v>
+      </c>
+      <c r="R7">
+        <v>-40</v>
+      </c>
+      <c r="S7">
+        <v>-36.5</v>
+      </c>
+      <c r="T7">
+        <v>-33.5</v>
+      </c>
+      <c r="U7">
+        <v>-29.5</v>
+      </c>
+      <c r="V7">
+        <v>-24.5</v>
+      </c>
+      <c r="W7">
+        <v>-17.5</v>
+      </c>
+      <c r="X7">
+        <v>-14.5</v>
+      </c>
+      <c r="Y7">
+        <v>-5.5</v>
+      </c>
+      <c r="Z7">
+        <v>-3</v>
+      </c>
+      <c r="AA7">
+        <v>-0.5</v>
+      </c>
+      <c r="AB7">
+        <v>3.5</v>
+      </c>
+      <c r="AC7">
+        <v>11.5</v>
+      </c>
+      <c r="AD7">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>87</v>
+      </c>
+      <c r="D8" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>115.1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>114.6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>117.3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>115.4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>116.8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>114.9</v>
+      </c>
+      <c r="L8" s="3">
+        <v>113</v>
+      </c>
+      <c r="M8" s="3">
+        <v>108.9</v>
+      </c>
+      <c r="N8" s="3">
+        <v>110.8</v>
+      </c>
+      <c r="O8" s="3">
+        <v>112.3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>110.5</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>112</v>
+      </c>
+      <c r="R8" s="3">
+        <v>111.3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>115.7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>116.6</v>
+      </c>
+      <c r="U8" s="3">
+        <v>115.4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>113.5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>118.9</v>
+      </c>
+      <c r="X8" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>116.5</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>117.7</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>117.4</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>119</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+    </row>
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>461.5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>456</v>
+      </c>
+      <c r="E10" s="15">
+        <v>450.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>460.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>452</v>
+      </c>
+      <c r="H10" s="15">
+        <v>449</v>
+      </c>
+      <c r="I10" s="15">
+        <v>432</v>
+      </c>
+      <c r="J10" s="15">
+        <v>428</v>
+      </c>
+      <c r="K10" s="15">
+        <v>423</v>
+      </c>
+      <c r="L10" s="15">
+        <v>415</v>
+      </c>
+      <c r="M10" s="15">
+        <v>409.5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>406</v>
+      </c>
+      <c r="O10" s="15">
+        <v>410</v>
+      </c>
+      <c r="P10" s="15">
+        <v>414.5</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>420.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>426</v>
+      </c>
+      <c r="S10" s="15">
+        <v>430</v>
+      </c>
+      <c r="T10" s="15">
+        <v>433.5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>441</v>
+      </c>
+      <c r="V10" s="2">
+        <v>445</v>
+      </c>
+      <c r="W10" s="2">
+        <v>451</v>
+      </c>
+      <c r="X10" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>455.5</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>458.5</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>462</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>461.5</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>465</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>467</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>265</v>
+      </c>
+      <c r="D12" s="15">
+        <v>265</v>
+      </c>
+      <c r="E12" s="15">
+        <v>265</v>
+      </c>
+      <c r="F12" s="15">
+        <v>300</v>
+      </c>
+      <c r="G12" s="15">
+        <v>300</v>
+      </c>
+      <c r="H12" s="15">
+        <v>300</v>
+      </c>
+      <c r="I12" s="15">
+        <v>300</v>
+      </c>
+      <c r="J12" s="15">
+        <v>300</v>
+      </c>
+      <c r="K12" s="15">
+        <v>300</v>
+      </c>
+      <c r="L12" s="15">
+        <v>300</v>
+      </c>
+      <c r="M12" s="15">
+        <v>300</v>
+      </c>
+      <c r="N12" s="15">
+        <v>300</v>
+      </c>
+      <c r="O12" s="15">
+        <v>300</v>
+      </c>
+      <c r="P12" s="15">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>300</v>
+      </c>
+      <c r="R12" s="15">
+        <v>300</v>
+      </c>
+      <c r="S12" s="15">
+        <v>300</v>
+      </c>
+      <c r="T12" s="15">
+        <v>310</v>
+      </c>
+      <c r="U12" s="15">
+        <v>310</v>
+      </c>
+      <c r="V12" s="15">
+        <v>310</v>
+      </c>
+      <c r="W12" s="15">
+        <v>310</v>
+      </c>
+      <c r="X12" s="15">
+        <v>310</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>310</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>310</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>310</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>310</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>310</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>310</v>
+      </c>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>62</v>
+      </c>
+      <c r="D13" s="15">
+        <v>74</v>
+      </c>
+      <c r="E13" s="15">
+        <v>76</v>
+      </c>
+      <c r="F13" s="15">
+        <v>64</v>
+      </c>
+      <c r="G13" s="15">
+        <v>72</v>
+      </c>
+      <c r="H13" s="15">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15">
+        <v>79.5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>81.5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>77</v>
+      </c>
+      <c r="L13" s="15">
+        <v>81</v>
+      </c>
+      <c r="M13" s="15">
+        <v>74</v>
+      </c>
+      <c r="N13" s="15">
+        <v>68</v>
+      </c>
+      <c r="O13" s="15">
+        <v>74</v>
+      </c>
+      <c r="P13" s="15">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>75</v>
+      </c>
+      <c r="R13" s="15">
+        <v>79</v>
+      </c>
+      <c r="S13" s="15">
+        <v>80</v>
+      </c>
+      <c r="T13" s="15">
+        <v>78</v>
+      </c>
+      <c r="U13" s="15">
+        <v>79</v>
+      </c>
+      <c r="V13" s="15">
+        <v>77</v>
+      </c>
+      <c r="W13" s="15">
+        <v>75.5</v>
+      </c>
+      <c r="X13" s="15">
+        <v>72</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>61.5</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>62.5</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AI15" si="8">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-13.550199438030189</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="8"/>
+        <v>-12.715746326203965</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="8"/>
+        <v>-12.227450296743585</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="8"/>
+        <v>-13.574295183417183</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>-12.617833179689791</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>-11.427173303326315</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>-7.8289359826583684</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>-6.4962395866945686</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>-4.9404873370427511</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>-2.8261340010696823</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="8"/>
+        <v>-1.2108000422274927</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="8"/>
+        <v>-0.11021594724709009</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="8"/>
+        <v>-1.5137448723481624</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>-3.1927408242720881</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>-4.8615958230354943</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>-6.8694525901110115</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="8"/>
+        <v>-8.5997889837959107</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="8"/>
+        <v>-10.35823139969961</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>-11.863637901467659</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="8"/>
+        <v>-13.477555041999489</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="8"/>
+        <v>-13.77813076308844</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>-14.884597105183458</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="8"/>
+        <v>-14.534539473342328</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>-14.338144060893327</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="8"/>
+        <v>-14.021223986689929</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="8"/>
+        <v>-12.539046654783448</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="8"/>
+        <v>-11.167854768300959</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>-8.2836070695559112</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
+  <dimension ref="A1:AJ16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>402.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>398</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="11">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" ref="S5:AI5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>43.774000000000001</v>
+      </c>
+      <c r="D6">
+        <v>43.682000000000002</v>
+      </c>
+      <c r="E6">
+        <v>45.475000000000001</v>
+      </c>
+      <c r="F6">
+        <v>41.618000000000002</v>
+      </c>
+      <c r="G6">
+        <v>34.204000000000001</v>
+      </c>
+      <c r="H6">
+        <v>27.984999999999999</v>
+      </c>
+      <c r="I6">
+        <v>18.039000000000001</v>
+      </c>
+      <c r="J6">
+        <v>6.0835999999999997</v>
+      </c>
+      <c r="K6">
+        <v>2.9384000000000001</v>
+      </c>
+      <c r="L6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.3449999999999998</v>
+      </c>
+      <c r="N6">
+        <v>15.176</v>
+      </c>
+      <c r="O6">
+        <v>23.530999999999999</v>
+      </c>
+      <c r="P6">
+        <v>29.727</v>
+      </c>
+      <c r="Q6">
+        <v>38.637999999999998</v>
+      </c>
+      <c r="R6">
+        <v>46.064999999999998</v>
+      </c>
+      <c r="S6">
+        <v>50.881999999999998</v>
+      </c>
+      <c r="T6">
+        <v>53.805999999999997</v>
+      </c>
+      <c r="U6">
+        <v>53.527999999999999</v>
+      </c>
+      <c r="V6">
+        <v>48.012999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5.5</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>-15</v>
+      </c>
+      <c r="G7">
+        <v>-26.6</v>
+      </c>
+      <c r="H7">
+        <v>-35</v>
+      </c>
+      <c r="I7">
+        <v>-42.5</v>
+      </c>
+      <c r="J7">
+        <v>-56</v>
+      </c>
+      <c r="K7">
+        <v>-56</v>
+      </c>
+      <c r="L7">
+        <v>-63</v>
+      </c>
+      <c r="M7">
+        <v>-64</v>
+      </c>
+      <c r="N7">
+        <v>-55</v>
+      </c>
+      <c r="O7">
+        <v>-48</v>
+      </c>
+      <c r="P7">
+        <v>-42</v>
+      </c>
+      <c r="Q7">
+        <v>-35</v>
+      </c>
+      <c r="R7">
+        <v>-26</v>
+      </c>
+      <c r="S7">
+        <v>-19</v>
+      </c>
+      <c r="T7">
+        <v>-11</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>91</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>93</v>
+      </c>
+      <c r="G8" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="H8" s="3">
+        <v>94.1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>91.9</v>
+      </c>
+      <c r="J8" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>92.2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>91.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>90</v>
+      </c>
+      <c r="N8" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="S8" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="U8" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>95.1</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+    </row>
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>467</v>
+      </c>
+      <c r="D10" s="15">
+        <v>466</v>
+      </c>
+      <c r="E10" s="15">
+        <v>463</v>
+      </c>
+      <c r="F10" s="15">
+        <v>450</v>
+      </c>
+      <c r="G10" s="15">
+        <v>443</v>
+      </c>
+      <c r="H10" s="15">
+        <v>431</v>
+      </c>
+      <c r="I10" s="15">
+        <v>423</v>
+      </c>
+      <c r="J10" s="15">
+        <v>411</v>
+      </c>
+      <c r="K10" s="15">
+        <v>408</v>
+      </c>
+      <c r="L10" s="15">
+        <v>404</v>
+      </c>
+      <c r="M10" s="15">
+        <v>407</v>
+      </c>
+      <c r="N10" s="15">
+        <v>413</v>
+      </c>
+      <c r="O10" s="15">
+        <v>420</v>
+      </c>
+      <c r="P10" s="15">
+        <v>422</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>433</v>
+      </c>
+      <c r="R10" s="15">
+        <v>442</v>
+      </c>
+      <c r="S10" s="15">
+        <v>448</v>
+      </c>
+      <c r="T10" s="15">
+        <v>455</v>
+      </c>
+      <c r="U10" s="2">
+        <v>460</v>
+      </c>
+      <c r="V10" s="2">
+        <v>466</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
         <v>275</v>
       </c>
       <c r="D12" s="15">

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150D583-A2AC-4BC1-8478-B84F68C4F2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85677193-39DF-4137-969B-E20623F901D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="30">
   <si>
     <t>Test #</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>***bracket broke, failure via material pull out</t>
+  </si>
+  <si>
+    <t>^^Collected by Ben from 18-27</t>
   </si>
 </sst>
 </file>
@@ -10611,8 +10614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10651,13 +10654,16 @@
         <f>C2-C2*0.17</f>
         <v>344.45</v>
       </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C4">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85677193-39DF-4137-969B-E20623F901D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9660F8-3D14-4F71-9FE8-2D44BE4B5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
   <si>
     <t>Test #</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>^^Collected by Ben from 18-27</t>
+  </si>
+  <si>
+    <t>Extensor Test 10mm</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>rel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kmax </t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Flexor 10mm</a:t>
+              <a:t>Extensor 10mm</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1017,7 +1029,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Flexor 10mm</a:t>
+              <a:t>Extensor 10mm</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1688,7 +1700,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Flexor 10mm</a:t>
+              <a:t>Extensor 10mm</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2284,7 +2296,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Flexor 10mm</a:t>
+              <a:t>Extensor 10mm</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -7677,16 +7689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>426508</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122237</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>845608</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>426508</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>150812</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283633</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>141287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8099,10 +8111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83896A-0586-4C90-B5FD-474633C66A37}">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8119,7 +8131,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -8925,12 +8937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -8966,6 +8978,82 @@
       <c r="K18">
         <f t="shared" si="4"/>
         <v>6.3061999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>480</v>
+      </c>
+      <c r="U21">
+        <v>470</v>
+      </c>
+      <c r="V21">
+        <v>450</v>
+      </c>
+      <c r="W21">
+        <v>420</v>
+      </c>
+      <c r="X21">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22">
+        <f>(486-T21)/486</f>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ref="U22:X22" si="5">(486-U21)/486</f>
+        <v>3.292181069958848E-2</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="5"/>
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23">
+        <f>T22/$T$26</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="U23">
+        <f t="shared" ref="U23:X23" si="6">U22/$T$26</f>
+        <v>0.19753086419753088</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="6"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="6"/>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26">
+        <f xml:space="preserve"> (486-405)/486</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -8979,8 +9067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1208C-7CDD-421F-9FF0-096EE144B4F3}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,7 +9085,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -9951,8 +10039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9969,7 +10057,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -10614,8 +10702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11577,7 +11665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -12523,7 +12611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9660F8-3D14-4F71-9FE8-2D44BE4B5154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AD295-7910-48F7-820D-FDE861E3FB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId5"/>
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -2526,7 +2528,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>-103.5</c:v>
+                  <c:v>-76.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-69</c:v>
@@ -8117,24 +8119,24 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -8145,7 +8147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -8486,7 +8488,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -8526,7 +8528,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -8606,7 +8608,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -8632,7 +8634,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -8717,7 +8719,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -8794,13 +8796,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -8937,12 +8939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.5">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.5">
       <c r="C18">
         <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -8980,7 +8982,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.5">
       <c r="T21">
         <v>480</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.5">
       <c r="S22" t="s">
         <v>31</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.5">
       <c r="S23" t="s">
         <v>32</v>
       </c>
@@ -9047,7 +9049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.5">
       <c r="S26" t="s">
         <v>33</v>
       </c>
@@ -9071,24 +9073,24 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -9108,7 +9110,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -9119,7 +9121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -9426,7 +9428,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -9521,7 +9523,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -9561,7 +9563,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -9659,7 +9661,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -9685,7 +9687,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -9790,7 +9792,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -9885,13 +9887,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -10043,24 +10045,24 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10080,7 +10082,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -10245,7 +10247,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -10284,7 +10286,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -10324,7 +10326,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -10372,7 +10374,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -10398,7 +10400,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -10503,7 +10505,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -10548,13 +10550,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -10702,28 +10704,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10746,7 +10748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -10972,12 +10974,12 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-103.5</v>
+        <v>-76.5</v>
       </c>
       <c r="D7">
         <v>-69</v>
@@ -11055,7 +11057,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -11141,7 +11143,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -11181,7 +11183,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -11273,7 +11275,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -11299,7 +11301,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -11404,7 +11406,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -11493,13 +11495,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="U16" t="s">
         <v>24</v>
       </c>
@@ -11644,12 +11646,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="28:29" x14ac:dyDescent="0.5">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="28:29" x14ac:dyDescent="0.5">
       <c r="AC18" t="s">
         <v>28</v>
       </c>
@@ -11665,28 +11667,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11697,7 +11699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -11714,7 +11716,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11837,7 +11839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12015,7 +12017,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12107,7 +12109,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -12147,7 +12149,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -12243,7 +12245,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -12269,7 +12271,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -12364,7 +12366,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12457,13 +12459,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -12611,28 +12613,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1171875" style="4"/>
+    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.29296875" customWidth="1"/>
+    <col min="5" max="5" width="8.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.29296875" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+    <col min="8" max="9" width="13.41015625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12643,7 +12645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -12652,7 +12654,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -12663,7 +12665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -12851,7 +12853,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12916,7 +12918,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12987,7 +12989,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -13027,7 +13029,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -13107,7 +13109,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -13133,7 +13135,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -13238,7 +13240,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -13315,13 +13317,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -13458,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
       <c r="L16" t="s">
         <v>19</v>
       </c>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AD295-7910-48F7-820D-FDE861E3FB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E449364-A13E-42D4-BB38-77A32E45CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-23670" yWindow="795" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId5"/>
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -8116,27 +8114,27 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C13" sqref="C13:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +8145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -8156,7 +8154,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -8287,7 +8285,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -8352,7 +8350,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -8417,7 +8415,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -8488,7 +8486,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -8528,7 +8526,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -8608,7 +8606,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -8634,7 +8632,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -8719,7 +8717,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -8796,13 +8794,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -8939,12 +8937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -8982,7 +8980,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="T21">
         <v>480</v>
       </c>
@@ -8999,7 +8997,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>31</v>
       </c>
@@ -9024,7 +9022,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>32</v>
       </c>
@@ -9049,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.5">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
         <v>33</v>
       </c>
@@ -9070,27 +9068,27 @@
   <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C13" sqref="C13:AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9101,7 +9099,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -9110,7 +9108,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -9121,7 +9119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -9244,7 +9242,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -9336,7 +9334,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -9428,7 +9426,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -9523,7 +9521,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -9563,7 +9561,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -9661,7 +9659,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -9687,7 +9685,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -9792,7 +9790,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -9887,13 +9885,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -10042,27 +10040,27 @@
   <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10073,7 +10071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10082,7 +10080,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -10090,7 +10088,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -10213,7 +10211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -10230,7 +10228,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -10247,7 +10245,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -10286,7 +10284,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -10326,7 +10324,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -10374,7 +10372,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -10400,7 +10398,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -10505,7 +10503,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -10550,13 +10548,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -10704,28 +10702,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10736,7 +10734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10748,7 +10746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -10765,7 +10763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -10888,7 +10886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -11057,7 +11055,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -11143,7 +11141,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -11183,7 +11181,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -11275,7 +11273,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -11301,7 +11299,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -11406,7 +11404,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -11495,13 +11493,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -11638,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="U16" t="s">
         <v>24</v>
       </c>
@@ -11646,12 +11644,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="28:29" x14ac:dyDescent="0.5">
+    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="28:29" x14ac:dyDescent="0.5">
+    <row r="18" spans="28:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
         <v>28</v>
       </c>
@@ -11667,28 +11665,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11708,7 +11706,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -11716,7 +11714,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11839,7 +11837,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -11928,7 +11926,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12017,7 +12015,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12109,7 +12107,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -12149,7 +12147,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -12245,7 +12243,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -12271,7 +12269,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -12366,7 +12364,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12459,13 +12457,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -12611,30 +12609,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1171875" style="4"/>
-    <col min="2" max="2" width="19.703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.29296875" customWidth="1"/>
-    <col min="5" max="5" width="8.703125" customWidth="1"/>
-    <col min="6" max="6" width="11.29296875" customWidth="1"/>
-    <col min="7" max="7" width="13.29296875" customWidth="1"/>
-    <col min="8" max="9" width="13.41015625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12645,7 +12643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -12654,7 +12652,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -12665,7 +12663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -12788,7 +12786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -12853,7 +12851,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12918,7 +12916,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12989,7 +12987,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -13029,7 +13027,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -13109,7 +13107,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -13135,7 +13133,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -13240,7 +13238,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -13317,22 +13315,22 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AI15" si="1">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
         <v>-12.024486481310953</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
         <v>-12.010720430450908</v>
       </c>
       <c r="E15">
@@ -13460,9 +13458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f>485*1.03</f>
+        <v>499.55</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E449364-A13E-42D4-BB38-77A32E45CC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4033B40-C8E9-44B1-87E4-1C28A5BE5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23670" yWindow="795" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="330" yWindow="375" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
     <sheet name="ExtTest10mm_2" sheetId="10" r:id="rId2"/>
     <sheet name="ExtTest10mm_3" sheetId="11" r:id="rId3"/>
     <sheet name="ExtTest10mm_4" sheetId="12" r:id="rId4"/>
-    <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId5"/>
-    <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId6"/>
+    <sheet name="ExtTest10mm_5" sheetId="13" r:id="rId5"/>
+    <sheet name="ExtTest10mm_6" sheetId="14" r:id="rId6"/>
+    <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId7"/>
+    <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId8"/>
+    <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
   <si>
     <t>Test #</t>
   </si>
@@ -140,6 +143,30 @@
   </si>
   <si>
     <t xml:space="preserve">kmax </t>
+  </si>
+  <si>
+    <t>ICR (hand)</t>
+  </si>
+  <si>
+    <t>Load cell angle</t>
+  </si>
+  <si>
+    <t>Tendon Length</t>
+  </si>
+  <si>
+    <t>Max contraction length</t>
+  </si>
+  <si>
+    <t>^Collected by Jason M.</t>
+  </si>
+  <si>
+    <t>Ext Test 5</t>
+  </si>
+  <si>
+    <t>*routing point 4 is +20 mm in Z direction</t>
+  </si>
+  <si>
+    <t>22mm</t>
   </si>
 </sst>
 </file>
@@ -2923,6 +2950,903 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.61592257217847768"/>
+                  <c:y val="-0.25083406240886558"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38972812773403326"/>
+                  <c:y val="-4.4992344706911637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_5!$C$7:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-81.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-59.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-48.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-18.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_5!$C$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.0327772509041173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7250747045067913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5012891110164026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3425458781636546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0706230541318886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8447657840215617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8446217708736867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7733440251756893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6744099726497295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3824102126588129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6805208635862576</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39482793300422558</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7587132677407729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.550440293736433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CDE-40BD-9CAA-A47E7613984C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331923224"/>
+        <c:axId val="331923552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331923224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331923552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="331923552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331923224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_6!$C$7:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-28.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-35.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-50.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-66.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-72.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-78.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-94.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-112.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-119.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExtTest10mm_6!$C$15:$AE$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>0.55424608033235112</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94151232788941708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7654504703100355</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7973782299686616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6505548329815083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7667878003414437</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2112395854139617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2751267054083995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4232908014126586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6112742452683877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6879915375968162</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8334579939029743</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5876452882959535</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5546509046937125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.9491986185374381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5688312688392907</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4080232672318793</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5A1-47A1-9937-FB3F10438A40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495425744"/>
+        <c:axId val="495426728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="495425744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495426728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495426728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495425744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -3576,7 +4500,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4165,6 +5089,454 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1394438799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35160629921259845"/>
+                  <c:y val="-0.12492964421114028"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13252318460192475"/>
+                  <c:y val="1.6458880139982501E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_3!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>FlxTest10mm_3!$C$15:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-17.623982271657447</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.312588392743191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.544115710489031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.714703040370237</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.2633492521046072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0482353303594207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8329795466253955</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.807118322254111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.0285393197546095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.56161756164602195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E1B-4C83-AE53-4FC10967BF8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="497510136"/>
+        <c:axId val="497510792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="497510136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497510792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="497510792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497510136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4460,6 +5832,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7041,6 +8533,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7732,6 +10772,88 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232BB955-9EB7-4ECF-9A69-57F7CE25F27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF23110C-BE3D-456E-94CF-ECF1AF42EF90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>740833</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -7771,7 +10893,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7798,6 +10920,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F016FD-8475-49B9-BE00-EEAE24A59AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -10702,8 +13865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11508,11 +14671,11 @@
         <v>8.5047736202914699</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
         <v>7.5394492849781658</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D15:AI15" si="1">E6*SIN(RADIANS(E8))*E12/1000</f>
         <v>6.6194684828502801</v>
       </c>
       <c r="F15">
@@ -11662,6 +14825,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>16.523</v>
+      </c>
+      <c r="D6">
+        <v>15.112</v>
+      </c>
+      <c r="E6">
+        <v>14.148999999999999</v>
+      </c>
+      <c r="F6">
+        <v>13.564</v>
+      </c>
+      <c r="G6">
+        <v>12.457000000000001</v>
+      </c>
+      <c r="H6">
+        <v>11.634</v>
+      </c>
+      <c r="I6">
+        <v>11.49</v>
+      </c>
+      <c r="J6">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="K6">
+        <v>10.896000000000001</v>
+      </c>
+      <c r="L6">
+        <v>9.6492000000000004</v>
+      </c>
+      <c r="M6">
+        <v>6.7404000000000002</v>
+      </c>
+      <c r="N6">
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="O6">
+        <v>7.0465</v>
+      </c>
+      <c r="P6">
+        <v>6.2092000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-120</v>
+      </c>
+      <c r="D7">
+        <v>-109</v>
+      </c>
+      <c r="E7">
+        <v>-101</v>
+      </c>
+      <c r="F7">
+        <v>-97</v>
+      </c>
+      <c r="G7">
+        <v>-89</v>
+      </c>
+      <c r="H7">
+        <v>-87</v>
+      </c>
+      <c r="I7">
+        <v>-81.5</v>
+      </c>
+      <c r="J7">
+        <v>-75</v>
+      </c>
+      <c r="K7">
+        <v>-74</v>
+      </c>
+      <c r="L7">
+        <v>-59.5</v>
+      </c>
+      <c r="M7">
+        <v>-48.5</v>
+      </c>
+      <c r="N7">
+        <v>-3</v>
+      </c>
+      <c r="O7">
+        <v>-30</v>
+      </c>
+      <c r="P7">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K8" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="L8" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M8" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="O8" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>408</v>
+      </c>
+      <c r="D9">
+        <v>402</v>
+      </c>
+      <c r="E9">
+        <v>380</v>
+      </c>
+      <c r="F9">
+        <v>394</v>
+      </c>
+      <c r="G9" s="15">
+        <v>390.5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>387</v>
+      </c>
+      <c r="I9" s="15">
+        <v>383.5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>383</v>
+      </c>
+      <c r="K9" s="15">
+        <v>381</v>
+      </c>
+      <c r="L9" s="15">
+        <v>371</v>
+      </c>
+      <c r="M9" s="15">
+        <v>363</v>
+      </c>
+      <c r="N9" s="15">
+        <v>340</v>
+      </c>
+      <c r="O9" s="15">
+        <v>355</v>
+      </c>
+      <c r="P9" s="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>249.71</v>
+      </c>
+      <c r="D12">
+        <v>249.71</v>
+      </c>
+      <c r="E12">
+        <v>249.71</v>
+      </c>
+      <c r="F12">
+        <v>249.71</v>
+      </c>
+      <c r="G12">
+        <v>249.71</v>
+      </c>
+      <c r="H12">
+        <v>249.71</v>
+      </c>
+      <c r="I12">
+        <v>249.71</v>
+      </c>
+      <c r="J12">
+        <v>249.71</v>
+      </c>
+      <c r="K12">
+        <v>249.71</v>
+      </c>
+      <c r="L12">
+        <v>249.71</v>
+      </c>
+      <c r="M12">
+        <v>249.71</v>
+      </c>
+      <c r="N12">
+        <v>249.71</v>
+      </c>
+      <c r="O12">
+        <v>249.71</v>
+      </c>
+      <c r="P12">
+        <v>249.71</v>
+      </c>
+      <c r="Q12">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>41.5</v>
+      </c>
+      <c r="H13">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>30.5</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>4.0327772509041173</v>
+      </c>
+      <c r="D15">
+        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>3.7250747045067913</v>
+      </c>
+      <c r="E15">
+        <f>E6*SIN(RADIANS(E8))*E12/1000</f>
+        <v>3.5012891110164026</v>
+      </c>
+      <c r="F15">
+        <f>F6*SIN(RADIANS(F8))*F12/1000</f>
+        <v>3.3425458781636546</v>
+      </c>
+      <c r="G15">
+        <f>G6*SIN(RADIANS(G8))*G12/1000</f>
+        <v>3.0706230541318886</v>
+      </c>
+      <c r="H15">
+        <f>H6*SIN(RADIANS(H8))*H12/1000</f>
+        <v>2.8447657840215617</v>
+      </c>
+      <c r="I15">
+        <f>I6*SIN(RADIANS(I8))*I12/1000</f>
+        <v>2.8446217708736867</v>
+      </c>
+      <c r="J15">
+        <f>J6*SIN(RADIANS(J8))*J12/1000</f>
+        <v>2.7733440251756893</v>
+      </c>
+      <c r="K15">
+        <f>K6*SIN(RADIANS(K8))*K12/1000</f>
+        <v>2.6744099726497295</v>
+      </c>
+      <c r="L15">
+        <f>L6*SIN(RADIANS(L8))*L12/1000</f>
+        <v>2.3824102126588129</v>
+      </c>
+      <c r="M15">
+        <f>M6*SIN(RADIANS(M8))*M12/1000</f>
+        <v>1.6805208635862576</v>
+      </c>
+      <c r="N15">
+        <f>N6*SIN(RADIANS(N8))*N12/1000</f>
+        <v>0.39482793300422558</v>
+      </c>
+      <c r="O15">
+        <f>O6*SIN(RADIANS(O8))*O12/1000</f>
+        <v>1.7587132677407729</v>
+      </c>
+      <c r="P15">
+        <f>P6*SIN(RADIANS(P8))*P12/1000</f>
+        <v>1.550440293736433</v>
+      </c>
+      <c r="Q15">
+        <f>Q6*SIN(RADIANS(Q8))*Q12/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>15</v>
+      </c>
+      <c r="R5" s="11">
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <v>17</v>
+      </c>
+      <c r="T5" s="11">
+        <v>18</v>
+      </c>
+      <c r="U5" s="11">
+        <v>19</v>
+      </c>
+      <c r="V5" s="11">
+        <v>20</v>
+      </c>
+      <c r="W5" s="11">
+        <v>21</v>
+      </c>
+      <c r="X5" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2.2372000000000001</v>
+      </c>
+      <c r="D6">
+        <v>4.3940999999999999</v>
+      </c>
+      <c r="E6">
+        <v>7.0701000000000001</v>
+      </c>
+      <c r="F6">
+        <v>7.2348999999999997</v>
+      </c>
+      <c r="G6">
+        <v>10.673</v>
+      </c>
+      <c r="H6">
+        <v>11.206</v>
+      </c>
+      <c r="I6">
+        <v>8.9809999999999999</v>
+      </c>
+      <c r="J6">
+        <v>13.375</v>
+      </c>
+      <c r="K6">
+        <v>13.815</v>
+      </c>
+      <c r="L6">
+        <v>14.813000000000001</v>
+      </c>
+      <c r="M6">
+        <v>15.010999999999999</v>
+      </c>
+      <c r="N6">
+        <v>15.542999999999999</v>
+      </c>
+      <c r="O6">
+        <v>14.58</v>
+      </c>
+      <c r="P6">
+        <v>15.092000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>15.878</v>
+      </c>
+      <c r="R6">
+        <v>18.638999999999999</v>
+      </c>
+      <c r="S6">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>-5.5</v>
+      </c>
+      <c r="E7">
+        <v>-14.5</v>
+      </c>
+      <c r="F7">
+        <v>-20</v>
+      </c>
+      <c r="G7">
+        <v>-28.5</v>
+      </c>
+      <c r="H7">
+        <v>-35.5</v>
+      </c>
+      <c r="I7">
+        <v>-40</v>
+      </c>
+      <c r="J7">
+        <v>-50.5</v>
+      </c>
+      <c r="K7">
+        <v>-60</v>
+      </c>
+      <c r="L7">
+        <v>-66.5</v>
+      </c>
+      <c r="M7">
+        <v>-72.5</v>
+      </c>
+      <c r="N7">
+        <v>-78.5</v>
+      </c>
+      <c r="O7">
+        <v>-88</v>
+      </c>
+      <c r="P7">
+        <v>-94.5</v>
+      </c>
+      <c r="Q7">
+        <v>-105</v>
+      </c>
+      <c r="R7">
+        <v>-112.5</v>
+      </c>
+      <c r="S7">
+        <v>-119.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I8" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J8" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>81</v>
+      </c>
+      <c r="O8" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>79</v>
+      </c>
+      <c r="S8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>340</v>
+      </c>
+      <c r="D9" s="15">
+        <v>340</v>
+      </c>
+      <c r="E9" s="15">
+        <v>350</v>
+      </c>
+      <c r="F9" s="15">
+        <v>350.5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>354</v>
+      </c>
+      <c r="H9" s="15">
+        <v>362</v>
+      </c>
+      <c r="I9" s="15">
+        <v>366</v>
+      </c>
+      <c r="J9" s="15">
+        <v>363</v>
+      </c>
+      <c r="K9" s="15">
+        <v>368</v>
+      </c>
+      <c r="L9" s="15">
+        <v>373</v>
+      </c>
+      <c r="M9" s="15">
+        <v>376</v>
+      </c>
+      <c r="N9" s="15">
+        <v>383</v>
+      </c>
+      <c r="O9" s="15">
+        <v>384</v>
+      </c>
+      <c r="P9" s="15">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>391</v>
+      </c>
+      <c r="R9" s="15">
+        <v>394.5</v>
+      </c>
+      <c r="S9" s="15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>249.71</v>
+      </c>
+      <c r="D12">
+        <v>249.71</v>
+      </c>
+      <c r="E12">
+        <v>249.71</v>
+      </c>
+      <c r="F12">
+        <v>249.71</v>
+      </c>
+      <c r="G12">
+        <v>249.71</v>
+      </c>
+      <c r="H12">
+        <v>249.71</v>
+      </c>
+      <c r="I12">
+        <v>249.71</v>
+      </c>
+      <c r="J12">
+        <v>249.71</v>
+      </c>
+      <c r="K12">
+        <v>249.71</v>
+      </c>
+      <c r="L12">
+        <v>249.71</v>
+      </c>
+      <c r="M12">
+        <v>249.71</v>
+      </c>
+      <c r="N12">
+        <v>249.71</v>
+      </c>
+      <c r="O12">
+        <v>249.71</v>
+      </c>
+      <c r="P12">
+        <v>249.71</v>
+      </c>
+      <c r="Q12">
+        <v>249.71</v>
+      </c>
+      <c r="R12">
+        <v>249.71</v>
+      </c>
+      <c r="S12">
+        <v>249.71</v>
+      </c>
+      <c r="T12">
+        <v>249.71</v>
+      </c>
+      <c r="U12">
+        <v>249.71</v>
+      </c>
+      <c r="V12">
+        <v>249.71</v>
+      </c>
+      <c r="W12">
+        <v>249.71</v>
+      </c>
+      <c r="X12">
+        <v>249.71</v>
+      </c>
+      <c r="Y12">
+        <v>249.71</v>
+      </c>
+      <c r="Z12">
+        <v>249.71</v>
+      </c>
+      <c r="AA12">
+        <v>249.71</v>
+      </c>
+      <c r="AB12">
+        <v>249.71</v>
+      </c>
+      <c r="AC12">
+        <v>249.71</v>
+      </c>
+      <c r="AD12">
+        <v>249.71</v>
+      </c>
+      <c r="AE12">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>43.5</v>
+      </c>
+      <c r="E13">
+        <v>42.5</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>36</v>
+      </c>
+      <c r="P13">
+        <v>36</v>
+      </c>
+      <c r="Q13">
+        <v>36</v>
+      </c>
+      <c r="R13">
+        <v>36</v>
+      </c>
+      <c r="S13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>0.55424608033235112</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AE15" si="0">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>0.94151232788941708</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.7654504703100355</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.7973782299686616</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.6505548329815083</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.7667878003414437</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.2112395854139617</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.2751267054083995</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.4232908014126586</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3.6112742452683877</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3.6879915375968162</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3.8334579939029743</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3.5876452882959535</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>3.5546509046937125</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>3.9491986185374381</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>4.5688312688392907</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>4.4080232672318793</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
@@ -12607,12 +16932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:V13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13330,7 +17655,7 @@
         <v>-12.024486481310953</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="C15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
+        <f t="shared" ref="D15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
         <v>-12.010720430450908</v>
       </c>
       <c r="E15">
@@ -13474,4 +17799,741 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
+  <dimension ref="A1:AJ29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" activeCellId="1" sqref="C7:L7 C15:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>457</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>C2-C2*0.17</f>
+        <v>379.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <f>P5+1</f>
+        <v>15</v>
+      </c>
+      <c r="R5" s="11">
+        <f>Q5+1</f>
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <f t="shared" ref="S5:AI5" si="0">R5+1</f>
+        <v>17</v>
+      </c>
+      <c r="T5" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U5" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V5" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W5" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X5" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC5" s="11">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AE5" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AF5" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AG5" s="11">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AH5" s="11">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AI5" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>67.698999999999998</v>
+      </c>
+      <c r="D6">
+        <v>53.807000000000002</v>
+      </c>
+      <c r="E6">
+        <v>40.158999999999999</v>
+      </c>
+      <c r="F6">
+        <v>29.155000000000001</v>
+      </c>
+      <c r="G6">
+        <v>19.347000000000001</v>
+      </c>
+      <c r="H6">
+        <v>18.911000000000001</v>
+      </c>
+      <c r="I6">
+        <v>10.577</v>
+      </c>
+      <c r="J6">
+        <v>6.6810999999999998</v>
+      </c>
+      <c r="K6">
+        <v>3.8237000000000001</v>
+      </c>
+      <c r="L6">
+        <v>2.0994000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-41</v>
+      </c>
+      <c r="D7">
+        <v>-45</v>
+      </c>
+      <c r="E7">
+        <v>-57</v>
+      </c>
+      <c r="F7">
+        <v>-63</v>
+      </c>
+      <c r="G7">
+        <v>-77</v>
+      </c>
+      <c r="H7">
+        <v>-75</v>
+      </c>
+      <c r="I7">
+        <v>-80</v>
+      </c>
+      <c r="J7">
+        <v>-90</v>
+      </c>
+      <c r="K7">
+        <v>-95</v>
+      </c>
+      <c r="L7">
+        <v>-105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>71.2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>72.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>74.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H8" s="3">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="I8" s="3">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="J8" s="3">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="K8" s="3">
+        <v>78</v>
+      </c>
+      <c r="L8" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+    </row>
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>428</v>
+      </c>
+      <c r="D10" s="15">
+        <v>418</v>
+      </c>
+      <c r="E10" s="15">
+        <v>409.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>405.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>395</v>
+      </c>
+      <c r="H10" s="15">
+        <v>396</v>
+      </c>
+      <c r="I10" s="15">
+        <v>390</v>
+      </c>
+      <c r="J10" s="15">
+        <v>348</v>
+      </c>
+      <c r="K10" s="15">
+        <v>381</v>
+      </c>
+      <c r="L10" s="15">
+        <v>376</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15">
+        <v>275</v>
+      </c>
+      <c r="D12" s="15">
+        <v>275</v>
+      </c>
+      <c r="E12" s="15">
+        <v>275</v>
+      </c>
+      <c r="F12" s="15">
+        <v>275</v>
+      </c>
+      <c r="G12" s="15">
+        <v>275</v>
+      </c>
+      <c r="H12" s="15">
+        <v>275</v>
+      </c>
+      <c r="I12" s="15">
+        <v>275</v>
+      </c>
+      <c r="J12" s="15">
+        <v>275</v>
+      </c>
+      <c r="K12" s="15">
+        <v>275</v>
+      </c>
+      <c r="L12" s="15">
+        <v>275</v>
+      </c>
+      <c r="M12" s="15">
+        <v>275</v>
+      </c>
+      <c r="N12" s="15">
+        <v>275</v>
+      </c>
+      <c r="O12" s="15">
+        <v>275</v>
+      </c>
+      <c r="P12" s="15">
+        <v>275</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>275</v>
+      </c>
+      <c r="R12" s="15">
+        <v>275</v>
+      </c>
+      <c r="S12" s="15">
+        <v>275</v>
+      </c>
+      <c r="T12" s="15">
+        <v>275</v>
+      </c>
+      <c r="U12" s="15">
+        <v>275</v>
+      </c>
+      <c r="V12" s="15">
+        <v>275</v>
+      </c>
+      <c r="W12" s="15">
+        <v>275</v>
+      </c>
+      <c r="X12" s="15">
+        <v>275</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>275</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>275</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15">
+        <v>80</v>
+      </c>
+      <c r="D13" s="15">
+        <v>81</v>
+      </c>
+      <c r="E13" s="15">
+        <v>78</v>
+      </c>
+      <c r="F13" s="15">
+        <v>76</v>
+      </c>
+      <c r="G13" s="15">
+        <v>62</v>
+      </c>
+      <c r="H13" s="15">
+        <v>62.5</v>
+      </c>
+      <c r="I13" s="15">
+        <v>60</v>
+      </c>
+      <c r="J13" s="15">
+        <v>48</v>
+      </c>
+      <c r="K13" s="15">
+        <v>34</v>
+      </c>
+      <c r="L13" s="15">
+        <v>26</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+    </row>
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-17.623982271657447</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
+        <v>-14.312588392743191</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-10.544115710489031</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-7.714703040370237</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-5.2633492521046072</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-5.0482353303594207</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-2.8329795466253955</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-1.807118322254111</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-1.0285393197546095</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-0.56161756164602195</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f>485*1.03</f>
+        <v>499.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason Miranda\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4033B40-C8E9-44B1-87E4-1C28A5BE5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9657AA-55D2-4457-B1D8-BA469ADD9656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="375" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -3482,6 +3485,101 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.56013262112234863"/>
+                  <c:y val="-0.18098089928539954"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>ExtTest10mm_6!$C$7:$AE$7</c:f>
@@ -12169,19 +12267,19 @@
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="U22">
-        <f t="shared" ref="U22:X22" si="5">(486-U21)/486</f>
+        <f>(486-U21)/486</f>
         <v>3.292181069958848E-2</v>
       </c>
       <c r="V22">
-        <f t="shared" si="5"/>
+        <f>(486-V21)/486</f>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="W22">
-        <f t="shared" si="5"/>
+        <f>(486-W21)/486</f>
         <v>0.13580246913580246</v>
       </c>
       <c r="X22">
-        <f t="shared" si="5"/>
+        <f>(486-X21)/486</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -12194,19 +12292,19 @@
         <v>7.407407407407407E-2</v>
       </c>
       <c r="U23">
-        <f t="shared" ref="U23:X23" si="6">U22/$T$26</f>
+        <f>U22/$T$26</f>
         <v>0.19753086419753088</v>
       </c>
       <c r="V23">
-        <f t="shared" si="6"/>
+        <f>V22/$T$26</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="W23">
-        <f t="shared" si="6"/>
+        <f>W22/$T$26</f>
         <v>0.81481481481481477</v>
       </c>
       <c r="X23">
-        <f t="shared" si="6"/>
+        <f>X22/$T$26</f>
         <v>1</v>
       </c>
     </row>
@@ -14675,7 +14773,7 @@
         <v>7.5394492849781658</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="D15:AI15" si="1">E6*SIN(RADIANS(E8))*E12/1000</f>
+        <f t="shared" ref="E15:AI15" si="1">E6*SIN(RADIANS(E8))*E12/1000</f>
         <v>6.6194684828502801</v>
       </c>
       <c r="F15">
@@ -14828,8 +14926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15245,63 +15343,63 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <f t="shared" ref="C15:Q15" si="0">C6*SIN(RADIANS(C8))*C12/1000</f>
         <v>4.0327772509041173</v>
       </c>
       <c r="D15">
-        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
+        <f t="shared" si="0"/>
         <v>3.7250747045067913</v>
       </c>
       <c r="E15">
-        <f>E6*SIN(RADIANS(E8))*E12/1000</f>
+        <f t="shared" si="0"/>
         <v>3.5012891110164026</v>
       </c>
       <c r="F15">
-        <f>F6*SIN(RADIANS(F8))*F12/1000</f>
+        <f t="shared" si="0"/>
         <v>3.3425458781636546</v>
       </c>
       <c r="G15">
-        <f>G6*SIN(RADIANS(G8))*G12/1000</f>
+        <f t="shared" si="0"/>
         <v>3.0706230541318886</v>
       </c>
       <c r="H15">
-        <f>H6*SIN(RADIANS(H8))*H12/1000</f>
+        <f t="shared" si="0"/>
         <v>2.8447657840215617</v>
       </c>
       <c r="I15">
-        <f>I6*SIN(RADIANS(I8))*I12/1000</f>
+        <f t="shared" si="0"/>
         <v>2.8446217708736867</v>
       </c>
       <c r="J15">
-        <f>J6*SIN(RADIANS(J8))*J12/1000</f>
+        <f t="shared" si="0"/>
         <v>2.7733440251756893</v>
       </c>
       <c r="K15">
-        <f>K6*SIN(RADIANS(K8))*K12/1000</f>
+        <f t="shared" si="0"/>
         <v>2.6744099726497295</v>
       </c>
       <c r="L15">
-        <f>L6*SIN(RADIANS(L8))*L12/1000</f>
+        <f t="shared" si="0"/>
         <v>2.3824102126588129</v>
       </c>
       <c r="M15">
-        <f>M6*SIN(RADIANS(M8))*M12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.6805208635862576</v>
       </c>
       <c r="N15">
-        <f>N6*SIN(RADIANS(N8))*N12/1000</f>
+        <f t="shared" si="0"/>
         <v>0.39482793300422558</v>
       </c>
       <c r="O15">
-        <f>O6*SIN(RADIANS(O8))*O12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.7587132677407729</v>
       </c>
       <c r="P15">
-        <f>P6*SIN(RADIANS(P8))*P12/1000</f>
+        <f t="shared" si="0"/>
         <v>1.550440293736433</v>
       </c>
       <c r="Q15">
-        <f>Q6*SIN(RADIANS(Q8))*Q12/1000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -15321,7 +15419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -15990,7 +16088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
@@ -16134,31 +16232,31 @@
         <v>26</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" ref="AC5" si="1">AB5+1</f>
+        <f t="shared" ref="AC5:AI5" si="1">AB5+1</f>
         <v>27</v>
       </c>
       <c r="AD5" s="11">
-        <f t="shared" ref="AD5" si="2">AC5+1</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" ref="AE5" si="3">AD5+1</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AF5" s="11">
-        <f t="shared" ref="AF5" si="4">AE5+1</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AG5" s="11">
-        <f t="shared" ref="AG5" si="5">AF5+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AH5" s="11">
-        <f t="shared" ref="AH5" si="6">AG5+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AI5" s="11">
-        <f t="shared" ref="AI5" si="7">AH5+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -16793,135 +16891,135 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AI15" si="8">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <f t="shared" ref="C15:AI15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
         <v>-13.550199438030189</v>
       </c>
       <c r="D15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-12.715746326203965</v>
       </c>
       <c r="E15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-12.227450296743585</v>
       </c>
       <c r="F15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-13.574295183417183</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-12.617833179689791</v>
       </c>
       <c r="H15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-11.427173303326315</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-7.8289359826583684</v>
       </c>
       <c r="J15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-6.4962395866945686</v>
       </c>
       <c r="K15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-4.9404873370427511</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-2.8261340010696823</v>
       </c>
       <c r="M15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-1.2108000422274927</v>
       </c>
       <c r="N15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-0.11021594724709009</v>
       </c>
       <c r="O15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-1.5137448723481624</v>
       </c>
       <c r="P15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-3.1927408242720881</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-4.8615958230354943</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-6.8694525901110115</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-8.5997889837959107</v>
       </c>
       <c r="T15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-10.35823139969961</v>
       </c>
       <c r="U15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-11.863637901467659</v>
       </c>
       <c r="V15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-13.477555041999489</v>
       </c>
       <c r="W15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-13.77813076308844</v>
       </c>
       <c r="X15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-14.884597105183458</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-14.534539473342328</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-14.338144060893327</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-14.021223986689929</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-12.539046654783448</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-11.167854768300959</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>-8.2836070695559112</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -16937,7 +17035,7 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17805,8 +17903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="1" sqref="C7:L7 C15:L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC9657AA-55D2-4457-B1D8-BA469ADD9656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0557B-4C61-477A-8262-2AB215425F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10980" firstSheet="4" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -3550,6 +3550,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30954483814523187"/>
+                  <c:y val="-2.5762248468941384E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4133,6 +4139,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="1"/>
@@ -4140,8 +4160,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40464027934008251"/>
-                  <c:y val="-1.2615056781268678E-2"/>
+                  <c:x val="-0.27899278215223094"/>
+                  <c:y val="0.3201971535736251"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4173,35 +4193,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -4801,6 +4792,20 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="1"/>
@@ -4808,8 +4813,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40464027934008251"/>
-                  <c:y val="-1.2615056781268678E-2"/>
+                  <c:x val="-0.40762374401637524"/>
+                  <c:y val="4.5584595515824444E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4841,35 +4846,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="5"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -10995,16 +10971,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>740833</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>7937</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>131233</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>331258</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>36512</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14926,8 +14902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16088,7 +16064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
@@ -17035,7 +17011,7 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17903,7 +17879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0557B-4C61-477A-8262-2AB215425F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521ECDAC-9A61-432B-A69B-9B06C0B4FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10980" firstSheet="4" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="6330" yWindow="3615" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId8"/>
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
   <si>
     <t>Test #</t>
   </si>
@@ -170,6 +167,9 @@
   </si>
   <si>
     <t>22mm</t>
+  </si>
+  <si>
+    <t>*Stiffer bracket installed</t>
   </si>
 </sst>
 </file>
@@ -14902,7 +14902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -17010,8 +17010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17049,6 +17049,9 @@
       <c r="C3">
         <f>C2-C2*0.17</f>
         <v>402.55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -17880,7 +17883,7 @@
   <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18608,6 +18611,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521ECDAC-9A61-432B-A69B-9B06C0B4FA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11FE2C-0EB0-4624-9344-13FE69FF7636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="3615" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -14902,7 +14902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -17010,7 +17010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -17882,7 +17882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED11FE2C-0EB0-4624-9344-13FE69FF7636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074EBC3-B845-47CB-A88F-29938FF24EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>Test #</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>*Stiffer bracket installed</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Festo-10 @ 6 bar, from sheet</t>
   </si>
 </sst>
 </file>
@@ -13937,10 +13946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14881,14 +14890,46 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="28:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25">
+        <v>630</v>
+      </c>
+      <c r="S25">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -14902,7 +14943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -17010,8 +17051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17882,7 +17923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6074EBC3-B845-47CB-A88F-29938FF24EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18C38A-FA40-457B-BB50-1A1677E33FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-26235" yWindow="1530" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="ExtTest10mm_6" sheetId="14" r:id="rId6"/>
     <sheet name="FlxTest10mm_1" sheetId="7" r:id="rId7"/>
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId8"/>
-    <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
+    <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -12309,12 +12310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1208C-7CDD-421F-9FF0-096EE144B4F3}">
-  <dimension ref="A1:AJ15"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:AE13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12331,7 +12332,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -12342,7 +12343,7 @@
         <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -12358,12 +12359,6 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>380</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -12493,91 +12488,34 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>23.123999999999999</v>
+        <v>67.698999999999998</v>
       </c>
       <c r="D6">
-        <v>22.821999999999999</v>
+        <v>53.807000000000002</v>
       </c>
       <c r="E6">
-        <v>22.417999999999999</v>
+        <v>40.158999999999999</v>
       </c>
       <c r="F6">
-        <v>22.584</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="G6">
-        <v>23.396999999999998</v>
+        <v>19.347000000000001</v>
       </c>
       <c r="H6">
-        <v>21.117000000000001</v>
+        <v>18.911000000000001</v>
       </c>
       <c r="I6">
-        <v>18.875</v>
+        <v>10.577</v>
       </c>
       <c r="J6">
-        <v>17.254999999999999</v>
+        <v>6.6810999999999998</v>
       </c>
       <c r="K6">
-        <v>15.285</v>
+        <v>3.8237000000000001</v>
       </c>
       <c r="L6">
-        <v>11.97</v>
-      </c>
-      <c r="M6">
-        <v>9.6539999999999999</v>
-      </c>
-      <c r="N6">
-        <v>7.9669999999999996</v>
-      </c>
-      <c r="O6">
-        <v>6.6920000000000002</v>
-      </c>
-      <c r="P6">
-        <v>2.9020000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="R6">
-        <v>-0.215</v>
-      </c>
-      <c r="S6">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="T6">
-        <v>8.6850000000000005</v>
-      </c>
-      <c r="U6">
-        <v>11.27</v>
-      </c>
-      <c r="V6">
-        <v>13.627000000000001</v>
-      </c>
-      <c r="W6">
-        <v>15.065</v>
-      </c>
-      <c r="X6">
-        <v>17.838999999999999</v>
-      </c>
-      <c r="Y6">
-        <v>19.927</v>
-      </c>
-      <c r="Z6">
-        <v>21.132000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>22.739000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>23.741</v>
-      </c>
-      <c r="AC6">
-        <v>24.338999999999999</v>
-      </c>
-      <c r="AD6">
-        <v>25.221</v>
-      </c>
-      <c r="AE6">
-        <v>24.667000000000002</v>
+        <v>2.0994000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -12585,91 +12523,34 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-125</v>
+        <v>-41</v>
       </c>
       <c r="D7">
-        <v>-120.5</v>
+        <v>-45</v>
       </c>
       <c r="E7">
-        <v>-115</v>
+        <v>-57</v>
       </c>
       <c r="F7">
-        <v>-111.5</v>
+        <v>-63</v>
       </c>
       <c r="G7">
-        <v>-108</v>
+        <v>-77</v>
       </c>
       <c r="H7">
-        <v>-101.5</v>
+        <v>-75</v>
       </c>
       <c r="I7">
-        <v>-88</v>
+        <v>-80</v>
       </c>
       <c r="J7">
-        <v>-80</v>
+        <v>-90</v>
       </c>
       <c r="K7">
-        <v>-71</v>
+        <v>-95</v>
       </c>
       <c r="L7">
-        <v>-58</v>
-      </c>
-      <c r="M7">
-        <v>-40</v>
-      </c>
-      <c r="N7">
-        <v>-32</v>
-      </c>
-      <c r="O7">
-        <v>-17.5</v>
-      </c>
-      <c r="P7">
-        <v>-10.5</v>
-      </c>
-      <c r="Q7">
-        <v>-4</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>-3.5</v>
-      </c>
-      <c r="T7">
-        <v>-16</v>
-      </c>
-      <c r="U7">
-        <v>-33.5</v>
-      </c>
-      <c r="V7">
-        <v>-48</v>
-      </c>
-      <c r="W7">
-        <v>-58.5</v>
-      </c>
-      <c r="X7">
-        <v>-72</v>
-      </c>
-      <c r="Y7">
-        <v>-80</v>
-      </c>
-      <c r="Z7">
-        <v>-85</v>
-      </c>
-      <c r="AA7">
-        <v>-88.5</v>
-      </c>
-      <c r="AB7">
-        <v>-99.5</v>
-      </c>
-      <c r="AC7">
-        <v>-111.5</v>
-      </c>
-      <c r="AD7">
-        <v>-114.5</v>
-      </c>
-      <c r="AE7">
-        <v>-123</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -12680,92 +12561,48 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>87.6</v>
+        <v>71.2</v>
       </c>
       <c r="D8" s="3">
-        <v>85.3</v>
+        <v>75.3</v>
       </c>
       <c r="E8" s="3">
-        <v>81.3</v>
+        <v>72.7</v>
       </c>
       <c r="F8" s="3">
-        <v>82.9</v>
+        <v>74.2</v>
       </c>
       <c r="G8" s="3">
-        <v>84.7</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="H8" s="3">
-        <v>81.8</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="I8" s="3">
-        <v>81.3</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="J8" s="3">
-        <v>81.8</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="K8" s="3">
-        <v>84.1</v>
+        <v>78</v>
       </c>
       <c r="L8" s="3">
-        <v>81</v>
-      </c>
-      <c r="M8" s="3">
-        <v>84.4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>89.5</v>
-      </c>
-      <c r="O8" s="3">
-        <v>88.1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>90.7</v>
-      </c>
-      <c r="R8" s="3">
-        <v>94</v>
-      </c>
-      <c r="S8" s="3">
-        <v>92.7</v>
-      </c>
-      <c r="T8" s="3">
-        <v>90.8</v>
-      </c>
-      <c r="U8" s="3">
-        <v>83.6</v>
-      </c>
-      <c r="V8" s="3">
-        <v>83.3</v>
-      </c>
-      <c r="W8" s="3">
-        <v>83.9</v>
-      </c>
-      <c r="X8" s="3">
-        <v>84.1</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>80</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>83.2</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>85.4</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>80.900000000000006</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>82</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>81.400000000000006</v>
-      </c>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -12813,92 +12650,54 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>453.5</v>
+        <v>428</v>
       </c>
       <c r="D10" s="15">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="E10" s="15">
-        <v>456</v>
+        <v>409.5</v>
       </c>
       <c r="F10" s="15">
-        <v>450.5</v>
+        <v>405.5</v>
       </c>
       <c r="G10" s="15">
-        <v>449.5</v>
+        <v>395</v>
       </c>
       <c r="H10" s="15">
-        <v>442.5</v>
+        <v>396</v>
       </c>
       <c r="I10" s="15">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="J10" s="15">
-        <v>435</v>
+        <v>348</v>
       </c>
       <c r="K10" s="15">
-        <v>422.5</v>
+        <v>381</v>
       </c>
       <c r="L10" s="15">
-        <v>420</v>
-      </c>
-      <c r="M10" s="15">
-        <v>410.5</v>
-      </c>
-      <c r="N10" s="15">
-        <v>398.5</v>
-      </c>
-      <c r="O10" s="15">
-        <v>400.5</v>
-      </c>
-      <c r="P10" s="15">
-        <v>395</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>384</v>
-      </c>
-      <c r="R10" s="15">
-        <v>381</v>
-      </c>
-      <c r="S10" s="15">
-        <v>382</v>
-      </c>
-      <c r="T10" s="15">
-        <v>394</v>
-      </c>
-      <c r="U10" s="2">
-        <v>408.5</v>
-      </c>
-      <c r="V10" s="2">
-        <v>414.5</v>
-      </c>
-      <c r="W10" s="2">
-        <v>420.5</v>
-      </c>
-      <c r="X10" s="2">
-        <v>425</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>427</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>438</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>438</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>441</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>445</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>447</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -12937,103 +12736,103 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="I12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="R12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="S12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="T12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="U12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="V12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="W12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="X12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Y12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Z12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AA12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AB12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AC12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AD12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AE12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AG12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AH12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AI12" s="15">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -13042,92 +12841,54 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>29.5</v>
+        <v>80</v>
       </c>
       <c r="D13" s="15">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F13" s="15">
-        <v>29.5</v>
+        <v>76</v>
       </c>
       <c r="G13" s="15">
-        <v>30.5</v>
+        <v>62</v>
       </c>
       <c r="H13" s="15">
-        <v>30</v>
+        <v>62.5</v>
       </c>
       <c r="I13" s="15">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J13" s="15">
-        <v>32.5</v>
+        <v>48</v>
       </c>
       <c r="K13" s="15">
         <v>34</v>
       </c>
       <c r="L13" s="15">
-        <v>35</v>
-      </c>
-      <c r="M13" s="15">
-        <v>37</v>
-      </c>
-      <c r="N13" s="15">
-        <v>38.5</v>
-      </c>
-      <c r="O13" s="15">
-        <v>44.5</v>
-      </c>
-      <c r="P13" s="15">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>54</v>
-      </c>
-      <c r="R13" s="15">
-        <v>60</v>
-      </c>
-      <c r="S13" s="15">
-        <v>55</v>
-      </c>
-      <c r="T13" s="15">
-        <v>48</v>
-      </c>
-      <c r="U13" s="15">
-        <v>34.5</v>
-      </c>
-      <c r="V13" s="15">
-        <v>33</v>
-      </c>
-      <c r="W13" s="15">
-        <v>32.5</v>
-      </c>
-      <c r="X13" s="15">
-        <v>31.5</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>30</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>30</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>30</v>
-      </c>
-      <c r="AD13" s="15">
-        <v>30</v>
-      </c>
-      <c r="AE13" s="15">
-        <v>30</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
@@ -13142,120 +12903,120 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>6.1686922582960024</v>
+        <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-17.623982271657447</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
-        <v>6.0729840040036489</v>
+        <f t="shared" ref="D15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
+        <v>-14.312588392743191</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>5.9167349398453775</v>
+        <v>-10.544115710489031</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5.983690137549968</v>
+        <v>-7.714703040370237</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>6.2202911938343854</v>
+        <v>-5.2633492521046072</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>5.5805949463773015</v>
+        <v>-5.0482353303594207</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>4.9816385043082114</v>
+        <v>-2.8329795466253955</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>4.5599832267718101</v>
+        <v>-1.807118322254111</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>4.0594766934228144</v>
+        <v>-1.0285393197546095</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>3.1566420596586546</v>
+        <v>-0.56161756164602195</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>2.5653160602863676</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>2.1271080031609513</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.7857816656369578</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>0.77471598902880734</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0.30969688549123514</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>-5.7265164305165206E-2</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0.53607422919584036</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>2.3186689634125557</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>2.9903371078669587</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>3.6135610298166738</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>3.9995802012739166</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>4.7377824490657234</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>5.2913626950039561</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <f t="shared" si="1"/>
-        <v>5.5565256355866133</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>6.0286043979188237</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
-        <v>6.3184288033657463</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
-        <v>6.4167214595502848</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>6.6684721067822155</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <f t="shared" si="1"/>
-        <v>6.5120375248934952</v>
+        <v>0</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
@@ -13272,6 +13033,12 @@
       <c r="AI15">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f>485*1.03</f>
+        <v>499.55</v>
       </c>
     </row>
   </sheetData>
@@ -13281,12 +13048,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1208C-7CDD-421F-9FF0-096EE144B4F3}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13311,10 +13078,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -13323,7 +13090,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>403.38</v>
+        <v>379.31</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -13331,7 +13098,10 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>405</v>
+        <v>380</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -13462,16 +13232,91 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>26.594999999999999</v>
+        <v>23.123999999999999</v>
       </c>
       <c r="D6">
-        <v>17.887</v>
+        <v>22.821999999999999</v>
       </c>
       <c r="E6">
-        <v>16.504000000000001</v>
+        <v>22.417999999999999</v>
       </c>
       <c r="F6">
-        <v>13.111000000000001</v>
+        <v>22.584</v>
+      </c>
+      <c r="G6">
+        <v>23.396999999999998</v>
+      </c>
+      <c r="H6">
+        <v>21.117000000000001</v>
+      </c>
+      <c r="I6">
+        <v>18.875</v>
+      </c>
+      <c r="J6">
+        <v>17.254999999999999</v>
+      </c>
+      <c r="K6">
+        <v>15.285</v>
+      </c>
+      <c r="L6">
+        <v>11.97</v>
+      </c>
+      <c r="M6">
+        <v>9.6539999999999999</v>
+      </c>
+      <c r="N6">
+        <v>7.9669999999999996</v>
+      </c>
+      <c r="O6">
+        <v>6.6920000000000002</v>
+      </c>
+      <c r="P6">
+        <v>2.9020000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="R6">
+        <v>-0.215</v>
+      </c>
+      <c r="S6">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="T6">
+        <v>8.6850000000000005</v>
+      </c>
+      <c r="U6">
+        <v>11.27</v>
+      </c>
+      <c r="V6">
+        <v>13.627000000000001</v>
+      </c>
+      <c r="W6">
+        <v>15.065</v>
+      </c>
+      <c r="X6">
+        <v>17.838999999999999</v>
+      </c>
+      <c r="Y6">
+        <v>19.927</v>
+      </c>
+      <c r="Z6">
+        <v>21.132000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>22.739000000000001</v>
+      </c>
+      <c r="AB6">
+        <v>23.741</v>
+      </c>
+      <c r="AC6">
+        <v>24.338999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>25.221</v>
+      </c>
+      <c r="AE6">
+        <v>24.667000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -13479,16 +13324,91 @@
         <v>2</v>
       </c>
       <c r="C7">
+        <v>-125</v>
+      </c>
+      <c r="D7">
+        <v>-120.5</v>
+      </c>
+      <c r="E7">
+        <v>-115</v>
+      </c>
+      <c r="F7">
+        <v>-111.5</v>
+      </c>
+      <c r="G7">
+        <v>-108</v>
+      </c>
+      <c r="H7">
+        <v>-101.5</v>
+      </c>
+      <c r="I7">
+        <v>-88</v>
+      </c>
+      <c r="J7">
+        <v>-80</v>
+      </c>
+      <c r="K7">
+        <v>-71</v>
+      </c>
+      <c r="L7">
+        <v>-58</v>
+      </c>
+      <c r="M7">
+        <v>-40</v>
+      </c>
+      <c r="N7">
+        <v>-32</v>
+      </c>
+      <c r="O7">
+        <v>-17.5</v>
+      </c>
+      <c r="P7">
+        <v>-10.5</v>
+      </c>
+      <c r="Q7">
+        <v>-4</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>-3.5</v>
+      </c>
+      <c r="T7">
+        <v>-16</v>
+      </c>
+      <c r="U7">
+        <v>-33.5</v>
+      </c>
+      <c r="V7">
+        <v>-48</v>
+      </c>
+      <c r="W7">
+        <v>-58.5</v>
+      </c>
+      <c r="X7">
+        <v>-72</v>
+      </c>
+      <c r="Y7">
+        <v>-80</v>
+      </c>
+      <c r="Z7">
+        <v>-85</v>
+      </c>
+      <c r="AA7">
+        <v>-88.5</v>
+      </c>
+      <c r="AB7">
+        <v>-99.5</v>
+      </c>
+      <c r="AC7">
+        <v>-111.5</v>
+      </c>
+      <c r="AD7">
+        <v>-114.5</v>
+      </c>
+      <c r="AE7">
         <v>-123</v>
-      </c>
-      <c r="D7">
-        <v>-119</v>
-      </c>
-      <c r="E7">
-        <v>-106</v>
-      </c>
-      <c r="F7">
-        <v>-92</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -13499,36 +13419,92 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
+        <v>87.6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>85.3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>82.9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>84.7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="I8" s="3">
+        <v>81.3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>81.8</v>
+      </c>
+      <c r="K8" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="L8" s="3">
         <v>81</v>
       </c>
-      <c r="D8" s="3">
+      <c r="M8" s="3">
+        <v>84.4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>89.5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>88.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>90.7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>94</v>
+      </c>
+      <c r="S8" s="3">
+        <v>92.7</v>
+      </c>
+      <c r="T8" s="3">
+        <v>90.8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>83.6</v>
+      </c>
+      <c r="V8" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="W8" s="3">
+        <v>83.9</v>
+      </c>
+      <c r="X8" s="3">
+        <v>84.1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>85.4</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AD8" s="1">
         <v>82</v>
       </c>
-      <c r="E8" s="3">
-        <v>80.5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>80.7</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="AE8" s="1">
+        <v>81.400000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -13576,42 +13552,92 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>459</v>
+        <v>453.5</v>
       </c>
       <c r="D10" s="15">
+        <v>452</v>
+      </c>
+      <c r="E10" s="15">
         <v>456</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F10" s="15">
+        <v>450.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>449.5</v>
+      </c>
+      <c r="H10" s="15">
+        <v>442.5</v>
+      </c>
+      <c r="I10" s="15">
+        <v>439</v>
+      </c>
+      <c r="J10" s="15">
+        <v>435</v>
+      </c>
+      <c r="K10" s="15">
+        <v>422.5</v>
+      </c>
+      <c r="L10" s="15">
+        <v>420</v>
+      </c>
+      <c r="M10" s="15">
+        <v>410.5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>398.5</v>
+      </c>
+      <c r="O10" s="15">
+        <v>400.5</v>
+      </c>
+      <c r="P10" s="15">
+        <v>395</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>384</v>
+      </c>
+      <c r="R10" s="15">
+        <v>381</v>
+      </c>
+      <c r="S10" s="15">
+        <v>382</v>
+      </c>
+      <c r="T10" s="15">
+        <v>394</v>
+      </c>
+      <c r="U10" s="2">
+        <v>408.5</v>
+      </c>
+      <c r="V10" s="2">
+        <v>414.5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>420.5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>438</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>438</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>441</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>445</v>
+      </c>
+      <c r="AE10" s="2">
         <v>447</v>
       </c>
-      <c r="F10" s="15">
-        <v>438</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -13755,7 +13781,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="D13" s="15">
         <v>30</v>
@@ -13764,33 +13790,83 @@
         <v>30</v>
       </c>
       <c r="F13" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="G13" s="15">
+        <v>30.5</v>
+      </c>
+      <c r="H13" s="15">
         <v>30</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
+      <c r="I13" s="15">
+        <v>30</v>
+      </c>
+      <c r="J13" s="15">
+        <v>32.5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>34</v>
+      </c>
+      <c r="L13" s="15">
+        <v>35</v>
+      </c>
+      <c r="M13" s="15">
+        <v>37</v>
+      </c>
+      <c r="N13" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="O13" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="P13" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>54</v>
+      </c>
+      <c r="R13" s="15">
+        <v>60</v>
+      </c>
+      <c r="S13" s="15">
+        <v>55</v>
+      </c>
+      <c r="T13" s="15">
+        <v>48</v>
+      </c>
+      <c r="U13" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="V13" s="15">
+        <v>33</v>
+      </c>
+      <c r="W13" s="15">
+        <v>32.5</v>
+      </c>
+      <c r="X13" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>30</v>
+      </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
@@ -13806,119 +13882,119 @@
       </c>
       <c r="C15">
         <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>7.0134415686400926</v>
+        <v>6.1686922582960024</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
-        <v>4.7293509604699846</v>
+        <v>6.0729840040036489</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>4.3461345705947148</v>
+        <v>5.9167349398453775</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>3.4546236345151771</v>
+        <v>5.983690137549968</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.2202911938343854</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5805949463773015</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9816385043082114</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5599832267718101</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0594766934228144</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.1566420596586546</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5653160602863676</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.1271080031609513</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.7857816656369578</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.77471598902880734</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.30969688549123514</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.7265164305165206E-2</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.53607422919584036</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3186689634125557</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.9903371078669587</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6135610298166738</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9995802012739166</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.7377824490657234</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.2913626950039561</v>
       </c>
       <c r="Z15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5565256355866133</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.0286043979188237</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3184288033657463</v>
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4167214595502848</v>
       </c>
       <c r="AD15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.6684721067822155</v>
       </c>
       <c r="AE15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5120375248934952</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
@@ -13944,12 +14020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
-  <dimension ref="A1:AJ27"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13974,10 +14050,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>415</v>
+        <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -13986,10 +14062,7 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>344.45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
+        <v>403.38</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -13997,16 +14070,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>349</v>
-      </c>
-      <c r="U4" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>27</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -14137,85 +14201,16 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>31.943000000000001</v>
+        <v>26.594999999999999</v>
       </c>
       <c r="D6">
-        <v>28.574000000000002</v>
+        <v>17.887</v>
       </c>
       <c r="E6">
-        <v>24.861999999999998</v>
+        <v>16.504000000000001</v>
       </c>
       <c r="F6">
-        <v>22.024999999999999</v>
-      </c>
-      <c r="G6">
-        <v>23.048999999999999</v>
-      </c>
-      <c r="H6">
-        <v>26.611999999999998</v>
-      </c>
-      <c r="I6">
-        <v>23.187999999999999</v>
-      </c>
-      <c r="J6">
-        <v>24.088000000000001</v>
-      </c>
-      <c r="K6">
-        <v>22.393999999999998</v>
-      </c>
-      <c r="L6">
-        <v>22.852</v>
-      </c>
-      <c r="M6">
-        <v>22.265999999999998</v>
-      </c>
-      <c r="N6">
-        <v>19.311</v>
-      </c>
-      <c r="O6">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="P6">
-        <v>13.32</v>
-      </c>
-      <c r="Q6">
-        <v>10.851000000000001</v>
-      </c>
-      <c r="R6">
-        <v>6.944</v>
-      </c>
-      <c r="S6">
-        <v>1.194</v>
-      </c>
-      <c r="T6">
-        <v>6.7211999999999996</v>
-      </c>
-      <c r="U6">
-        <v>12.542</v>
-      </c>
-      <c r="V6">
-        <v>20.151</v>
-      </c>
-      <c r="W6">
-        <v>25.43</v>
-      </c>
-      <c r="X6">
-        <v>25.536999999999999</v>
-      </c>
-      <c r="Y6">
-        <v>28.138000000000002</v>
-      </c>
-      <c r="Z6">
-        <v>29.704000000000001</v>
-      </c>
-      <c r="AA6">
-        <v>30.516999999999999</v>
-      </c>
-      <c r="AB6">
-        <v>33.405999999999999</v>
-      </c>
-      <c r="AC6">
-        <v>33.061999999999998</v>
+        <v>13.111000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -14223,82 +14218,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-76.5</v>
+        <v>-123</v>
       </c>
       <c r="D7">
-        <v>-69</v>
+        <v>-119</v>
       </c>
       <c r="E7">
-        <v>-51.5</v>
+        <v>-106</v>
       </c>
       <c r="F7">
-        <v>-40.5</v>
-      </c>
-      <c r="G7">
-        <v>-39.5</v>
-      </c>
-      <c r="H7">
-        <v>-55.5</v>
-      </c>
-      <c r="I7">
-        <v>-35</v>
-      </c>
-      <c r="J7">
-        <v>-25.5</v>
-      </c>
-      <c r="K7">
-        <v>-20</v>
-      </c>
-      <c r="L7">
-        <v>-12.5</v>
-      </c>
-      <c r="M7">
-        <v>-5</v>
-      </c>
-      <c r="N7">
-        <v>0.5</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>12.5</v>
-      </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-      <c r="R7">
-        <v>28</v>
-      </c>
-      <c r="S7">
-        <v>35</v>
-      </c>
-      <c r="T7">
-        <v>23</v>
-      </c>
-      <c r="U7">
-        <v>20</v>
-      </c>
-      <c r="V7">
-        <v>11</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>-16</v>
-      </c>
-      <c r="Y7">
-        <v>-24</v>
-      </c>
-      <c r="Z7">
-        <v>-44</v>
-      </c>
-      <c r="AA7">
-        <v>-53.4</v>
-      </c>
-      <c r="AB7">
-        <v>-66</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -14309,83 +14238,36 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>85.7</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3">
-        <v>81.2</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3">
-        <v>85.7</v>
+        <v>80.5</v>
       </c>
       <c r="F8" s="3">
-        <v>82.9</v>
-      </c>
-      <c r="G8" s="3">
-        <v>84</v>
-      </c>
-      <c r="H8" s="3">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="I8" s="3">
-        <v>86.3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>83.6</v>
-      </c>
-      <c r="K8" s="3">
-        <v>86.5</v>
-      </c>
-      <c r="L8" s="3">
-        <v>88.4</v>
-      </c>
-      <c r="M8" s="3">
-        <v>87.1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>71.2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>70</v>
-      </c>
-      <c r="P8" s="3">
-        <v>72.3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>74.8</v>
-      </c>
-      <c r="R8" s="3">
-        <v>71.5</v>
-      </c>
-      <c r="S8" s="3">
-        <v>74.2</v>
-      </c>
-      <c r="T8" s="3">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="U8" s="3">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="V8" s="3">
-        <v>73</v>
-      </c>
-      <c r="W8" s="3">
-        <v>68.2</v>
-      </c>
-      <c r="X8" s="3">
-        <v>90.7</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>89.1</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>86</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>84.5</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>83.5</v>
-      </c>
+        <v>80.7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -14433,83 +14315,39 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>413.5</v>
+        <v>459</v>
       </c>
       <c r="D10" s="15">
-        <v>405.5</v>
+        <v>456</v>
       </c>
       <c r="E10" s="15">
-        <v>402</v>
+        <v>447</v>
       </c>
       <c r="F10" s="15">
-        <v>400</v>
-      </c>
-      <c r="G10" s="15">
-        <v>403</v>
-      </c>
-      <c r="H10" s="15">
-        <v>412</v>
-      </c>
-      <c r="I10" s="15">
-        <v>401</v>
-      </c>
-      <c r="J10" s="15">
-        <v>398</v>
-      </c>
-      <c r="K10" s="15">
-        <v>392.5</v>
-      </c>
-      <c r="L10" s="15">
-        <v>385</v>
-      </c>
-      <c r="M10" s="15">
-        <v>385.5</v>
-      </c>
-      <c r="N10" s="15">
-        <v>371.5</v>
-      </c>
-      <c r="O10" s="15">
-        <v>365</v>
-      </c>
-      <c r="P10" s="15">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>356</v>
-      </c>
-      <c r="R10" s="15">
-        <v>355</v>
-      </c>
-      <c r="S10" s="15">
-        <v>346</v>
-      </c>
-      <c r="T10" s="15">
-        <v>348</v>
-      </c>
-      <c r="U10" s="2">
-        <v>354</v>
-      </c>
-      <c r="V10" s="2">
-        <v>365</v>
-      </c>
-      <c r="W10" s="2">
-        <v>376</v>
-      </c>
-      <c r="X10" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>407</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>413</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -14656,83 +14494,39 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="15">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E13" s="15">
-        <v>31.5</v>
+        <v>30</v>
       </c>
       <c r="F13" s="15">
-        <v>31</v>
-      </c>
-      <c r="G13" s="15">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15">
-        <v>31</v>
-      </c>
-      <c r="I13" s="15">
-        <v>35</v>
-      </c>
-      <c r="J13" s="15">
-        <v>32</v>
-      </c>
-      <c r="K13" s="15">
-        <v>41</v>
-      </c>
-      <c r="L13" s="15">
-        <v>44.5</v>
-      </c>
-      <c r="M13" s="15">
-        <v>45.5</v>
-      </c>
-      <c r="N13" s="15">
-        <v>55.5</v>
-      </c>
-      <c r="O13" s="15">
-        <v>66.5</v>
-      </c>
-      <c r="P13" s="15">
-        <v>62</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>65</v>
-      </c>
-      <c r="R13" s="15">
-        <v>68.5</v>
-      </c>
-      <c r="S13" s="15">
-        <v>71</v>
-      </c>
-      <c r="T13" s="15">
-        <v>67</v>
-      </c>
-      <c r="U13" s="15">
-        <v>60</v>
-      </c>
-      <c r="V13" s="15">
-        <v>55</v>
-      </c>
-      <c r="W13" s="15">
-        <v>55</v>
-      </c>
-      <c r="X13" s="15">
-        <v>42</v>
-      </c>
-      <c r="Y13" s="15">
-        <v>38</v>
-      </c>
-      <c r="Z13" s="15">
-        <v>31</v>
-      </c>
-      <c r="AA13" s="15">
-        <v>29</v>
-      </c>
-      <c r="AB13" s="15">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
@@ -14751,107 +14545,107 @@
       </c>
       <c r="C15">
         <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>8.5047736202914699</v>
+        <v>7.0134415686400926</v>
       </c>
       <c r="D15">
-        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
-        <v>7.5394492849781658</v>
+        <f t="shared" ref="D15:AI15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>4.7293509604699846</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:AI15" si="1">E6*SIN(RADIANS(E8))*E12/1000</f>
-        <v>6.6194684828502801</v>
+        <f t="shared" si="1"/>
+        <v>4.3461345705947148</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>5.8355816188247456</v>
+        <v>3.4546236345151771</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>6.1203702894136685</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>7.0059001857849141</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>6.1782911841842409</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>6.391414397009699</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>5.9680455904544294</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>6.0991051231568809</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>5.937408550285844</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>4.880958611179155</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>4.3756598948371668</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>3.388083398389504</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>2.7958621930655867</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>1.7582375762877434</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0.30675317190114915</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>1.7259028691611564</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>3.2040950443238865</v>
+        <v>0</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>5.1452227356887708</v>
+        <v>0</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>6.3042423522142954</v>
+        <v>0</v>
       </c>
       <c r="X15">
         <f t="shared" si="1"/>
-        <v>6.8178701420600625</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <f t="shared" si="1"/>
-        <v>7.5119191588333143</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <f t="shared" si="1"/>
-        <v>7.9116485605610567</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <f t="shared" si="1"/>
-        <v>8.1105270447475082</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <f t="shared" si="1"/>
-        <v>8.8620667966654647</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <f t="shared" si="1"/>
@@ -14880,56 +14674,6 @@
       <c r="AI15">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="U16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="AB17">
-        <v>2.2241</v>
-      </c>
-    </row>
-    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="AC18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25">
-        <v>630</v>
-      </c>
-      <c r="S25">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q26" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="R27">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -14939,1174 +14683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
-  <dimension ref="A1:Q16"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>415</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11">
-        <v>7</v>
-      </c>
-      <c r="J5" s="11">
-        <v>8</v>
-      </c>
-      <c r="K5" s="11">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11">
-        <v>11</v>
-      </c>
-      <c r="N5" s="11">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11">
-        <v>13</v>
-      </c>
-      <c r="P5" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>16.523</v>
-      </c>
-      <c r="D6">
-        <v>15.112</v>
-      </c>
-      <c r="E6">
-        <v>14.148999999999999</v>
-      </c>
-      <c r="F6">
-        <v>13.564</v>
-      </c>
-      <c r="G6">
-        <v>12.457000000000001</v>
-      </c>
-      <c r="H6">
-        <v>11.634</v>
-      </c>
-      <c r="I6">
-        <v>11.49</v>
-      </c>
-      <c r="J6">
-        <v>11.263999999999999</v>
-      </c>
-      <c r="K6">
-        <v>10.896000000000001</v>
-      </c>
-      <c r="L6">
-        <v>9.6492000000000004</v>
-      </c>
-      <c r="M6">
-        <v>6.7404000000000002</v>
-      </c>
-      <c r="N6">
-        <v>1.5812999999999999</v>
-      </c>
-      <c r="O6">
-        <v>7.0465</v>
-      </c>
-      <c r="P6">
-        <v>6.2092000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>-120</v>
-      </c>
-      <c r="D7">
-        <v>-109</v>
-      </c>
-      <c r="E7">
-        <v>-101</v>
-      </c>
-      <c r="F7">
-        <v>-97</v>
-      </c>
-      <c r="G7">
-        <v>-89</v>
-      </c>
-      <c r="H7">
-        <v>-87</v>
-      </c>
-      <c r="I7">
-        <v>-81.5</v>
-      </c>
-      <c r="J7">
-        <v>-75</v>
-      </c>
-      <c r="K7">
-        <v>-74</v>
-      </c>
-      <c r="L7">
-        <v>-59.5</v>
-      </c>
-      <c r="M7">
-        <v>-48.5</v>
-      </c>
-      <c r="N7">
-        <v>-3</v>
-      </c>
-      <c r="O7">
-        <v>-30</v>
-      </c>
-      <c r="P7">
-        <v>-18.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1">
-        <v>77.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>82.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>80.7</v>
-      </c>
-      <c r="G8" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="H8" s="1">
-        <v>78.3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>82.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="K8" s="1">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="L8" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="M8" s="1">
-        <v>86.8</v>
-      </c>
-      <c r="N8" s="1">
-        <v>90.8</v>
-      </c>
-      <c r="O8" s="1">
-        <v>88.2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>408</v>
-      </c>
-      <c r="D9">
-        <v>402</v>
-      </c>
-      <c r="E9">
-        <v>380</v>
-      </c>
-      <c r="F9">
-        <v>394</v>
-      </c>
-      <c r="G9" s="15">
-        <v>390.5</v>
-      </c>
-      <c r="H9" s="15">
-        <v>387</v>
-      </c>
-      <c r="I9" s="15">
-        <v>383.5</v>
-      </c>
-      <c r="J9" s="15">
-        <v>383</v>
-      </c>
-      <c r="K9" s="15">
-        <v>381</v>
-      </c>
-      <c r="L9" s="15">
-        <v>371</v>
-      </c>
-      <c r="M9" s="15">
-        <v>363</v>
-      </c>
-      <c r="N9" s="15">
-        <v>340</v>
-      </c>
-      <c r="O9" s="15">
-        <v>355</v>
-      </c>
-      <c r="P9" s="15">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>249.71</v>
-      </c>
-      <c r="D12">
-        <v>249.71</v>
-      </c>
-      <c r="E12">
-        <v>249.71</v>
-      </c>
-      <c r="F12">
-        <v>249.71</v>
-      </c>
-      <c r="G12">
-        <v>249.71</v>
-      </c>
-      <c r="H12">
-        <v>249.71</v>
-      </c>
-      <c r="I12">
-        <v>249.71</v>
-      </c>
-      <c r="J12">
-        <v>249.71</v>
-      </c>
-      <c r="K12">
-        <v>249.71</v>
-      </c>
-      <c r="L12">
-        <v>249.71</v>
-      </c>
-      <c r="M12">
-        <v>249.71</v>
-      </c>
-      <c r="N12">
-        <v>249.71</v>
-      </c>
-      <c r="O12">
-        <v>249.71</v>
-      </c>
-      <c r="P12">
-        <v>249.71</v>
-      </c>
-      <c r="Q12">
-        <v>249.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>42</v>
-      </c>
-      <c r="D13">
-        <v>42</v>
-      </c>
-      <c r="E13">
-        <v>42</v>
-      </c>
-      <c r="F13">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>41.5</v>
-      </c>
-      <c r="H13">
-        <v>36</v>
-      </c>
-      <c r="I13">
-        <v>37</v>
-      </c>
-      <c r="J13">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>36</v>
-      </c>
-      <c r="L13">
-        <v>30.5</v>
-      </c>
-      <c r="M13">
-        <v>22</v>
-      </c>
-      <c r="N13">
-        <v>42</v>
-      </c>
-      <c r="O13">
-        <v>28</v>
-      </c>
-      <c r="P13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:Q15" si="0">C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>4.0327772509041173</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>3.7250747045067913</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>3.5012891110164026</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>3.3425458781636546</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>3.0706230541318886</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>2.8447657840215617</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>2.8446217708736867</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>2.7733440251756893</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>2.6744099726497295</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>2.3824102126588129</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>1.6805208635862576</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0.39482793300422558</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>1.7587132677407729</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>1.550440293736433</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
-  <dimension ref="A1:AE15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>415</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>4</v>
-      </c>
-      <c r="G5" s="11">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
-        <v>6</v>
-      </c>
-      <c r="I5" s="11">
-        <v>7</v>
-      </c>
-      <c r="J5" s="11">
-        <v>8</v>
-      </c>
-      <c r="K5" s="11">
-        <v>9</v>
-      </c>
-      <c r="L5" s="11">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11">
-        <v>11</v>
-      </c>
-      <c r="N5" s="11">
-        <v>12</v>
-      </c>
-      <c r="O5" s="11">
-        <v>13</v>
-      </c>
-      <c r="P5" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>15</v>
-      </c>
-      <c r="R5" s="11">
-        <v>16</v>
-      </c>
-      <c r="S5" s="11">
-        <v>17</v>
-      </c>
-      <c r="T5" s="11">
-        <v>18</v>
-      </c>
-      <c r="U5" s="11">
-        <v>19</v>
-      </c>
-      <c r="V5" s="11">
-        <v>20</v>
-      </c>
-      <c r="W5" s="11">
-        <v>21</v>
-      </c>
-      <c r="X5" s="11">
-        <v>22</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>23</v>
-      </c>
-      <c r="Z5" s="11">
-        <v>24</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="11">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="11">
-        <v>28</v>
-      </c>
-      <c r="AE5" s="11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2.2372000000000001</v>
-      </c>
-      <c r="D6">
-        <v>4.3940999999999999</v>
-      </c>
-      <c r="E6">
-        <v>7.0701000000000001</v>
-      </c>
-      <c r="F6">
-        <v>7.2348999999999997</v>
-      </c>
-      <c r="G6">
-        <v>10.673</v>
-      </c>
-      <c r="H6">
-        <v>11.206</v>
-      </c>
-      <c r="I6">
-        <v>8.9809999999999999</v>
-      </c>
-      <c r="J6">
-        <v>13.375</v>
-      </c>
-      <c r="K6">
-        <v>13.815</v>
-      </c>
-      <c r="L6">
-        <v>14.813000000000001</v>
-      </c>
-      <c r="M6">
-        <v>15.010999999999999</v>
-      </c>
-      <c r="N6">
-        <v>15.542999999999999</v>
-      </c>
-      <c r="O6">
-        <v>14.58</v>
-      </c>
-      <c r="P6">
-        <v>15.092000000000001</v>
-      </c>
-      <c r="Q6">
-        <v>15.878</v>
-      </c>
-      <c r="R6">
-        <v>18.638999999999999</v>
-      </c>
-      <c r="S6">
-        <v>17.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7">
-        <v>-5.5</v>
-      </c>
-      <c r="E7">
-        <v>-14.5</v>
-      </c>
-      <c r="F7">
-        <v>-20</v>
-      </c>
-      <c r="G7">
-        <v>-28.5</v>
-      </c>
-      <c r="H7">
-        <v>-35.5</v>
-      </c>
-      <c r="I7">
-        <v>-40</v>
-      </c>
-      <c r="J7">
-        <v>-50.5</v>
-      </c>
-      <c r="K7">
-        <v>-60</v>
-      </c>
-      <c r="L7">
-        <v>-66.5</v>
-      </c>
-      <c r="M7">
-        <v>-72.5</v>
-      </c>
-      <c r="N7">
-        <v>-78.5</v>
-      </c>
-      <c r="O7">
-        <v>-88</v>
-      </c>
-      <c r="P7">
-        <v>-94.5</v>
-      </c>
-      <c r="Q7">
-        <v>-105</v>
-      </c>
-      <c r="R7">
-        <v>-112.5</v>
-      </c>
-      <c r="S7">
-        <v>-119.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1">
-        <v>82.8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>59.1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>90.3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>84.2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>84</v>
-      </c>
-      <c r="H8" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="I8" s="1">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="J8" s="1">
-        <v>78.7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>82.9</v>
-      </c>
-      <c r="L8" s="1">
-        <v>77.5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>79.7</v>
-      </c>
-      <c r="N8" s="1">
-        <v>81</v>
-      </c>
-      <c r="O8" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>95.1</v>
-      </c>
-      <c r="R8" s="1">
-        <v>79</v>
-      </c>
-      <c r="S8" s="1">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>340</v>
-      </c>
-      <c r="D9" s="15">
-        <v>340</v>
-      </c>
-      <c r="E9" s="15">
-        <v>350</v>
-      </c>
-      <c r="F9" s="15">
-        <v>350.5</v>
-      </c>
-      <c r="G9" s="15">
-        <v>354</v>
-      </c>
-      <c r="H9" s="15">
-        <v>362</v>
-      </c>
-      <c r="I9" s="15">
-        <v>366</v>
-      </c>
-      <c r="J9" s="15">
-        <v>363</v>
-      </c>
-      <c r="K9" s="15">
-        <v>368</v>
-      </c>
-      <c r="L9" s="15">
-        <v>373</v>
-      </c>
-      <c r="M9" s="15">
-        <v>376</v>
-      </c>
-      <c r="N9" s="15">
-        <v>383</v>
-      </c>
-      <c r="O9" s="15">
-        <v>384</v>
-      </c>
-      <c r="P9" s="15">
-        <v>394</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>391</v>
-      </c>
-      <c r="R9" s="15">
-        <v>394.5</v>
-      </c>
-      <c r="S9" s="15">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>249.71</v>
-      </c>
-      <c r="D12">
-        <v>249.71</v>
-      </c>
-      <c r="E12">
-        <v>249.71</v>
-      </c>
-      <c r="F12">
-        <v>249.71</v>
-      </c>
-      <c r="G12">
-        <v>249.71</v>
-      </c>
-      <c r="H12">
-        <v>249.71</v>
-      </c>
-      <c r="I12">
-        <v>249.71</v>
-      </c>
-      <c r="J12">
-        <v>249.71</v>
-      </c>
-      <c r="K12">
-        <v>249.71</v>
-      </c>
-      <c r="L12">
-        <v>249.71</v>
-      </c>
-      <c r="M12">
-        <v>249.71</v>
-      </c>
-      <c r="N12">
-        <v>249.71</v>
-      </c>
-      <c r="O12">
-        <v>249.71</v>
-      </c>
-      <c r="P12">
-        <v>249.71</v>
-      </c>
-      <c r="Q12">
-        <v>249.71</v>
-      </c>
-      <c r="R12">
-        <v>249.71</v>
-      </c>
-      <c r="S12">
-        <v>249.71</v>
-      </c>
-      <c r="T12">
-        <v>249.71</v>
-      </c>
-      <c r="U12">
-        <v>249.71</v>
-      </c>
-      <c r="V12">
-        <v>249.71</v>
-      </c>
-      <c r="W12">
-        <v>249.71</v>
-      </c>
-      <c r="X12">
-        <v>249.71</v>
-      </c>
-      <c r="Y12">
-        <v>249.71</v>
-      </c>
-      <c r="Z12">
-        <v>249.71</v>
-      </c>
-      <c r="AA12">
-        <v>249.71</v>
-      </c>
-      <c r="AB12">
-        <v>249.71</v>
-      </c>
-      <c r="AC12">
-        <v>249.71</v>
-      </c>
-      <c r="AD12">
-        <v>249.71</v>
-      </c>
-      <c r="AE12">
-        <v>249.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>43.5</v>
-      </c>
-      <c r="E13">
-        <v>42.5</v>
-      </c>
-      <c r="F13">
-        <v>37</v>
-      </c>
-      <c r="G13">
-        <v>35</v>
-      </c>
-      <c r="H13">
-        <v>33</v>
-      </c>
-      <c r="I13">
-        <v>35</v>
-      </c>
-      <c r="J13">
-        <v>34</v>
-      </c>
-      <c r="K13">
-        <v>35</v>
-      </c>
-      <c r="L13">
-        <v>34</v>
-      </c>
-      <c r="M13">
-        <v>36</v>
-      </c>
-      <c r="N13">
-        <v>36</v>
-      </c>
-      <c r="O13">
-        <v>36</v>
-      </c>
-      <c r="P13">
-        <v>36</v>
-      </c>
-      <c r="Q13">
-        <v>36</v>
-      </c>
-      <c r="R13">
-        <v>36</v>
-      </c>
-      <c r="S13">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
-        <v>0.55424608033235112</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:AE15" si="0">D6*SIN(RADIANS(D8))*D12/1000</f>
-        <v>0.94151232788941708</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.7654504703100355</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>1.7973782299686616</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>2.6505548329815083</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>2.7667878003414437</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>2.2112395854139617</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>3.2751267054083995</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>3.4232908014126586</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>3.6112742452683877</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>3.6879915375968162</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>3.8334579939029743</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>3.5876452882959535</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>3.5546509046937125</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>3.9491986185374381</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>4.5688312688392907</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>4.4080232672318793</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
-  <dimension ref="A1:AJ15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:AD13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16123,7 +14705,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -16131,7 +14713,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>485</v>
+        <v>415</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -16143,7 +14725,10 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>402.55</v>
+        <v>344.45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -16151,7 +14736,16 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>349</v>
+      </c>
+      <c r="U4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -16209,7 +14803,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
+        <f t="shared" ref="S5:AI5" si="0">R5+1</f>
         <v>17</v>
       </c>
       <c r="T5" s="11">
@@ -16249,31 +14843,31 @@
         <v>26</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" ref="AC5:AI5" si="1">AB5+1</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="AD5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="AF5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="AG5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="AH5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="AI5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -16282,88 +14876,85 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>51.203000000000003</v>
+        <v>31.943000000000001</v>
       </c>
       <c r="D6">
-        <v>48.398000000000003</v>
+        <v>28.574000000000002</v>
       </c>
       <c r="E6">
-        <v>46.283999999999999</v>
+        <v>24.861999999999998</v>
       </c>
       <c r="F6">
-        <v>49.966000000000001</v>
+        <v>22.024999999999999</v>
       </c>
       <c r="G6">
-        <v>46.258000000000003</v>
+        <v>23.048999999999999</v>
       </c>
       <c r="H6">
-        <v>42.865000000000002</v>
+        <v>26.611999999999998</v>
       </c>
       <c r="I6">
-        <v>28.888999999999999</v>
+        <v>23.187999999999999</v>
       </c>
       <c r="J6">
-        <v>24.26</v>
+        <v>24.088000000000001</v>
       </c>
       <c r="K6">
-        <v>18.155999999999999</v>
+        <v>22.393999999999998</v>
       </c>
       <c r="L6">
-        <v>10.234</v>
+        <v>22.852</v>
       </c>
       <c r="M6">
-        <v>4.266</v>
+        <v>22.265999999999998</v>
       </c>
       <c r="N6">
-        <v>0.39300000000000002</v>
+        <v>19.311</v>
       </c>
       <c r="O6">
-        <v>5.4537000000000004</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="P6">
-        <v>11.362</v>
+        <v>13.32</v>
       </c>
       <c r="Q6">
-        <v>17.478000000000002</v>
+        <v>10.851000000000001</v>
       </c>
       <c r="R6">
-        <v>24.577000000000002</v>
+        <v>6.944</v>
       </c>
       <c r="S6">
-        <v>31.812999999999999</v>
+        <v>1.194</v>
       </c>
       <c r="T6">
-        <v>37.369</v>
+        <v>6.7211999999999996</v>
       </c>
       <c r="U6">
-        <v>42.365000000000002</v>
+        <v>12.542</v>
       </c>
       <c r="V6">
-        <v>47.408000000000001</v>
+        <v>20.151</v>
       </c>
       <c r="W6">
-        <v>50.768000000000001</v>
+        <v>25.43</v>
       </c>
       <c r="X6">
-        <v>53.197000000000003</v>
+        <v>25.536999999999999</v>
       </c>
       <c r="Y6">
-        <v>52.39</v>
+        <v>28.138000000000002</v>
       </c>
       <c r="Z6">
-        <v>52.238999999999997</v>
+        <v>29.704000000000001</v>
       </c>
       <c r="AA6">
-        <v>50.945</v>
+        <v>30.516999999999999</v>
       </c>
       <c r="AB6">
-        <v>46.247</v>
+        <v>33.405999999999999</v>
       </c>
       <c r="AC6">
-        <v>39.781999999999996</v>
-      </c>
-      <c r="AD6">
-        <v>30.405999999999999</v>
+        <v>33.061999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -16371,88 +14962,82 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-5.5</v>
+        <v>-76.5</v>
       </c>
       <c r="D7">
-        <v>-10.5</v>
+        <v>-69</v>
       </c>
       <c r="E7">
+        <v>-51.5</v>
+      </c>
+      <c r="F7">
+        <v>-40.5</v>
+      </c>
+      <c r="G7">
+        <v>-39.5</v>
+      </c>
+      <c r="H7">
+        <v>-55.5</v>
+      </c>
+      <c r="I7">
+        <v>-35</v>
+      </c>
+      <c r="J7">
         <v>-25.5</v>
       </c>
-      <c r="F7">
-        <v>-4.5</v>
-      </c>
-      <c r="G7">
-        <v>-14.5</v>
-      </c>
-      <c r="H7">
+      <c r="K7">
         <v>-20</v>
       </c>
-      <c r="I7">
-        <v>-33</v>
-      </c>
-      <c r="J7">
-        <v>-39.5</v>
-      </c>
-      <c r="K7">
-        <v>-43</v>
-      </c>
       <c r="L7">
-        <v>-50</v>
+        <v>-12.5</v>
       </c>
       <c r="M7">
-        <v>-62.5</v>
+        <v>-5</v>
       </c>
       <c r="N7">
-        <v>-60</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>-55</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>-53.5</v>
+        <v>12.5</v>
       </c>
       <c r="Q7">
-        <v>-46</v>
+        <v>20</v>
       </c>
       <c r="R7">
-        <v>-40</v>
+        <v>28</v>
       </c>
       <c r="S7">
-        <v>-36.5</v>
+        <v>35</v>
       </c>
       <c r="T7">
-        <v>-33.5</v>
+        <v>23</v>
       </c>
       <c r="U7">
-        <v>-29.5</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>-24.5</v>
+        <v>11</v>
       </c>
       <c r="W7">
-        <v>-17.5</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>-14.5</v>
+        <v>-16</v>
       </c>
       <c r="Y7">
-        <v>-5.5</v>
+        <v>-24</v>
       </c>
       <c r="Z7">
-        <v>-3</v>
+        <v>-44</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>-53.4</v>
       </c>
       <c r="AB7">
-        <v>3.5</v>
-      </c>
-      <c r="AC7">
-        <v>11.5</v>
-      </c>
-      <c r="AD7">
-        <v>19.5</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -16463,88 +15048,82 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>87</v>
+        <v>85.7</v>
       </c>
       <c r="D8" s="3">
-        <v>82.5</v>
+        <v>81.2</v>
       </c>
       <c r="E8" s="3">
-        <v>94.5</v>
+        <v>85.7</v>
       </c>
       <c r="F8" s="3">
-        <v>115.1</v>
+        <v>82.9</v>
       </c>
       <c r="G8" s="3">
-        <v>114.6</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3">
-        <v>117.3</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="I8" s="3">
-        <v>115.4</v>
+        <v>86.3</v>
       </c>
       <c r="J8" s="3">
-        <v>116.8</v>
+        <v>83.6</v>
       </c>
       <c r="K8" s="3">
-        <v>114.9</v>
+        <v>86.5</v>
       </c>
       <c r="L8" s="3">
-        <v>113</v>
+        <v>88.4</v>
       </c>
       <c r="M8" s="3">
-        <v>108.9</v>
+        <v>87.1</v>
       </c>
       <c r="N8" s="3">
-        <v>110.8</v>
+        <v>71.2</v>
       </c>
       <c r="O8" s="3">
-        <v>112.3</v>
+        <v>70</v>
       </c>
       <c r="P8" s="3">
-        <v>110.5</v>
+        <v>72.3</v>
       </c>
       <c r="Q8" s="3">
-        <v>112</v>
+        <v>74.8</v>
       </c>
       <c r="R8" s="3">
-        <v>111.3</v>
+        <v>71.5</v>
       </c>
       <c r="S8" s="3">
-        <v>115.7</v>
+        <v>74.2</v>
       </c>
       <c r="T8" s="3">
-        <v>116.6</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="U8" s="3">
-        <v>115.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="V8" s="3">
-        <v>113.5</v>
+        <v>73</v>
       </c>
       <c r="W8" s="3">
-        <v>118.9</v>
+        <v>68.2</v>
       </c>
       <c r="X8" s="3">
-        <v>115.5</v>
+        <v>90.7</v>
       </c>
       <c r="Y8" s="3">
-        <v>116.5</v>
+        <v>89.1</v>
       </c>
       <c r="Z8" s="1">
-        <v>117.7</v>
+        <v>86</v>
       </c>
       <c r="AA8" s="1">
-        <v>117.4</v>
+        <v>84.5</v>
       </c>
       <c r="AB8" s="1">
-        <v>119</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>115.1</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>118.5</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
@@ -16593,89 +15172,85 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>461.5</v>
+        <v>413.5</v>
       </c>
       <c r="D10" s="15">
-        <v>456</v>
+        <v>405.5</v>
       </c>
       <c r="E10" s="15">
-        <v>450.5</v>
+        <v>402</v>
       </c>
       <c r="F10" s="15">
-        <v>460.5</v>
+        <v>400</v>
       </c>
       <c r="G10" s="15">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="H10" s="15">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="I10" s="15">
-        <v>432</v>
+        <v>401</v>
       </c>
       <c r="J10" s="15">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="K10" s="15">
-        <v>423</v>
+        <v>392.5</v>
       </c>
       <c r="L10" s="15">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="M10" s="15">
-        <v>409.5</v>
+        <v>385.5</v>
       </c>
       <c r="N10" s="15">
-        <v>406</v>
+        <v>371.5</v>
       </c>
       <c r="O10" s="15">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="P10" s="15">
-        <v>414.5</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="15">
-        <v>420.5</v>
+        <v>356</v>
       </c>
       <c r="R10" s="15">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="S10" s="15">
-        <v>430</v>
+        <v>346</v>
       </c>
       <c r="T10" s="15">
-        <v>433.5</v>
+        <v>348</v>
       </c>
       <c r="U10" s="2">
-        <v>441</v>
+        <v>354</v>
       </c>
       <c r="V10" s="2">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="W10" s="2">
-        <v>451</v>
+        <v>376</v>
       </c>
       <c r="X10" s="2">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="Y10" s="2">
-        <v>455.5</v>
+        <v>395</v>
       </c>
       <c r="Z10" s="2">
-        <v>458.5</v>
+        <v>400</v>
       </c>
       <c r="AA10" s="2">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="AB10" s="2">
-        <v>461.5</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>465</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>467</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -16715,94 +15290,104 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E12" s="15">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="G12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="H12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="I12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="J12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="K12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="L12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="M12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="N12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="O12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="P12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="R12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="S12" s="15">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="T12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="U12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="V12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="W12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="X12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="Y12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="Z12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AA12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AB12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AC12" s="15">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="AD12" s="15">
-        <v>310</v>
-      </c>
-      <c r="AE12" s="15"/>
-      <c r="AF12" s="15"/>
-      <c r="AG12" s="15"/>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
+        <v>267</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>267</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>267</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -16810,89 +15395,85 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15">
+        <v>30.5</v>
+      </c>
+      <c r="E13" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="F13" s="15">
+        <v>31</v>
+      </c>
+      <c r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15">
+        <v>35</v>
+      </c>
+      <c r="J13" s="15">
+        <v>32</v>
+      </c>
+      <c r="K13" s="15">
+        <v>41</v>
+      </c>
+      <c r="L13" s="15">
+        <v>44.5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>45.5</v>
+      </c>
+      <c r="N13" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="O13" s="15">
+        <v>66.5</v>
+      </c>
+      <c r="P13" s="15">
         <v>62</v>
       </c>
-      <c r="D13" s="15">
-        <v>74</v>
-      </c>
-      <c r="E13" s="15">
-        <v>76</v>
-      </c>
-      <c r="F13" s="15">
-        <v>64</v>
-      </c>
-      <c r="G13" s="15">
-        <v>72</v>
-      </c>
-      <c r="H13" s="15">
-        <v>76</v>
-      </c>
-      <c r="I13" s="15">
-        <v>79.5</v>
-      </c>
-      <c r="J13" s="15">
-        <v>81.5</v>
-      </c>
-      <c r="K13" s="15">
-        <v>77</v>
-      </c>
-      <c r="L13" s="15">
-        <v>81</v>
-      </c>
-      <c r="M13" s="15">
-        <v>74</v>
-      </c>
-      <c r="N13" s="15">
-        <v>68</v>
-      </c>
-      <c r="O13" s="15">
-        <v>74</v>
-      </c>
-      <c r="P13" s="15">
-        <v>77</v>
-      </c>
       <c r="Q13" s="15">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R13" s="15">
-        <v>79</v>
+        <v>68.5</v>
       </c>
       <c r="S13" s="15">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="T13" s="15">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="U13" s="15">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="V13" s="15">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="W13" s="15">
-        <v>75.5</v>
+        <v>55</v>
       </c>
       <c r="X13" s="15">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="15">
-        <v>61.5</v>
+        <v>38</v>
       </c>
       <c r="Z13" s="15">
-        <v>62.5</v>
+        <v>31</v>
       </c>
       <c r="AA13" s="15">
-        <v>54.5</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="15">
-        <v>48</v>
-      </c>
-      <c r="AC13" s="15">
-        <v>38.5</v>
-      </c>
-      <c r="AD13" s="15">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
@@ -16908,136 +15489,186 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AI15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
-        <v>-13.550199438030189</v>
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>8.5047736202914699</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>-12.715746326203965</v>
+        <f>D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>7.5394492849781658</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>-12.227450296743585</v>
+        <f t="shared" ref="E15:AI15" si="1">E6*SIN(RADIANS(E8))*E12/1000</f>
+        <v>6.6194684828502801</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>-13.574295183417183</v>
+        <f t="shared" si="1"/>
+        <v>5.8355816188247456</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>-12.617833179689791</v>
+        <f t="shared" si="1"/>
+        <v>6.1203702894136685</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>-11.427173303326315</v>
+        <f t="shared" si="1"/>
+        <v>7.0059001857849141</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>-7.8289359826583684</v>
+        <f t="shared" si="1"/>
+        <v>6.1782911841842409</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>-6.4962395866945686</v>
+        <f t="shared" si="1"/>
+        <v>6.391414397009699</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>-4.9404873370427511</v>
+        <f t="shared" si="1"/>
+        <v>5.9680455904544294</v>
       </c>
       <c r="L15">
-        <f t="shared" si="2"/>
-        <v>-2.8261340010696823</v>
+        <f t="shared" si="1"/>
+        <v>6.0991051231568809</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>-1.2108000422274927</v>
+        <f t="shared" si="1"/>
+        <v>5.937408550285844</v>
       </c>
       <c r="N15">
-        <f t="shared" si="2"/>
-        <v>-0.11021594724709009</v>
+        <f t="shared" si="1"/>
+        <v>4.880958611179155</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>-1.5137448723481624</v>
+        <f t="shared" si="1"/>
+        <v>4.3756598948371668</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
-        <v>-3.1927408242720881</v>
+        <f t="shared" si="1"/>
+        <v>3.388083398389504</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>-4.8615958230354943</v>
+        <f t="shared" si="1"/>
+        <v>2.7958621930655867</v>
       </c>
       <c r="R15">
-        <f t="shared" si="2"/>
-        <v>-6.8694525901110115</v>
+        <f t="shared" si="1"/>
+        <v>1.7582375762877434</v>
       </c>
       <c r="S15">
-        <f t="shared" si="2"/>
-        <v>-8.5997889837959107</v>
+        <f t="shared" si="1"/>
+        <v>0.30675317190114915</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
-        <v>-10.35823139969961</v>
+        <f t="shared" si="1"/>
+        <v>1.7259028691611564</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
-        <v>-11.863637901467659</v>
+        <f t="shared" si="1"/>
+        <v>3.2040950443238865</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
-        <v>-13.477555041999489</v>
+        <f t="shared" si="1"/>
+        <v>5.1452227356887708</v>
       </c>
       <c r="W15">
-        <f t="shared" si="2"/>
-        <v>-13.77813076308844</v>
+        <f t="shared" si="1"/>
+        <v>6.3042423522142954</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
-        <v>-14.884597105183458</v>
+        <f t="shared" si="1"/>
+        <v>6.8178701420600625</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="2"/>
-        <v>-14.534539473342328</v>
+        <f t="shared" si="1"/>
+        <v>7.5119191588333143</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="2"/>
-        <v>-14.338144060893327</v>
+        <f t="shared" si="1"/>
+        <v>7.9116485605610567</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
-        <v>-14.021223986689929</v>
+        <f t="shared" si="1"/>
+        <v>8.1105270447475082</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
-        <v>-12.539046654783448</v>
+        <f t="shared" si="1"/>
+        <v>8.8620667966654647</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
-        <v>-11.167854768300959</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
-        <v>-8.2836070695559112</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>2.2241</v>
+      </c>
+    </row>
+    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>43</v>
+      </c>
+      <c r="R25">
+        <v>630</v>
+      </c>
+      <c r="S25">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -17047,12 +15678,1175 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
-  <dimension ref="A1:AJ29"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>16.523</v>
+      </c>
+      <c r="D6">
+        <v>15.112</v>
+      </c>
+      <c r="E6">
+        <v>14.148999999999999</v>
+      </c>
+      <c r="F6">
+        <v>13.564</v>
+      </c>
+      <c r="G6">
+        <v>12.457000000000001</v>
+      </c>
+      <c r="H6">
+        <v>11.634</v>
+      </c>
+      <c r="I6">
+        <v>11.49</v>
+      </c>
+      <c r="J6">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="K6">
+        <v>10.896000000000001</v>
+      </c>
+      <c r="L6">
+        <v>9.6492000000000004</v>
+      </c>
+      <c r="M6">
+        <v>6.7404000000000002</v>
+      </c>
+      <c r="N6">
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="O6">
+        <v>7.0465</v>
+      </c>
+      <c r="P6">
+        <v>6.2092000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-120</v>
+      </c>
+      <c r="D7">
+        <v>-109</v>
+      </c>
+      <c r="E7">
+        <v>-101</v>
+      </c>
+      <c r="F7">
+        <v>-97</v>
+      </c>
+      <c r="G7">
+        <v>-89</v>
+      </c>
+      <c r="H7">
+        <v>-87</v>
+      </c>
+      <c r="I7">
+        <v>-81.5</v>
+      </c>
+      <c r="J7">
+        <v>-75</v>
+      </c>
+      <c r="K7">
+        <v>-74</v>
+      </c>
+      <c r="L7">
+        <v>-59.5</v>
+      </c>
+      <c r="M7">
+        <v>-48.5</v>
+      </c>
+      <c r="N7">
+        <v>-3</v>
+      </c>
+      <c r="O7">
+        <v>-30</v>
+      </c>
+      <c r="P7">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="E8" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>80.7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>80.8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>78.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K8" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="L8" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M8" s="1">
+        <v>86.8</v>
+      </c>
+      <c r="N8" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="O8" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>408</v>
+      </c>
+      <c r="D9">
+        <v>402</v>
+      </c>
+      <c r="E9">
+        <v>380</v>
+      </c>
+      <c r="F9">
+        <v>394</v>
+      </c>
+      <c r="G9" s="15">
+        <v>390.5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>387</v>
+      </c>
+      <c r="I9" s="15">
+        <v>383.5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>383</v>
+      </c>
+      <c r="K9" s="15">
+        <v>381</v>
+      </c>
+      <c r="L9" s="15">
+        <v>371</v>
+      </c>
+      <c r="M9" s="15">
+        <v>363</v>
+      </c>
+      <c r="N9" s="15">
+        <v>340</v>
+      </c>
+      <c r="O9" s="15">
+        <v>355</v>
+      </c>
+      <c r="P9" s="15">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>249.71</v>
+      </c>
+      <c r="D12">
+        <v>249.71</v>
+      </c>
+      <c r="E12">
+        <v>249.71</v>
+      </c>
+      <c r="F12">
+        <v>249.71</v>
+      </c>
+      <c r="G12">
+        <v>249.71</v>
+      </c>
+      <c r="H12">
+        <v>249.71</v>
+      </c>
+      <c r="I12">
+        <v>249.71</v>
+      </c>
+      <c r="J12">
+        <v>249.71</v>
+      </c>
+      <c r="K12">
+        <v>249.71</v>
+      </c>
+      <c r="L12">
+        <v>249.71</v>
+      </c>
+      <c r="M12">
+        <v>249.71</v>
+      </c>
+      <c r="N12">
+        <v>249.71</v>
+      </c>
+      <c r="O12">
+        <v>249.71</v>
+      </c>
+      <c r="P12">
+        <v>249.71</v>
+      </c>
+      <c r="Q12">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>41.5</v>
+      </c>
+      <c r="H13">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13">
+        <v>30.5</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:Q15" si="0">C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>4.0327772509041173</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.7250747045067913</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.5012891110164026</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3.3425458781636546</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>3.0706230541318886</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.8447657840215617</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.8446217708736867</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2.7733440251756893</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>2.6744099726497295</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.3824102126588129</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1.6805208635862576</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0.39482793300422558</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.7587132677407729</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>1.550440293736433</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
+  <dimension ref="A1:AE15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>415</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>6</v>
+      </c>
+      <c r="I5" s="11">
+        <v>7</v>
+      </c>
+      <c r="J5" s="11">
+        <v>8</v>
+      </c>
+      <c r="K5" s="11">
+        <v>9</v>
+      </c>
+      <c r="L5" s="11">
+        <v>10</v>
+      </c>
+      <c r="M5" s="11">
+        <v>11</v>
+      </c>
+      <c r="N5" s="11">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11">
+        <v>13</v>
+      </c>
+      <c r="P5" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>15</v>
+      </c>
+      <c r="R5" s="11">
+        <v>16</v>
+      </c>
+      <c r="S5" s="11">
+        <v>17</v>
+      </c>
+      <c r="T5" s="11">
+        <v>18</v>
+      </c>
+      <c r="U5" s="11">
+        <v>19</v>
+      </c>
+      <c r="V5" s="11">
+        <v>20</v>
+      </c>
+      <c r="W5" s="11">
+        <v>21</v>
+      </c>
+      <c r="X5" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="11">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>28</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2.2372000000000001</v>
+      </c>
+      <c r="D6">
+        <v>4.3940999999999999</v>
+      </c>
+      <c r="E6">
+        <v>7.0701000000000001</v>
+      </c>
+      <c r="F6">
+        <v>7.2348999999999997</v>
+      </c>
+      <c r="G6">
+        <v>10.673</v>
+      </c>
+      <c r="H6">
+        <v>11.206</v>
+      </c>
+      <c r="I6">
+        <v>8.9809999999999999</v>
+      </c>
+      <c r="J6">
+        <v>13.375</v>
+      </c>
+      <c r="K6">
+        <v>13.815</v>
+      </c>
+      <c r="L6">
+        <v>14.813000000000001</v>
+      </c>
+      <c r="M6">
+        <v>15.010999999999999</v>
+      </c>
+      <c r="N6">
+        <v>15.542999999999999</v>
+      </c>
+      <c r="O6">
+        <v>14.58</v>
+      </c>
+      <c r="P6">
+        <v>15.092000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>15.878</v>
+      </c>
+      <c r="R6">
+        <v>18.638999999999999</v>
+      </c>
+      <c r="S6">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
+        <v>-5.5</v>
+      </c>
+      <c r="E7">
+        <v>-14.5</v>
+      </c>
+      <c r="F7">
+        <v>-20</v>
+      </c>
+      <c r="G7">
+        <v>-28.5</v>
+      </c>
+      <c r="H7">
+        <v>-35.5</v>
+      </c>
+      <c r="I7">
+        <v>-40</v>
+      </c>
+      <c r="J7">
+        <v>-50.5</v>
+      </c>
+      <c r="K7">
+        <v>-60</v>
+      </c>
+      <c r="L7">
+        <v>-66.5</v>
+      </c>
+      <c r="M7">
+        <v>-72.5</v>
+      </c>
+      <c r="N7">
+        <v>-78.5</v>
+      </c>
+      <c r="O7">
+        <v>-88</v>
+      </c>
+      <c r="P7">
+        <v>-94.5</v>
+      </c>
+      <c r="Q7">
+        <v>-105</v>
+      </c>
+      <c r="R7">
+        <v>-112.5</v>
+      </c>
+      <c r="S7">
+        <v>-119.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>59.1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>90.3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I8" s="1">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="J8" s="1">
+        <v>78.7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>82.9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>77.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>79.7</v>
+      </c>
+      <c r="N8" s="1">
+        <v>81</v>
+      </c>
+      <c r="O8" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>95.1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>79</v>
+      </c>
+      <c r="S8" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>340</v>
+      </c>
+      <c r="D9" s="15">
+        <v>340</v>
+      </c>
+      <c r="E9" s="15">
+        <v>350</v>
+      </c>
+      <c r="F9" s="15">
+        <v>350.5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>354</v>
+      </c>
+      <c r="H9" s="15">
+        <v>362</v>
+      </c>
+      <c r="I9" s="15">
+        <v>366</v>
+      </c>
+      <c r="J9" s="15">
+        <v>363</v>
+      </c>
+      <c r="K9" s="15">
+        <v>368</v>
+      </c>
+      <c r="L9" s="15">
+        <v>373</v>
+      </c>
+      <c r="M9" s="15">
+        <v>376</v>
+      </c>
+      <c r="N9" s="15">
+        <v>383</v>
+      </c>
+      <c r="O9" s="15">
+        <v>384</v>
+      </c>
+      <c r="P9" s="15">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>391</v>
+      </c>
+      <c r="R9" s="15">
+        <v>394.5</v>
+      </c>
+      <c r="S9" s="15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>249.71</v>
+      </c>
+      <c r="D12">
+        <v>249.71</v>
+      </c>
+      <c r="E12">
+        <v>249.71</v>
+      </c>
+      <c r="F12">
+        <v>249.71</v>
+      </c>
+      <c r="G12">
+        <v>249.71</v>
+      </c>
+      <c r="H12">
+        <v>249.71</v>
+      </c>
+      <c r="I12">
+        <v>249.71</v>
+      </c>
+      <c r="J12">
+        <v>249.71</v>
+      </c>
+      <c r="K12">
+        <v>249.71</v>
+      </c>
+      <c r="L12">
+        <v>249.71</v>
+      </c>
+      <c r="M12">
+        <v>249.71</v>
+      </c>
+      <c r="N12">
+        <v>249.71</v>
+      </c>
+      <c r="O12">
+        <v>249.71</v>
+      </c>
+      <c r="P12">
+        <v>249.71</v>
+      </c>
+      <c r="Q12">
+        <v>249.71</v>
+      </c>
+      <c r="R12">
+        <v>249.71</v>
+      </c>
+      <c r="S12">
+        <v>249.71</v>
+      </c>
+      <c r="T12">
+        <v>249.71</v>
+      </c>
+      <c r="U12">
+        <v>249.71</v>
+      </c>
+      <c r="V12">
+        <v>249.71</v>
+      </c>
+      <c r="W12">
+        <v>249.71</v>
+      </c>
+      <c r="X12">
+        <v>249.71</v>
+      </c>
+      <c r="Y12">
+        <v>249.71</v>
+      </c>
+      <c r="Z12">
+        <v>249.71</v>
+      </c>
+      <c r="AA12">
+        <v>249.71</v>
+      </c>
+      <c r="AB12">
+        <v>249.71</v>
+      </c>
+      <c r="AC12">
+        <v>249.71</v>
+      </c>
+      <c r="AD12">
+        <v>249.71</v>
+      </c>
+      <c r="AE12">
+        <v>249.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>43.5</v>
+      </c>
+      <c r="E13">
+        <v>42.5</v>
+      </c>
+      <c r="F13">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <v>34</v>
+      </c>
+      <c r="M13">
+        <v>36</v>
+      </c>
+      <c r="N13">
+        <v>36</v>
+      </c>
+      <c r="O13">
+        <v>36</v>
+      </c>
+      <c r="P13">
+        <v>36</v>
+      </c>
+      <c r="Q13">
+        <v>36</v>
+      </c>
+      <c r="R13">
+        <v>36</v>
+      </c>
+      <c r="S13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
+        <v>0.55424608033235112</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:AE15" si="0">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <v>0.94151232788941708</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.7654504703100355</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.7973782299686616</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.6505548329815083</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.7667878003414437</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>2.2112395854139617</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.2751267054083995</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.4232908014126586</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>3.6112742452683877</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3.6879915375968162</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3.8334579939029743</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>3.5876452882959535</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>3.5546509046937125</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>3.9491986185374381</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>4.5688312688392907</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>4.4080232672318793</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
+  <dimension ref="A1:AJ15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17080,7 +16874,7 @@
         <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -17091,9 +16885,6 @@
         <f>C2-C2*0.17</f>
         <v>402.55</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -17102,9 +16893,6 @@
       <c r="C4">
         <v>398</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -17161,7 +16949,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="11">
-        <f t="shared" ref="S5:AI5" si="0">R5+1</f>
+        <f t="shared" ref="S5:AB5" si="0">R5+1</f>
         <v>17</v>
       </c>
       <c r="T5" s="11">
@@ -17201,31 +16989,31 @@
         <v>26</v>
       </c>
       <c r="AC5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AC5:AI5" si="1">AB5+1</f>
         <v>27</v>
       </c>
       <c r="AD5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="AE5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="AF5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="AG5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="AH5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="AI5" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
@@ -17234,64 +17022,88 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>43.774000000000001</v>
+        <v>51.203000000000003</v>
       </c>
       <c r="D6">
-        <v>43.682000000000002</v>
+        <v>48.398000000000003</v>
       </c>
       <c r="E6">
-        <v>45.475000000000001</v>
+        <v>46.283999999999999</v>
       </c>
       <c r="F6">
-        <v>41.618000000000002</v>
+        <v>49.966000000000001</v>
       </c>
       <c r="G6">
-        <v>34.204000000000001</v>
+        <v>46.258000000000003</v>
       </c>
       <c r="H6">
-        <v>27.984999999999999</v>
+        <v>42.865000000000002</v>
       </c>
       <c r="I6">
-        <v>18.039000000000001</v>
+        <v>28.888999999999999</v>
       </c>
       <c r="J6">
-        <v>6.0835999999999997</v>
+        <v>24.26</v>
       </c>
       <c r="K6">
-        <v>2.9384000000000001</v>
+        <v>18.155999999999999</v>
       </c>
       <c r="L6">
-        <v>1.2999999999999999E-2</v>
+        <v>10.234</v>
       </c>
       <c r="M6">
-        <v>7.3449999999999998</v>
+        <v>4.266</v>
       </c>
       <c r="N6">
-        <v>15.176</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="O6">
-        <v>23.530999999999999</v>
+        <v>5.4537000000000004</v>
       </c>
       <c r="P6">
-        <v>29.727</v>
+        <v>11.362</v>
       </c>
       <c r="Q6">
-        <v>38.637999999999998</v>
+        <v>17.478000000000002</v>
       </c>
       <c r="R6">
-        <v>46.064999999999998</v>
+        <v>24.577000000000002</v>
       </c>
       <c r="S6">
-        <v>50.881999999999998</v>
+        <v>31.812999999999999</v>
       </c>
       <c r="T6">
-        <v>53.805999999999997</v>
+        <v>37.369</v>
       </c>
       <c r="U6">
-        <v>53.527999999999999</v>
+        <v>42.365000000000002</v>
       </c>
       <c r="V6">
-        <v>48.012999999999998</v>
+        <v>47.408000000000001</v>
+      </c>
+      <c r="W6">
+        <v>50.768000000000001</v>
+      </c>
+      <c r="X6">
+        <v>53.197000000000003</v>
+      </c>
+      <c r="Y6">
+        <v>52.39</v>
+      </c>
+      <c r="Z6">
+        <v>52.238999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>50.945</v>
+      </c>
+      <c r="AB6">
+        <v>46.247</v>
+      </c>
+      <c r="AC6">
+        <v>39.781999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>30.405999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -17299,64 +17111,88 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>-5.5</v>
       </c>
       <c r="D7">
-        <v>5.5</v>
+        <v>-10.5</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>-25.5</v>
       </c>
       <c r="F7">
-        <v>-15</v>
+        <v>-4.5</v>
       </c>
       <c r="G7">
-        <v>-26.6</v>
+        <v>-14.5</v>
       </c>
       <c r="H7">
-        <v>-35</v>
+        <v>-20</v>
       </c>
       <c r="I7">
-        <v>-42.5</v>
+        <v>-33</v>
       </c>
       <c r="J7">
-        <v>-56</v>
+        <v>-39.5</v>
       </c>
       <c r="K7">
-        <v>-56</v>
+        <v>-43</v>
       </c>
       <c r="L7">
-        <v>-63</v>
+        <v>-50</v>
       </c>
       <c r="M7">
-        <v>-64</v>
+        <v>-62.5</v>
       </c>
       <c r="N7">
+        <v>-60</v>
+      </c>
+      <c r="O7">
         <v>-55</v>
       </c>
-      <c r="O7">
-        <v>-48</v>
-      </c>
       <c r="P7">
-        <v>-42</v>
+        <v>-53.5</v>
       </c>
       <c r="Q7">
-        <v>-35</v>
+        <v>-46</v>
       </c>
       <c r="R7">
-        <v>-26</v>
+        <v>-40</v>
       </c>
       <c r="S7">
-        <v>-19</v>
+        <v>-36.5</v>
       </c>
       <c r="T7">
-        <v>-11</v>
+        <v>-33.5</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>-29.5</v>
       </c>
       <c r="V7">
+        <v>-24.5</v>
+      </c>
+      <c r="W7">
+        <v>-17.5</v>
+      </c>
+      <c r="X7">
+        <v>-14.5</v>
+      </c>
+      <c r="Y7">
+        <v>-5.5</v>
+      </c>
+      <c r="Z7">
+        <v>-3</v>
+      </c>
+      <c r="AA7">
+        <v>-0.5</v>
+      </c>
+      <c r="AB7">
+        <v>3.5</v>
+      </c>
+      <c r="AC7">
         <v>11.5</v>
+      </c>
+      <c r="AD7">
+        <v>19.5</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -17367,68 +17203,89 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>92.7</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3">
-        <v>91</v>
+        <v>82.5</v>
       </c>
       <c r="E8" s="3">
         <v>94.5</v>
       </c>
       <c r="F8" s="3">
-        <v>93</v>
+        <v>115.1</v>
       </c>
       <c r="G8" s="3">
-        <v>95.6</v>
+        <v>114.6</v>
       </c>
       <c r="H8" s="3">
-        <v>94.1</v>
+        <v>117.3</v>
       </c>
       <c r="I8" s="3">
-        <v>91.9</v>
+        <v>115.4</v>
       </c>
       <c r="J8" s="3">
-        <v>91.7</v>
+        <v>116.8</v>
       </c>
       <c r="K8" s="3">
-        <v>92.2</v>
+        <v>114.9</v>
       </c>
       <c r="L8" s="3">
-        <v>91.1</v>
+        <v>113</v>
       </c>
       <c r="M8" s="3">
-        <v>90</v>
+        <v>108.9</v>
       </c>
       <c r="N8" s="3">
-        <v>92.1</v>
+        <v>110.8</v>
       </c>
       <c r="O8" s="3">
-        <v>92.1</v>
+        <v>112.3</v>
       </c>
       <c r="P8" s="3">
-        <v>92.6</v>
+        <v>110.5</v>
       </c>
       <c r="Q8" s="3">
-        <v>93.7</v>
+        <v>112</v>
       </c>
       <c r="R8" s="3">
-        <v>93.8</v>
+        <v>111.3</v>
       </c>
       <c r="S8" s="3">
-        <v>95.4</v>
+        <v>115.7</v>
       </c>
       <c r="T8" s="3">
-        <v>96.9</v>
+        <v>116.6</v>
       </c>
       <c r="U8" s="3">
-        <v>94.5</v>
+        <v>115.4</v>
       </c>
       <c r="V8" s="3">
-        <v>95.1</v>
-      </c>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+        <v>113.5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>118.9</v>
+      </c>
+      <c r="X8" s="3">
+        <v>115.5</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>116.5</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>117.7</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>117.4</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>119</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>118.5</v>
+      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -17476,73 +17333,89 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
+        <v>461.5</v>
+      </c>
+      <c r="D10" s="15">
+        <v>456</v>
+      </c>
+      <c r="E10" s="15">
+        <v>450.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>460.5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>452</v>
+      </c>
+      <c r="H10" s="15">
+        <v>449</v>
+      </c>
+      <c r="I10" s="15">
+        <v>432</v>
+      </c>
+      <c r="J10" s="15">
+        <v>428</v>
+      </c>
+      <c r="K10" s="15">
+        <v>423</v>
+      </c>
+      <c r="L10" s="15">
+        <v>415</v>
+      </c>
+      <c r="M10" s="15">
+        <v>409.5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>406</v>
+      </c>
+      <c r="O10" s="15">
+        <v>410</v>
+      </c>
+      <c r="P10" s="15">
+        <v>414.5</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>420.5</v>
+      </c>
+      <c r="R10" s="15">
+        <v>426</v>
+      </c>
+      <c r="S10" s="15">
+        <v>430</v>
+      </c>
+      <c r="T10" s="15">
+        <v>433.5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>441</v>
+      </c>
+      <c r="V10" s="2">
+        <v>445</v>
+      </c>
+      <c r="W10" s="2">
+        <v>451</v>
+      </c>
+      <c r="X10" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>455.5</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>458.5</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>462</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>461.5</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>465</v>
+      </c>
+      <c r="AD10" s="2">
         <v>467</v>
       </c>
-      <c r="D10" s="15">
-        <v>466</v>
-      </c>
-      <c r="E10" s="15">
-        <v>463</v>
-      </c>
-      <c r="F10" s="15">
-        <v>450</v>
-      </c>
-      <c r="G10" s="15">
-        <v>443</v>
-      </c>
-      <c r="H10" s="15">
-        <v>431</v>
-      </c>
-      <c r="I10" s="15">
-        <v>423</v>
-      </c>
-      <c r="J10" s="15">
-        <v>411</v>
-      </c>
-      <c r="K10" s="15">
-        <v>408</v>
-      </c>
-      <c r="L10" s="15">
-        <v>404</v>
-      </c>
-      <c r="M10" s="15">
-        <v>407</v>
-      </c>
-      <c r="N10" s="15">
-        <v>413</v>
-      </c>
-      <c r="O10" s="15">
-        <v>420</v>
-      </c>
-      <c r="P10" s="15">
-        <v>422</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>433</v>
-      </c>
-      <c r="R10" s="15">
-        <v>442</v>
-      </c>
-      <c r="S10" s="15">
-        <v>448</v>
-      </c>
-      <c r="T10" s="15">
-        <v>455</v>
-      </c>
-      <c r="U10" s="2">
-        <v>460</v>
-      </c>
-      <c r="V10" s="2">
-        <v>466</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
@@ -17582,104 +17455,94 @@
         <v>10</v>
       </c>
       <c r="C12" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D12" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E12" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="G12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="H12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="I12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="J12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="K12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="L12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="M12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="N12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="O12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="P12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="R12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="S12" s="15">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="T12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="U12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="V12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="W12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="X12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Y12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="Z12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AA12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AB12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AC12" s="15">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AD12" s="15">
-        <v>275</v>
-      </c>
-      <c r="AE12" s="15">
-        <v>275</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>275</v>
-      </c>
-      <c r="AG12" s="15">
-        <v>275</v>
-      </c>
-      <c r="AH12" s="15">
-        <v>275</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>275</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="AE12" s="15"/>
+      <c r="AF12" s="15"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -17687,73 +17550,89 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D13" s="15">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E13" s="15">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F13" s="15">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="15">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="15">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15">
+        <v>79.5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>81.5</v>
+      </c>
+      <c r="K13" s="15">
+        <v>77</v>
+      </c>
+      <c r="L13" s="15">
+        <v>81</v>
+      </c>
+      <c r="M13" s="15">
         <v>74</v>
       </c>
-      <c r="I13" s="15">
-        <v>73</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="N13" s="15">
+        <v>68</v>
+      </c>
+      <c r="O13" s="15">
+        <v>74</v>
+      </c>
+      <c r="P13" s="15">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>75</v>
+      </c>
+      <c r="R13" s="15">
+        <v>79</v>
+      </c>
+      <c r="S13" s="15">
+        <v>80</v>
+      </c>
+      <c r="T13" s="15">
+        <v>78</v>
+      </c>
+      <c r="U13" s="15">
+        <v>79</v>
+      </c>
+      <c r="V13" s="15">
+        <v>77</v>
+      </c>
+      <c r="W13" s="15">
+        <v>75.5</v>
+      </c>
+      <c r="X13" s="15">
         <v>72</v>
       </c>
-      <c r="K13" s="15">
-        <v>65</v>
-      </c>
-      <c r="L13" s="15">
-        <v>63</v>
-      </c>
-      <c r="M13" s="15">
-        <v>66</v>
-      </c>
-      <c r="N13" s="15">
-        <v>71</v>
-      </c>
-      <c r="O13" s="15">
-        <v>75</v>
-      </c>
-      <c r="P13" s="15">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="15">
-        <v>76</v>
-      </c>
-      <c r="R13" s="15">
-        <v>75</v>
-      </c>
-      <c r="S13" s="15">
-        <v>69</v>
-      </c>
-      <c r="T13" s="15">
-        <v>65</v>
-      </c>
-      <c r="U13" s="15">
-        <v>56</v>
-      </c>
-      <c r="V13" s="15">
-        <v>44</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
+      <c r="Y13" s="15">
+        <v>61.5</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>62.5</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>48</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>30</v>
+      </c>
       <c r="AE13" s="15"/>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
@@ -17769,147 +17648,136 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
-        <v>-12.024486481310953</v>
+        <f t="shared" ref="C15:AI15" si="2">C6*-SIN(RADIANS(C8))*C12/1000</f>
+        <v>-13.550199438030189</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
-        <v>-12.010720430450908</v>
+        <f t="shared" si="2"/>
+        <v>-12.715746326203965</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>-12.467074331666348</v>
+        <f t="shared" si="2"/>
+        <v>-12.227450296743585</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>-11.429265093789359</v>
+        <f t="shared" si="2"/>
+        <v>-13.574295183417183</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
-        <v>-9.361208446969103</v>
+        <f t="shared" si="2"/>
+        <v>-12.617833179689791</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>-7.6761795853386783</v>
+        <f t="shared" si="2"/>
+        <v>-11.427173303326315</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>-4.9579976724776733</v>
+        <f t="shared" si="2"/>
+        <v>-7.8289359826583684</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>-1.6722536503811283</v>
+        <f t="shared" si="2"/>
+        <v>-6.4962395866945686</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
-        <v>-0.80746439223476663</v>
+        <f t="shared" si="2"/>
+        <v>-4.9404873370427511</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
-        <v>-3.5743411708348779E-3</v>
+        <f t="shared" si="2"/>
+        <v>-2.8261340010696823</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
-        <v>-2.0198749999999999</v>
+        <f t="shared" si="2"/>
+        <v>-1.2108000422274927</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
-        <v>-4.1705971185958441</v>
+        <f t="shared" si="2"/>
+        <v>-0.11021594724709009</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
-        <v>-6.4666790193515293</v>
+        <f t="shared" si="2"/>
+        <v>-1.5137448723481624</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>-8.1665094852463582</v>
+        <f t="shared" si="2"/>
+        <v>-3.1927408242720881</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
-        <v>-10.603302506170124</v>
+        <f t="shared" si="2"/>
+        <v>-4.8615958230354943</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
-        <v>-12.640024275140153</v>
+        <f t="shared" si="2"/>
+        <v>-6.8694525901110115</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
-        <v>-13.930450567806828</v>
+        <f t="shared" si="2"/>
+        <v>-8.5997889837959107</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
-        <v>-14.689482923460329</v>
+        <f t="shared" si="2"/>
+        <v>-10.35823139969961</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
-        <v>-14.674822536018389</v>
+        <f t="shared" si="2"/>
+        <v>-11.863637901467659</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
-        <v>-13.151302910231001</v>
+        <f t="shared" si="2"/>
+        <v>-13.477555041999489</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>-13.77813076308844</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>-14.884597105183458</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="2"/>
+        <v>-14.534539473342328</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="2"/>
+        <v>-14.338144060893327</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>-14.021223986689929</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>-12.539046654783448</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="2"/>
+        <v>-11.167854768300959</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>-8.2836070695559112</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
+      <c r="AF15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y15">
-        <f t="shared" si="1"/>
+      <c r="AG15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="1"/>
+      <c r="AH15">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="1"/>
+      <c r="AI15">
+        <f t="shared" si="2"/>
         <v>0</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R29">
-        <f>485*1.03</f>
-        <v>499.55</v>
       </c>
     </row>
   </sheetData>
@@ -17919,12 +17787,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17949,10 +17817,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -17961,13 +17829,22 @@
       </c>
       <c r="C3">
         <f>C2-C2*0.17</f>
-        <v>379.31</v>
+        <v>402.55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C4">
+        <v>398</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -18097,34 +17974,64 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>67.698999999999998</v>
+        <v>43.774000000000001</v>
       </c>
       <c r="D6">
-        <v>53.807000000000002</v>
+        <v>43.682000000000002</v>
       </c>
       <c r="E6">
-        <v>40.158999999999999</v>
+        <v>45.475000000000001</v>
       </c>
       <c r="F6">
-        <v>29.155000000000001</v>
+        <v>41.618000000000002</v>
       </c>
       <c r="G6">
-        <v>19.347000000000001</v>
+        <v>34.204000000000001</v>
       </c>
       <c r="H6">
-        <v>18.911000000000001</v>
+        <v>27.984999999999999</v>
       </c>
       <c r="I6">
-        <v>10.577</v>
+        <v>18.039000000000001</v>
       </c>
       <c r="J6">
-        <v>6.6810999999999998</v>
+        <v>6.0835999999999997</v>
       </c>
       <c r="K6">
-        <v>3.8237000000000001</v>
+        <v>2.9384000000000001</v>
       </c>
       <c r="L6">
-        <v>2.0994000000000002</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>7.3449999999999998</v>
+      </c>
+      <c r="N6">
+        <v>15.176</v>
+      </c>
+      <c r="O6">
+        <v>23.530999999999999</v>
+      </c>
+      <c r="P6">
+        <v>29.727</v>
+      </c>
+      <c r="Q6">
+        <v>38.637999999999998</v>
+      </c>
+      <c r="R6">
+        <v>46.064999999999998</v>
+      </c>
+      <c r="S6">
+        <v>50.881999999999998</v>
+      </c>
+      <c r="T6">
+        <v>53.805999999999997</v>
+      </c>
+      <c r="U6">
+        <v>53.527999999999999</v>
+      </c>
+      <c r="V6">
+        <v>48.012999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
@@ -18132,34 +18039,64 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-41</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>-45</v>
+        <v>5.5</v>
       </c>
       <c r="E7">
-        <v>-57</v>
+        <v>-1</v>
       </c>
       <c r="F7">
+        <v>-15</v>
+      </c>
+      <c r="G7">
+        <v>-26.6</v>
+      </c>
+      <c r="H7">
+        <v>-35</v>
+      </c>
+      <c r="I7">
+        <v>-42.5</v>
+      </c>
+      <c r="J7">
+        <v>-56</v>
+      </c>
+      <c r="K7">
+        <v>-56</v>
+      </c>
+      <c r="L7">
         <v>-63</v>
       </c>
-      <c r="G7">
-        <v>-77</v>
-      </c>
-      <c r="H7">
-        <v>-75</v>
-      </c>
-      <c r="I7">
-        <v>-80</v>
-      </c>
-      <c r="J7">
-        <v>-90</v>
-      </c>
-      <c r="K7">
-        <v>-95</v>
-      </c>
-      <c r="L7">
-        <v>-105</v>
+      <c r="M7">
+        <v>-64</v>
+      </c>
+      <c r="N7">
+        <v>-55</v>
+      </c>
+      <c r="O7">
+        <v>-48</v>
+      </c>
+      <c r="P7">
+        <v>-42</v>
+      </c>
+      <c r="Q7">
+        <v>-35</v>
+      </c>
+      <c r="R7">
+        <v>-26</v>
+      </c>
+      <c r="S7">
+        <v>-19</v>
+      </c>
+      <c r="T7">
+        <v>-11</v>
+      </c>
+      <c r="U7">
+        <v>0.5</v>
+      </c>
+      <c r="V7">
+        <v>11.5</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18170,45 +18107,65 @@
         <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>71.2</v>
+        <v>92.7</v>
       </c>
       <c r="D8" s="3">
-        <v>75.3</v>
+        <v>91</v>
       </c>
       <c r="E8" s="3">
-        <v>72.7</v>
+        <v>94.5</v>
       </c>
       <c r="F8" s="3">
-        <v>74.2</v>
+        <v>93</v>
       </c>
       <c r="G8" s="3">
-        <v>81.599999999999994</v>
+        <v>95.6</v>
       </c>
       <c r="H8" s="3">
-        <v>76.099999999999994</v>
+        <v>94.1</v>
       </c>
       <c r="I8" s="3">
-        <v>76.900000000000006</v>
+        <v>91.9</v>
       </c>
       <c r="J8" s="3">
-        <v>79.599999999999994</v>
+        <v>91.7</v>
       </c>
       <c r="K8" s="3">
-        <v>78</v>
+        <v>92.2</v>
       </c>
       <c r="L8" s="3">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+        <v>91.1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>90</v>
+      </c>
+      <c r="N8" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>92.6</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>93.7</v>
+      </c>
+      <c r="R8" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="S8" s="3">
+        <v>95.4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>96.9</v>
+      </c>
+      <c r="U8" s="3">
+        <v>94.5</v>
+      </c>
+      <c r="V8" s="3">
+        <v>95.1</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -18259,45 +18216,65 @@
         <v>3</v>
       </c>
       <c r="C10" s="15">
-        <v>428</v>
+        <v>467</v>
       </c>
       <c r="D10" s="15">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="E10" s="15">
-        <v>409.5</v>
+        <v>463</v>
       </c>
       <c r="F10" s="15">
-        <v>405.5</v>
+        <v>450</v>
       </c>
       <c r="G10" s="15">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="H10" s="15">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="I10" s="15">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="J10" s="15">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="K10" s="15">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="L10" s="15">
-        <v>376</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M10" s="15">
+        <v>407</v>
+      </c>
+      <c r="N10" s="15">
+        <v>413</v>
+      </c>
+      <c r="O10" s="15">
+        <v>420</v>
+      </c>
+      <c r="P10" s="15">
+        <v>422</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>433</v>
+      </c>
+      <c r="R10" s="15">
+        <v>442</v>
+      </c>
+      <c r="S10" s="15">
+        <v>448</v>
+      </c>
+      <c r="T10" s="15">
+        <v>455</v>
+      </c>
+      <c r="U10" s="2">
+        <v>460</v>
+      </c>
+      <c r="V10" s="2">
+        <v>466</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -18450,45 +18427,65 @@
         <v>11</v>
       </c>
       <c r="C13" s="15">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D13" s="15">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="E13" s="15">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F13" s="15">
+        <v>65</v>
+      </c>
+      <c r="G13" s="15">
+        <v>70</v>
+      </c>
+      <c r="H13" s="15">
+        <v>74</v>
+      </c>
+      <c r="I13" s="15">
+        <v>73</v>
+      </c>
+      <c r="J13" s="15">
+        <v>72</v>
+      </c>
+      <c r="K13" s="15">
+        <v>65</v>
+      </c>
+      <c r="L13" s="15">
+        <v>63</v>
+      </c>
+      <c r="M13" s="15">
+        <v>66</v>
+      </c>
+      <c r="N13" s="15">
+        <v>71</v>
+      </c>
+      <c r="O13" s="15">
+        <v>75</v>
+      </c>
+      <c r="P13" s="15">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="15">
         <v>76</v>
       </c>
-      <c r="G13" s="15">
-        <v>62</v>
-      </c>
-      <c r="H13" s="15">
-        <v>62.5</v>
-      </c>
-      <c r="I13" s="15">
-        <v>60</v>
-      </c>
-      <c r="J13" s="15">
-        <v>48</v>
-      </c>
-      <c r="K13" s="15">
-        <v>34</v>
-      </c>
-      <c r="L13" s="15">
-        <v>26</v>
-      </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
+      <c r="R13" s="15">
+        <v>75</v>
+      </c>
+      <c r="S13" s="15">
+        <v>69</v>
+      </c>
+      <c r="T13" s="15">
+        <v>65</v>
+      </c>
+      <c r="U13" s="15">
+        <v>56</v>
+      </c>
+      <c r="V13" s="15">
+        <v>44</v>
+      </c>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
@@ -18513,83 +18510,83 @@
       </c>
       <c r="C15">
         <f>C6*-SIN(RADIANS(C8))*C12/1000</f>
-        <v>-17.623982271657447</v>
+        <v>-12.024486481310953</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:AI15" si="1">D6*-SIN(RADIANS(D8))*D12/1000</f>
-        <v>-14.312588392743191</v>
+        <v>-12.010720430450908</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>-10.544115710489031</v>
+        <v>-12.467074331666348</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>-7.714703040370237</v>
+        <v>-11.429265093789359</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>-5.2633492521046072</v>
+        <v>-9.361208446969103</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-5.0482353303594207</v>
+        <v>-7.6761795853386783</v>
       </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>-2.8329795466253955</v>
+        <v>-4.9579976724776733</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>-1.807118322254111</v>
+        <v>-1.6722536503811283</v>
       </c>
       <c r="K15">
         <f t="shared" si="1"/>
-        <v>-1.0285393197546095</v>
+        <v>-0.80746439223476663</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>-0.56161756164602195</v>
+        <v>-3.5743411708348779E-3</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0198749999999999</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4.1705971185958441</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6.4666790193515293</v>
       </c>
       <c r="P15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-8.1665094852463582</v>
       </c>
       <c r="Q15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10.603302506170124</v>
       </c>
       <c r="R15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-12.640024275140153</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-13.930450567806828</v>
       </c>
       <c r="T15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-14.689482923460329</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-14.674822536018389</v>
       </c>
       <c r="V15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-13.151302910231001</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
@@ -18642,6 +18639,11 @@
       <c r="AI15">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="18:18" x14ac:dyDescent="0.25">
@@ -18655,4 +18657,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A3A43D-023F-41EE-8F3B-B175F4CDA6B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA18C38A-FA40-457B-BB50-1A1677E33FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276C53D-CA76-4679-91CF-69B3831A5FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26235" yWindow="1530" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-23805" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -16175,7 +16176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276C53D-CA76-4679-91CF-69B3831A5FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C77D62-845B-40E1-8C77-FF54FCF687D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23805" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-25770" yWindow="1530" windowWidth="13455" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
   <si>
     <t>Test #</t>
   </si>
@@ -106,9 +105,6 @@
   </si>
   <si>
     <t>corrected?</t>
-  </si>
-  <si>
-    <t>*Check at end</t>
   </si>
   <si>
     <t>^ Collected by Ben</t>
@@ -11379,7 +11375,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -12247,7 +12243,7 @@
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T22">
         <f>(486-T21)/486</f>
@@ -12272,7 +12268,7 @@
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23">
         <f>T22/$T$26</f>
@@ -12297,7 +12293,7 @@
     </row>
     <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26">
         <f xml:space="preserve"> (486-405)/486</f>
@@ -13053,8 +13049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D1208C-7CDD-421F-9FF0-096EE144B4F3}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:AE13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13071,7 +13067,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -13082,7 +13078,7 @@
         <v>457</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -13101,8 +13097,9 @@
       <c r="C4">
         <v>380</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
+      <c r="D4">
+        <f>1-C4/C2</f>
+        <v>0.16849015317286653</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -14025,8 +14022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14043,7 +14040,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -14054,7 +14051,7 @@
         <v>486</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -14072,6 +14069,10 @@
       </c>
       <c r="C4">
         <v>405</v>
+      </c>
+      <c r="D4">
+        <f>1-398/486</f>
+        <v>0.18106995884773658</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -14688,8 +14689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14706,7 +14707,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -14729,7 +14730,7 @@
         <v>344.45</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
@@ -14739,14 +14740,18 @@
       <c r="C4">
         <v>349</v>
       </c>
+      <c r="D4">
+        <f>1-C4/C2</f>
+        <v>0.15903614457831328</v>
+      </c>
       <c r="U4" t="s">
         <v>16</v>
       </c>
       <c r="AB4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -15624,10 +15629,10 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="U16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="17:29" x14ac:dyDescent="0.25">
@@ -15637,17 +15642,17 @@
     </row>
     <row r="18" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25">
         <v>630</v>
@@ -15658,7 +15663,7 @@
     </row>
     <row r="26" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R26">
         <v>-1.4999999999999999E-2</v>
@@ -15701,7 +15706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -15712,12 +15717,12 @@
         <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>350</v>
@@ -15725,10 +15730,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -15883,7 +15888,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>77.8</v>
@@ -15987,7 +15992,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -16162,7 +16167,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -16176,7 +16181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -16194,7 +16199,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -16205,12 +16210,12 @@
         <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>350</v>
@@ -16218,10 +16223,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -16433,7 +16438,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>82.8</v>
@@ -16555,7 +16560,7 @@
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -17821,7 +17826,7 @@
         <v>485</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -17833,7 +17838,7 @@
         <v>402.55</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C77D62-845B-40E1-8C77-FF54FCF687D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D82533-AB26-4787-B458-BE618A88DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="1530" windowWidth="13455" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="9" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -11361,24 +11363,24 @@
       <selection activeCell="C13" sqref="C13:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11389,7 +11391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11398,7 +11400,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -11406,7 +11408,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11529,7 +11531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -11594,7 +11596,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -11659,7 +11661,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -11730,7 +11732,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -11770,7 +11772,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -11850,7 +11852,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -11876,7 +11878,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -11961,7 +11963,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12038,13 +12040,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -12181,12 +12183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="C18">
         <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -12224,7 +12226,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="T21">
         <v>480</v>
       </c>
@@ -12241,7 +12243,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="S22" t="s">
         <v>30</v>
       </c>
@@ -12266,7 +12268,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="S23" t="s">
         <v>31</v>
       </c>
@@ -12291,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.55000000000000004">
       <c r="S26" t="s">
         <v>32</v>
       </c>
@@ -12311,28 +12313,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12343,7 +12345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -12352,12 +12354,12 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -12480,7 +12482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -12515,7 +12517,7 @@
         <v>2.0994000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12550,7 +12552,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12601,7 +12603,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -12641,7 +12643,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -12701,7 +12703,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -12727,7 +12729,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -12832,7 +12834,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12889,13 +12891,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -13032,7 +13034,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18">
+        <f>1-348/457</f>
+        <v>0.23851203501094087</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18" x14ac:dyDescent="0.55000000000000004">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -13053,24 +13061,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13081,7 +13089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -13090,7 +13098,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -13102,7 +13110,7 @@
         <v>0.16849015317286653</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -13225,7 +13233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -13317,7 +13325,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -13409,7 +13417,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -13504,7 +13512,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -13544,7 +13552,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -13642,7 +13650,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -13668,7 +13676,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -13773,7 +13781,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -13868,13 +13876,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -14022,28 +14030,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CB8201-A5D3-4826-B613-98BAA3DB341B}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14054,7 +14062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -14063,7 +14071,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -14075,7 +14083,7 @@
         <v>0.18106995884773658</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -14198,7 +14206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -14215,7 +14223,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -14232,7 +14240,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -14271,7 +14279,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -14311,7 +14319,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -14359,7 +14367,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -14385,7 +14393,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -14490,7 +14498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -14535,13 +14543,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -14693,24 +14701,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14721,7 +14729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -14733,7 +14741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -14754,7 +14762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -14877,7 +14885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -14963,7 +14971,7 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -15046,7 +15054,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15132,7 +15140,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -15172,7 +15180,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -15264,7 +15272,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -15290,7 +15298,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -15395,7 +15403,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -15484,13 +15492,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -15627,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="U16" t="s">
         <v>23</v>
       </c>
@@ -15635,22 +15643,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="AC18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="Q25" t="s">
         <v>42</v>
       </c>
@@ -15661,7 +15669,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="Q26" t="s">
         <v>43</v>
       </c>
@@ -15672,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:29" x14ac:dyDescent="0.55000000000000004">
       <c r="R27">
         <v>505</v>
       </c>
@@ -15689,27 +15697,27 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:P13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15720,7 +15728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -15728,7 +15736,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -15739,7 +15747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -15789,7 +15797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -15836,7 +15844,7 @@
         <v>6.2092000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -15883,7 +15891,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15933,7 +15941,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -15981,7 +15989,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -15989,13 +15997,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -16046,7 +16054,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -16094,13 +16102,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -16165,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="L16" t="s">
         <v>39</v>
       </c>
@@ -16185,24 +16193,24 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16213,7 +16221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -16221,7 +16229,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -16229,7 +16237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -16321,7 +16329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -16377,7 +16385,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -16433,7 +16441,7 @@
         <v>-119.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -16492,7 +16500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -16549,7 +16557,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -16557,13 +16565,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -16656,7 +16664,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -16713,13 +16721,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -16855,24 +16863,24 @@
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16883,7 +16891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -16892,7 +16900,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -16900,7 +16908,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -17023,7 +17031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -17112,7 +17120,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -17201,7 +17209,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -17293,7 +17301,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -17333,7 +17341,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -17429,7 +17437,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -17455,7 +17463,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -17550,7 +17558,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -17643,13 +17651,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -17801,24 +17809,24 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
+    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.68359375" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" customWidth="1"/>
+    <col min="8" max="9" width="13.41796875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17829,7 +17837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -17841,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -17852,7 +17860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -17975,7 +17983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -18040,7 +18048,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -18105,7 +18113,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -18176,7 +18184,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -18216,7 +18224,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -18296,7 +18304,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -18322,7 +18330,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -18427,7 +18435,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -18504,13 +18512,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -18647,12 +18655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:18" x14ac:dyDescent="0.55000000000000004">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -18671,7 +18679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D82533-AB26-4787-B458-BE618A88DD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51073BE3-BF80-4B3C-B641-B2AA5393BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" firstSheet="2" activeTab="9" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-20100" yWindow="1050" windowWidth="13455" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -11363,24 +11363,24 @@
       <selection activeCell="C13" sqref="C13:V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11531,7 +11531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -11732,7 +11732,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -11772,7 +11772,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -11852,7 +11852,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -11878,7 +11878,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -11963,7 +11963,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12040,13 +12040,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -12183,12 +12183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -12226,7 +12226,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="T21">
         <v>480</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S22" t="s">
         <v>30</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>31</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S26" t="s">
         <v>32</v>
       </c>
@@ -12313,28 +12313,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -12354,12 +12354,12 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>2.0994000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -12603,7 +12603,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -12643,7 +12643,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -12703,7 +12703,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -12729,7 +12729,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -12834,7 +12834,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -12891,13 +12891,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -13034,13 +13034,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J18">
         <f>1-348/457</f>
         <v>0.23851203501094087</v>
       </c>
     </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="10:18" x14ac:dyDescent="0.25">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -13061,24 +13061,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>0.16849015317286653</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -13325,7 +13325,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -13552,7 +13552,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -13650,7 +13650,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -13781,7 +13781,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -13876,13 +13876,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -14034,24 +14034,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>0.18106995884773658</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -14223,7 +14223,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -14279,7 +14279,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -14319,7 +14319,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -14367,7 +14367,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -14393,7 +14393,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -14498,7 +14498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -14543,13 +14543,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -14701,24 +14701,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -14741,7 +14741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -14885,7 +14885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -15180,7 +15180,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -15272,7 +15272,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -15298,7 +15298,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -15403,7 +15403,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -15492,13 +15492,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="U16" t="s">
         <v>23</v>
       </c>
@@ -15643,22 +15643,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>42</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>43</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="17:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
       <c r="R27">
         <v>505</v>
       </c>
@@ -15700,24 +15700,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -15844,7 +15844,7 @@
         <v>6.2092000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -15891,7 +15891,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -15989,7 +15989,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -15997,13 +15997,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -16054,7 +16054,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -16102,13 +16102,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>39</v>
       </c>
@@ -16193,24 +16193,24 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -16237,7 +16237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>-119.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>3</v>
@@ -16557,7 +16557,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -16565,13 +16565,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -16664,7 +16664,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -16721,13 +16721,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -16863,24 +16863,24 @@
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -16908,7 +16908,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -17031,7 +17031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -17301,7 +17301,7 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -17341,7 +17341,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -17437,7 +17437,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -17463,7 +17463,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -17558,7 +17558,7 @@
       <c r="AH12" s="15"/>
       <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -17651,13 +17651,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -17805,28 +17805,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="4"/>
-    <col min="2" max="2" width="19.68359375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="8.68359375" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.26171875" customWidth="1"/>
-    <col min="8" max="9" width="13.41796875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -17983,7 +17983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -18113,7 +18113,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
@@ -18184,7 +18184,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="9" t="s">
         <v>13</v>
@@ -18224,7 +18224,7 @@
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="9" t="s">
         <v>3</v>
@@ -18304,7 +18304,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -18330,7 +18330,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9" t="s">
         <v>10</v>
@@ -18435,7 +18435,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9" t="s">
         <v>11</v>
@@ -18512,13 +18512,13 @@
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
@@ -18655,12 +18655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -18679,7 +18679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51073BE3-BF80-4B3C-B641-B2AA5393BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BFE885-2036-477E-9F9C-E9FD092D5382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20100" yWindow="1050" windowWidth="13455" windowHeight="11385" firstSheet="5" activeTab="7" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Sheet1" sheetId="16" r:id="rId9"/>
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -12358,6 +12356,9 @@
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C4">
+        <v>384</v>
+      </c>
     </row>
     <row r="5" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -12670,7 +12671,7 @@
         <v>390</v>
       </c>
       <c r="J10" s="15">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="K10" s="15">
         <v>381</v>
@@ -16859,7 +16860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E5B9E9-F1B4-4DAB-B7CA-9BCB2303132C}">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
@@ -17805,8 +17806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{245A1644-2BFB-4EA7-BEAA-4598893697AD}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F04B89-E708-464D-8B19-EE93693C1945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE6D91-E61A-4FF3-A243-8D226DFC441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="21600" windowHeight="11235" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="31110" yWindow="2580" windowWidth="21630" windowHeight="11250" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -11356,8 +11356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83896A-0586-4C90-B5FD-474633C66A37}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:V13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11990,11 +11990,11 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:K15" si="1">C6*SIN(RADIANS(C8))*C12/1000</f>
+        <f>C6*SIN(RADIANS(C8))*C12/1000</f>
         <v>4.6268503604248918</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C15:K15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
         <v>4.503204045949718</v>
       </c>
       <c r="E15">
@@ -12129,11 +12129,11 @@
     </row>
     <row r="18" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C18">
-        <f t="shared" ref="C18:K18" si="4">C6+4.6262</f>
+        <f>C6+4.6262</f>
         <v>22.176200000000001</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C18:K18" si="4">D6+4.6262</f>
         <v>21.7072</v>
       </c>
       <c r="E18">
@@ -15229,7 +15229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE6D91-E61A-4FF3-A243-8D226DFC441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4232FB0-A69F-4993-9A40-4A30025DFB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="2580" windowWidth="21630" windowHeight="11250" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="36045" yWindow="30" windowWidth="21630" windowHeight="11250" firstSheet="1" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -2450,56 +2450,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.54457231908511439"/>
-                  <c:y val="-0.10016856803790615"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="3"/>
             <c:dispRSqr val="1"/>
@@ -2507,8 +2457,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.32007827146606677"/>
-                  <c:y val="-6.6366258673111411E-2"/>
+                  <c:x val="-0.3061838912899903"/>
+                  <c:y val="-0.18688940810821164"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -11994,7 +11944,7 @@
         <v>4.6268503604248918</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="C15:K15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
+        <f t="shared" ref="D15:K15" si="1">D6*SIN(RADIANS(D8))*D12/1000</f>
         <v>4.503204045949718</v>
       </c>
       <c r="E15">
@@ -12133,7 +12083,7 @@
         <v>22.176200000000001</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="C18:K18" si="4">D6+4.6262</f>
+        <f t="shared" ref="D18:K18" si="4">D6+4.6262</f>
         <v>21.7072</v>
       </c>
       <c r="E18">
@@ -13776,8 +13726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14736,8 +14686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15229,7 +15179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4232FB0-A69F-4993-9A40-4A30025DFB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5560F8-6F0F-41EC-9B10-4B2993FA0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36045" yWindow="30" windowWidth="21630" windowHeight="11250" firstSheet="1" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="35970" yWindow="30" windowWidth="21630" windowHeight="11250" firstSheet="2" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>Test #</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Festo-10 @ 6 bar, from sheet</t>
+  </si>
+  <si>
+    <t>original</t>
   </si>
 </sst>
 </file>
@@ -10632,13 +10635,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>740833</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>7937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>131233</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>36512</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11304,10 +11307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C83896A-0586-4C90-B5FD-474633C66A37}">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C6" sqref="C6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12115,78 +12118,141 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>22.176200000000001</v>
+      </c>
+      <c r="D19">
+        <v>21.7072</v>
+      </c>
+      <c r="E19">
+        <v>20.906200000000002</v>
+      </c>
+      <c r="F19">
+        <v>19.8062</v>
+      </c>
+      <c r="G19">
+        <v>17.587199999999999</v>
+      </c>
+      <c r="H19">
+        <v>15.3462</v>
+      </c>
+      <c r="I19">
+        <v>10.5101</v>
+      </c>
+      <c r="J19">
+        <v>9.2701999999999991</v>
+      </c>
+      <c r="K19">
+        <v>6.3061999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="T21">
-        <v>480</v>
-      </c>
-      <c r="U21">
-        <v>470</v>
-      </c>
-      <c r="V21">
-        <v>450</v>
-      </c>
-      <c r="W21">
-        <v>420</v>
-      </c>
-      <c r="X21">
-        <v>405</v>
+      <c r="C21">
+        <v>17.55</v>
+      </c>
+      <c r="D21">
+        <v>17.081</v>
+      </c>
+      <c r="E21">
+        <v>16.28</v>
+      </c>
+      <c r="F21">
+        <v>15.18</v>
+      </c>
+      <c r="G21">
+        <v>12.961</v>
+      </c>
+      <c r="H21">
+        <v>10.72</v>
+      </c>
+      <c r="I21">
+        <v>5.8838999999999997</v>
+      </c>
+      <c r="J21">
+        <v>4.6440000000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.68</v>
       </c>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="S22" t="s">
-        <v>30</v>
-      </c>
       <c r="T22">
-        <f>(486-T21)/486</f>
-        <v>1.2345679012345678E-2</v>
+        <v>480</v>
       </c>
       <c r="U22">
-        <f>(486-U21)/486</f>
-        <v>3.292181069958848E-2</v>
+        <v>470</v>
       </c>
       <c r="V22">
-        <f>(486-V21)/486</f>
-        <v>7.407407407407407E-2</v>
+        <v>450</v>
       </c>
       <c r="W22">
-        <f>(486-W21)/486</f>
-        <v>0.13580246913580246</v>
+        <v>420</v>
       </c>
       <c r="X22">
-        <f>(486-X21)/486</f>
-        <v>0.16666666666666666</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.3">
       <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <f>(486-T22)/486</f>
+        <v>1.2345679012345678E-2</v>
+      </c>
+      <c r="U23">
+        <f>(486-U22)/486</f>
+        <v>3.292181069958848E-2</v>
+      </c>
+      <c r="V23">
+        <f>(486-V22)/486</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="W23">
+        <f>(486-W22)/486</f>
+        <v>0.13580246913580246</v>
+      </c>
+      <c r="X23">
+        <f>(486-X22)/486</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
         <v>31</v>
       </c>
-      <c r="T23">
-        <f>T22/$T$26</f>
+      <c r="T24">
+        <f>T23/$T$27</f>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="U23">
-        <f>U22/$T$26</f>
+      <c r="U24">
+        <f>U23/$T$27</f>
         <v>0.19753086419753088</v>
       </c>
-      <c r="V23">
-        <f>V22/$T$26</f>
+      <c r="V24">
+        <f>V23/$T$27</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="W23">
-        <f>W22/$T$26</f>
+      <c r="W24">
+        <f>W23/$T$27</f>
         <v>0.81481481481481477</v>
       </c>
-      <c r="X23">
-        <f>X22/$T$26</f>
+      <c r="X24">
+        <f>X23/$T$27</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="S26" t="s">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
         <v>32</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f xml:space="preserve"> (486-405)/486</f>
         <v>0.16666666666666666</v>
       </c>
@@ -13726,8 +13792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14686,7 +14752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -15179,8 +15245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5560F8-6F0F-41EC-9B10-4B2993FA0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC201AFB-FDB5-4A0E-92A4-37E860E17DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35970" yWindow="30" windowWidth="21630" windowHeight="11250" firstSheet="2" activeTab="3" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -23,28 +23,17 @@
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId8"/>
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="47">
   <si>
     <t>Test #</t>
   </si>
@@ -182,6 +171,9 @@
   </si>
   <si>
     <t>original</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1857,123 +1849,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.60346456692913386"/>
-                  <c:y val="-0.28313193524076818"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.40464027934008251"/>
-                  <c:y val="-1.2615056781268678E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="5"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -3444,56 +3320,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.56013262112234863"/>
-                  <c:y val="-0.18098089928539954"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -11299,7 +11125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11313,24 +11139,24 @@
       <selection activeCell="C6" sqref="C6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -11341,7 +11167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -11350,7 +11176,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -11358,7 +11184,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -11481,7 +11307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -11546,7 +11372,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -11611,7 +11437,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -11679,13 +11505,13 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -11765,7 +11591,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -11791,7 +11617,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -11866,7 +11692,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -11932,13 +11758,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -12075,12 +11901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -12118,7 +11944,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>22.176200000000001</v>
       </c>
@@ -12147,12 +11973,12 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>17.55</v>
       </c>
@@ -12181,7 +12007,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="T22">
         <v>480</v>
       </c>
@@ -12198,7 +12024,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
         <v>30</v>
       </c>
@@ -12223,7 +12049,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S24" t="s">
         <v>31</v>
       </c>
@@ -12248,7 +12074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="S27" t="s">
         <v>32</v>
       </c>
@@ -12272,24 +12098,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -12300,7 +12126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -12309,7 +12135,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -12321,7 +12147,7 @@
         <v>0.16849015317286653</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -12444,7 +12270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -12536,7 +12362,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -12628,7 +12454,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -12723,13 +12549,13 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -12827,7 +12653,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -12853,7 +12679,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -12958,7 +12784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -13051,13 +12877,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -13209,24 +13035,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -13237,7 +13063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -13246,7 +13072,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -13258,7 +13084,7 @@
         <v>0.18106995884773658</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -13381,7 +13207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -13398,7 +13224,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -13415,7 +13241,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -13435,13 +13261,13 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -13489,7 +13315,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -13515,7 +13341,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -13620,7 +13446,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -13638,13 +13464,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -13792,28 +13618,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D539E524-5F19-4B4B-B21A-C95F2596B6A0}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -13824,7 +13650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -13836,7 +13662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -13857,7 +13683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -13980,7 +13806,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -14066,7 +13892,7 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -14149,7 +13975,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -14235,13 +14061,13 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -14333,7 +14159,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -14359,7 +14185,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -14464,7 +14290,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -14548,13 +14374,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -14691,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="U16" t="s">
         <v>23</v>
       </c>
@@ -14699,22 +14525,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
       <c r="AC18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q25" t="s">
         <v>42</v>
       </c>
@@ -14725,7 +14551,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>43</v>
       </c>
@@ -14736,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="17:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
       <c r="R27">
         <v>505</v>
       </c>
@@ -14752,28 +14578,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -14784,7 +14610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -14792,7 +14618,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -14803,7 +14629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -14853,7 +14679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -14900,7 +14726,7 @@
         <v>6.2092000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -14947,7 +14773,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -14997,7 +14823,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -15035,8 +14861,8 @@
       <c r="M9">
         <v>363</v>
       </c>
-      <c r="N9">
-        <v>340</v>
+      <c r="N9" t="s">
+        <v>46</v>
       </c>
       <c r="O9">
         <v>355</v>
@@ -15045,7 +14871,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -15053,13 +14879,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -15110,7 +14936,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -15158,13 +14984,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -15229,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>39</v>
       </c>
@@ -15246,27 +15072,27 @@
   <dimension ref="A1:AE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15277,7 +15103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -15285,7 +15111,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -15293,7 +15119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -15385,7 +15211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -15441,7 +15267,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -15497,7 +15323,7 @@
         <v>-119.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -15556,7 +15382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -15613,7 +15439,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -15621,13 +15447,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -15720,7 +15546,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -15777,13 +15603,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -15919,24 +15745,24 @@
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15947,7 +15773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -15956,7 +15782,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -15964,7 +15790,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -16087,7 +15913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -16176,7 +16002,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -16265,7 +16091,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -16357,13 +16183,13 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -16459,7 +16285,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -16485,7 +16311,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -16575,7 +16401,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -16665,13 +16491,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -16823,24 +16649,24 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -16851,7 +16677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -16863,7 +16689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -16874,7 +16700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -16997,7 +16823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -17062,7 +16888,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -17127,7 +16953,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -17195,13 +17021,13 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -17281,7 +17107,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -17307,7 +17133,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -17412,7 +17238,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -17478,13 +17304,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -17621,12 +17447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -17647,24 +17473,24 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -17675,7 +17501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -17684,7 +17510,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -17692,7 +17518,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -17815,7 +17641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -17850,7 +17676,7 @@
         <v>2.0994000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -17885,7 +17711,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -17923,13 +17749,13 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -17989,7 +17815,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -18015,7 +17841,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -18120,7 +17946,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -18156,13 +17982,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -18299,13 +18125,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
       <c r="J18">
         <f>1-348/457</f>
         <v>0.23851203501094087</v>
       </c>
     </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:18" x14ac:dyDescent="0.25">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC201AFB-FDB5-4A0E-92A4-37E860E17DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2511E-9BF5-470D-AB28-0946F5D5FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -23,10 +23,21 @@
     <sheet name="FlxTest10mm_2" sheetId="8" r:id="rId8"/>
     <sheet name="FlxTest10mm_3" sheetId="15" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -10837,9 +10848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10877,7 +10888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10983,7 +10994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11125,7 +11136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11139,24 +11150,24 @@
       <selection activeCell="C6" sqref="C6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -11167,7 +11178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -11176,7 +11187,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -11184,7 +11195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -11307,7 +11318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -11372,7 +11383,7 @@
         <v>23.167999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -11437,7 +11448,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -11505,13 +11516,13 @@
         <v>84.4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -11591,7 +11602,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -11617,7 +11628,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -11692,7 +11703,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -11758,13 +11769,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -11901,12 +11912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C18">
         <f>C6+4.6262</f>
         <v>22.176200000000001</v>
@@ -11944,7 +11955,7 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>22.176200000000001</v>
       </c>
@@ -11973,12 +11984,12 @@
         <v>6.3061999999999996</v>
       </c>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>17.55</v>
       </c>
@@ -12007,7 +12018,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.3">
       <c r="T22">
         <v>480</v>
       </c>
@@ -12024,7 +12035,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.3">
       <c r="S23" t="s">
         <v>30</v>
       </c>
@@ -12049,7 +12060,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.3">
       <c r="S24" t="s">
         <v>31</v>
       </c>
@@ -12074,7 +12085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.3">
       <c r="S27" t="s">
         <v>32</v>
       </c>
@@ -12098,24 +12109,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -12126,7 +12137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -12135,7 +12146,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -12147,7 +12158,7 @@
         <v>0.16849015317286653</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -12270,7 +12281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -12362,7 +12373,7 @@
         <v>24.667000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -12454,7 +12465,7 @@
         <v>-123</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -12549,13 +12560,13 @@
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -12653,7 +12664,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -12679,7 +12690,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -12784,7 +12795,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -12877,13 +12888,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -13035,24 +13046,24 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -13063,7 +13074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -13072,7 +13083,7 @@
         <v>403.38</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -13084,7 +13095,7 @@
         <v>0.18106995884773658</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -13207,7 +13218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -13224,7 +13235,7 @@
         <v>13.111000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -13241,7 +13252,7 @@
         <v>-92</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -13261,13 +13272,13 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -13315,7 +13326,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -13341,7 +13352,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -13446,7 +13457,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -13464,13 +13475,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -13622,24 +13633,24 @@
       <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -13650,7 +13661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -13662,7 +13673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -13683,7 +13694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -13806,7 +13817,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -13892,7 +13903,7 @@
         <v>33.061999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -13975,7 +13986,7 @@
         <v>-66</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -14061,13 +14072,13 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -14159,7 +14170,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -14185,7 +14196,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -14290,7 +14301,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -14374,13 +14385,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -14517,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>23</v>
       </c>
@@ -14525,22 +14536,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:29" x14ac:dyDescent="0.3">
       <c r="AB17">
         <v>2.2241</v>
       </c>
     </row>
-    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:29" x14ac:dyDescent="0.3">
       <c r="AC18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:29" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:29" x14ac:dyDescent="0.3">
       <c r="Q25" t="s">
         <v>42</v>
       </c>
@@ -14551,7 +14562,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:29" x14ac:dyDescent="0.3">
       <c r="Q26" t="s">
         <v>43</v>
       </c>
@@ -14562,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:29" x14ac:dyDescent="0.3">
       <c r="R27">
         <v>505</v>
       </c>
@@ -14578,28 +14589,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -14610,7 +14621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -14618,7 +14629,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -14629,7 +14640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -14679,7 +14690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -14726,7 +14737,7 @@
         <v>6.2092000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -14773,7 +14784,7 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -14823,7 +14834,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -14871,7 +14882,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -14879,13 +14890,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -14936,7 +14947,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -14984,13 +14995,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -15055,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
         <v>39</v>
       </c>
@@ -15071,28 +15082,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15103,7 +15114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -15111,7 +15122,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -15119,7 +15130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -15211,7 +15222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -15267,7 +15278,7 @@
         <v>17.72</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -15323,7 +15334,7 @@
         <v>-119.5</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -15382,7 +15393,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>3</v>
@@ -15439,7 +15450,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
@@ -15447,13 +15458,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -15546,7 +15557,7 @@
         <v>249.71</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -15603,13 +15614,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -15745,24 +15756,24 @@
       <selection activeCell="C13" sqref="C13:AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -15773,7 +15784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -15782,7 +15793,7 @@
         <v>402.55</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -15790,7 +15801,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -15913,7 +15924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -16002,7 +16013,7 @@
         <v>30.405999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -16091,7 +16102,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -16183,13 +16194,13 @@
         <v>118.5</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -16285,7 +16296,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -16311,7 +16322,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -16401,7 +16412,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -16491,13 +16502,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -16649,24 +16660,24 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -16677,7 +16688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -16689,7 +16700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -16700,7 +16711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -16823,7 +16834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -16888,7 +16899,7 @@
         <v>48.012999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -16953,7 +16964,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -17021,13 +17032,13 @@
         <v>95.1</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -17107,7 +17118,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -17133,7 +17144,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -17238,7 +17249,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -17304,13 +17315,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -17447,12 +17458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>
@@ -17469,28 +17480,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="9" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -17501,7 +17512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -17510,7 +17521,7 @@
         <v>379.31</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
@@ -17518,7 +17529,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -17641,7 +17652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
@@ -17676,7 +17687,7 @@
         <v>2.0994000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
@@ -17711,7 +17722,7 @@
         <v>-105</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -17749,13 +17760,13 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -17815,7 +17826,7 @@
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -17841,7 +17852,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
@@ -17946,7 +17957,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
@@ -17982,13 +17993,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -18125,13 +18136,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J18">
         <f>1-348/457</f>
         <v>0.23851203501094087</v>
       </c>
     </row>
-    <row r="29" spans="10:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:18" x14ac:dyDescent="0.3">
       <c r="R29">
         <f>485*1.03</f>
         <v>499.55</v>

--- a/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
+++ b/Testing_Data/2022_02_Festo/Results_table_10mm_pinned_LoadCell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\2022_02_Festo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC2511E-9BF5-470D-AB28-0946F5D5FA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97047E0-B82B-4F65-A0C1-C460909C2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{FDAF32CB-2BA8-47E2-927E-3C1E6066A0C3}"/>
   </bookViews>
   <sheets>
     <sheet name="ExtTest10mm_1" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>Test #</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>original</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -14589,8 +14586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E6C766-4925-4D35-B304-44784D2D9843}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14872,8 +14869,8 @@
       <c r="M9">
         <v>363</v>
       </c>
-      <c r="N9" t="s">
-        <v>46</v>
+      <c r="N9">
+        <v>340</v>
       </c>
       <c r="O9">
         <v>355</v>
@@ -15082,8 +15079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B944D1C8-56B8-47D8-90D4-245D22EBCA01}">
   <dimension ref="A1:AE15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17480,8 +17477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28D160-17A5-469E-8CF6-067E3CB95279}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
